--- a/LoowooTech.Stock/Excels/ExcelTDYT4B2.xlsx
+++ b/LoowooTech.Stock/Excels/ExcelTDYT4B2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13050"/>
+    <workbookView windowWidth="28080" windowHeight="13050"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -251,12 +251,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0.0000_ "/>
     <numFmt numFmtId="177" formatCode="0_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -283,9 +283,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -296,17 +296,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -314,9 +305,32 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -328,32 +342,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -368,8 +365,39 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -380,34 +408,6 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -426,7 +426,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -438,31 +510,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -474,25 +582,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -504,103 +594,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -675,45 +675,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -725,15 +686,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -753,6 +705,30 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -767,8 +743,32 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -780,10 +780,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -792,137 +792,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -943,9 +943,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1322,7 +1319,7 @@
   <dimension ref="A1:AGF9"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="AFU1" workbookViewId="0">
-      <selection activeCell="AGF4" sqref="AGF4:AGF7"/>
+      <selection activeCell="E9" sqref="E9:AGF9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3084,865 +3081,865 @@
       </c>
       <c r="F3" s="6"/>
       <c r="G3" s="6"/>
-      <c r="H3" s="7" t="s">
+      <c r="H3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I3" s="7"/>
-      <c r="J3" s="7"/>
-      <c r="K3" s="7"/>
-      <c r="L3" s="7"/>
-      <c r="M3" s="7"/>
-      <c r="N3" s="7"/>
-      <c r="O3" s="7"/>
-      <c r="P3" s="7"/>
-      <c r="Q3" s="7"/>
-      <c r="R3" s="7"/>
-      <c r="S3" s="7"/>
-      <c r="T3" s="7"/>
-      <c r="U3" s="7"/>
-      <c r="V3" s="7"/>
-      <c r="W3" s="7"/>
-      <c r="X3" s="7"/>
-      <c r="Y3" s="7"/>
-      <c r="Z3" s="7"/>
-      <c r="AA3" s="7"/>
-      <c r="AB3" s="7"/>
-      <c r="AC3" s="7"/>
-      <c r="AD3" s="7"/>
-      <c r="AE3" s="7"/>
-      <c r="AF3" s="7"/>
-      <c r="AG3" s="7"/>
-      <c r="AH3" s="7"/>
-      <c r="AI3" s="7"/>
-      <c r="AJ3" s="7"/>
-      <c r="AK3" s="7"/>
-      <c r="AL3" s="7"/>
-      <c r="AM3" s="7"/>
-      <c r="AN3" s="7"/>
-      <c r="AO3" s="7"/>
-      <c r="AP3" s="7"/>
-      <c r="AQ3" s="7"/>
-      <c r="AR3" s="7"/>
-      <c r="AS3" s="7"/>
-      <c r="AT3" s="7"/>
-      <c r="AU3" s="7"/>
-      <c r="AV3" s="7"/>
-      <c r="AW3" s="7"/>
-      <c r="AX3" s="7"/>
-      <c r="AY3" s="7"/>
-      <c r="AZ3" s="7"/>
-      <c r="BA3" s="7"/>
-      <c r="BB3" s="7"/>
-      <c r="BC3" s="7"/>
-      <c r="BD3" s="7"/>
-      <c r="BE3" s="7"/>
-      <c r="BF3" s="7"/>
-      <c r="BG3" s="7"/>
-      <c r="BH3" s="7"/>
-      <c r="BI3" s="7"/>
-      <c r="BJ3" s="7"/>
-      <c r="BK3" s="7"/>
-      <c r="BL3" s="7"/>
-      <c r="BM3" s="7"/>
-      <c r="BN3" s="7"/>
-      <c r="BO3" s="7"/>
-      <c r="BP3" s="7"/>
-      <c r="BQ3" s="7"/>
-      <c r="BR3" s="7"/>
-      <c r="BS3" s="7"/>
-      <c r="BT3" s="7"/>
-      <c r="BU3" s="7"/>
-      <c r="BV3" s="7"/>
-      <c r="BW3" s="7"/>
-      <c r="BX3" s="7"/>
-      <c r="BY3" s="7"/>
-      <c r="BZ3" s="7"/>
-      <c r="CA3" s="7"/>
-      <c r="CB3" s="7"/>
-      <c r="CC3" s="7"/>
-      <c r="CD3" s="7"/>
-      <c r="CE3" s="7"/>
-      <c r="CF3" s="7"/>
-      <c r="CG3" s="7"/>
-      <c r="CH3" s="7"/>
-      <c r="CI3" s="7"/>
-      <c r="CJ3" s="7"/>
-      <c r="CK3" s="7"/>
-      <c r="CL3" s="7"/>
-      <c r="CM3" s="7"/>
-      <c r="CN3" s="7"/>
-      <c r="CO3" s="7"/>
-      <c r="CP3" s="7"/>
-      <c r="CQ3" s="7"/>
-      <c r="CR3" s="7"/>
-      <c r="CS3" s="7"/>
-      <c r="CT3" s="7"/>
-      <c r="CU3" s="7"/>
-      <c r="CV3" s="7"/>
-      <c r="CW3" s="7"/>
-      <c r="CX3" s="7"/>
-      <c r="CY3" s="7"/>
-      <c r="CZ3" s="7"/>
-      <c r="DA3" s="7"/>
-      <c r="DB3" s="7"/>
-      <c r="DC3" s="7"/>
-      <c r="DD3" s="7"/>
-      <c r="DE3" s="7"/>
-      <c r="DF3" s="7"/>
-      <c r="DG3" s="7"/>
-      <c r="DH3" s="7"/>
-      <c r="DI3" s="7"/>
-      <c r="DJ3" s="7"/>
-      <c r="DK3" s="7"/>
-      <c r="DL3" s="7"/>
-      <c r="DM3" s="7"/>
-      <c r="DN3" s="7"/>
-      <c r="DO3" s="7"/>
-      <c r="DP3" s="7"/>
-      <c r="DQ3" s="7"/>
-      <c r="DR3" s="7"/>
-      <c r="DS3" s="7"/>
-      <c r="DT3" s="7"/>
-      <c r="DU3" s="7"/>
-      <c r="DV3" s="7"/>
-      <c r="DW3" s="7"/>
-      <c r="DX3" s="7"/>
-      <c r="DY3" s="7"/>
-      <c r="DZ3" s="7"/>
-      <c r="EA3" s="7"/>
-      <c r="EB3" s="7"/>
-      <c r="EC3" s="7"/>
-      <c r="ED3" s="7"/>
-      <c r="EE3" s="7"/>
-      <c r="EF3" s="7"/>
-      <c r="EG3" s="7"/>
-      <c r="EH3" s="7"/>
-      <c r="EI3" s="7"/>
-      <c r="EJ3" s="7"/>
-      <c r="EK3" s="7"/>
-      <c r="EL3" s="7"/>
-      <c r="EM3" s="7"/>
-      <c r="EN3" s="7"/>
-      <c r="EO3" s="7"/>
-      <c r="EP3" s="7"/>
-      <c r="EQ3" s="7"/>
-      <c r="ER3" s="7"/>
-      <c r="ES3" s="7"/>
-      <c r="ET3" s="7"/>
-      <c r="EU3" s="7"/>
-      <c r="EV3" s="7"/>
-      <c r="EW3" s="7"/>
-      <c r="EX3" s="7"/>
-      <c r="EY3" s="7"/>
-      <c r="EZ3" s="7"/>
-      <c r="FA3" s="7"/>
-      <c r="FB3" s="7"/>
-      <c r="FC3" s="7"/>
-      <c r="FD3" s="7"/>
-      <c r="FE3" s="7"/>
-      <c r="FF3" s="7"/>
-      <c r="FG3" s="7"/>
-      <c r="FH3" s="7"/>
-      <c r="FI3" s="7"/>
-      <c r="FJ3" s="7"/>
-      <c r="FK3" s="7"/>
-      <c r="FL3" s="7"/>
-      <c r="FM3" s="7"/>
-      <c r="FN3" s="7"/>
-      <c r="FO3" s="7"/>
-      <c r="FP3" s="7"/>
-      <c r="FQ3" s="7"/>
-      <c r="FR3" s="7"/>
-      <c r="FS3" s="7"/>
-      <c r="FT3" s="7"/>
-      <c r="FU3" s="7"/>
-      <c r="FV3" s="7"/>
-      <c r="FW3" s="7"/>
-      <c r="FX3" s="7"/>
-      <c r="FY3" s="7"/>
-      <c r="FZ3" s="7"/>
-      <c r="GA3" s="7"/>
-      <c r="GB3" s="7"/>
-      <c r="GC3" s="7"/>
-      <c r="GD3" s="7"/>
-      <c r="GE3" s="7"/>
-      <c r="GF3" s="7"/>
-      <c r="GG3" s="7"/>
-      <c r="GH3" s="7"/>
-      <c r="GI3" s="7"/>
-      <c r="GJ3" s="7"/>
-      <c r="GK3" s="7"/>
-      <c r="GL3" s="7"/>
-      <c r="GM3" s="7"/>
-      <c r="GN3" s="7"/>
-      <c r="GO3" s="7"/>
-      <c r="GP3" s="7"/>
-      <c r="GQ3" s="7"/>
-      <c r="GR3" s="7"/>
-      <c r="GS3" s="7"/>
-      <c r="GT3" s="7"/>
-      <c r="GU3" s="7"/>
-      <c r="GV3" s="7"/>
-      <c r="GW3" s="7"/>
-      <c r="GX3" s="7"/>
-      <c r="GY3" s="7"/>
-      <c r="GZ3" s="7"/>
-      <c r="HA3" s="7"/>
-      <c r="HB3" s="7"/>
-      <c r="HC3" s="7"/>
-      <c r="HD3" s="7"/>
-      <c r="HE3" s="7"/>
-      <c r="HF3" s="7"/>
-      <c r="HG3" s="7"/>
-      <c r="HH3" s="7"/>
-      <c r="HI3" s="7"/>
-      <c r="HJ3" s="7"/>
-      <c r="HK3" s="7"/>
-      <c r="HL3" s="7"/>
-      <c r="HM3" s="7"/>
-      <c r="HN3" s="7"/>
-      <c r="HO3" s="7"/>
-      <c r="HP3" s="7"/>
-      <c r="HQ3" s="7"/>
-      <c r="HR3" s="7"/>
-      <c r="HS3" s="7"/>
-      <c r="HT3" s="7"/>
-      <c r="HU3" s="7"/>
-      <c r="HV3" s="7"/>
-      <c r="HW3" s="7"/>
-      <c r="HX3" s="7"/>
-      <c r="HY3" s="7"/>
-      <c r="HZ3" s="7"/>
-      <c r="IA3" s="7"/>
-      <c r="IB3" s="7"/>
-      <c r="IC3" s="7"/>
-      <c r="ID3" s="7"/>
-      <c r="IE3" s="7"/>
-      <c r="IF3" s="7"/>
-      <c r="IG3" s="7"/>
-      <c r="IH3" s="7"/>
-      <c r="II3" s="7"/>
-      <c r="IJ3" s="7"/>
-      <c r="IK3" s="7"/>
-      <c r="IL3" s="7"/>
-      <c r="IM3" s="7"/>
-      <c r="IN3" s="7"/>
-      <c r="IO3" s="7"/>
-      <c r="IP3" s="7"/>
-      <c r="IQ3" s="7"/>
-      <c r="IR3" s="7"/>
-      <c r="IS3" s="7"/>
-      <c r="IT3" s="7"/>
-      <c r="IU3" s="7"/>
-      <c r="IV3" s="7"/>
-      <c r="IW3" s="7"/>
-      <c r="IX3" s="7"/>
-      <c r="IY3" s="7"/>
-      <c r="IZ3" s="7"/>
-      <c r="JA3" s="7"/>
-      <c r="JB3" s="7"/>
-      <c r="JC3" s="7"/>
-      <c r="JD3" s="7"/>
-      <c r="JE3" s="7"/>
-      <c r="JF3" s="7"/>
-      <c r="JG3" s="7"/>
-      <c r="JH3" s="7"/>
-      <c r="JI3" s="7"/>
-      <c r="JJ3" s="7"/>
-      <c r="JK3" s="7"/>
-      <c r="JL3" s="7"/>
-      <c r="JM3" s="7"/>
-      <c r="JN3" s="7"/>
-      <c r="JO3" s="7"/>
-      <c r="JP3" s="7"/>
-      <c r="JQ3" s="7"/>
-      <c r="JR3" s="7"/>
-      <c r="JS3" s="7"/>
-      <c r="JT3" s="7"/>
-      <c r="JU3" s="7"/>
-      <c r="JV3" s="7"/>
-      <c r="JW3" s="7"/>
-      <c r="JX3" s="7"/>
-      <c r="JY3" s="7"/>
-      <c r="JZ3" s="7"/>
-      <c r="KA3" s="7"/>
-      <c r="KB3" s="7"/>
-      <c r="KC3" s="7"/>
-      <c r="KD3" s="7"/>
-      <c r="KE3" s="7"/>
-      <c r="KF3" s="7"/>
-      <c r="KG3" s="7"/>
-      <c r="KH3" s="7"/>
-      <c r="KI3" s="7"/>
-      <c r="KJ3" s="7"/>
-      <c r="KK3" s="7"/>
-      <c r="KL3" s="7"/>
-      <c r="KM3" s="7"/>
-      <c r="KN3" s="7"/>
-      <c r="KO3" s="7"/>
-      <c r="KP3" s="7"/>
-      <c r="KQ3" s="7"/>
-      <c r="KR3" s="7"/>
-      <c r="KS3" s="7"/>
-      <c r="KT3" s="7"/>
-      <c r="KU3" s="7"/>
-      <c r="KV3" s="7"/>
-      <c r="KW3" s="7"/>
-      <c r="KX3" s="7"/>
-      <c r="KY3" s="7"/>
-      <c r="KZ3" s="7"/>
-      <c r="LA3" s="7"/>
-      <c r="LB3" s="7"/>
-      <c r="LC3" s="7"/>
-      <c r="LD3" s="7"/>
-      <c r="LE3" s="7"/>
-      <c r="LF3" s="7"/>
-      <c r="LG3" s="7"/>
-      <c r="LH3" s="7"/>
-      <c r="LI3" s="7"/>
-      <c r="LJ3" s="7"/>
-      <c r="LK3" s="7"/>
-      <c r="LL3" s="7"/>
-      <c r="LM3" s="7"/>
-      <c r="LN3" s="7"/>
-      <c r="LO3" s="7"/>
-      <c r="LP3" s="7"/>
-      <c r="LQ3" s="7"/>
-      <c r="LR3" s="7"/>
-      <c r="LS3" s="7"/>
-      <c r="LT3" s="7"/>
-      <c r="LU3" s="7"/>
-      <c r="LV3" s="7"/>
-      <c r="LW3" s="7"/>
-      <c r="LX3" s="7"/>
-      <c r="LY3" s="7"/>
-      <c r="LZ3" s="7"/>
-      <c r="MA3" s="7"/>
-      <c r="MB3" s="7"/>
-      <c r="MC3" s="7"/>
-      <c r="MD3" s="7"/>
-      <c r="ME3" s="7"/>
-      <c r="MF3" s="7"/>
-      <c r="MG3" s="7"/>
-      <c r="MH3" s="7"/>
-      <c r="MI3" s="7"/>
-      <c r="MJ3" s="7"/>
-      <c r="MK3" s="7"/>
-      <c r="ML3" s="7"/>
-      <c r="MM3" s="7"/>
-      <c r="MN3" s="7"/>
-      <c r="MO3" s="7"/>
-      <c r="MP3" s="7"/>
-      <c r="MQ3" s="7"/>
-      <c r="MR3" s="7"/>
-      <c r="MS3" s="7"/>
-      <c r="MT3" s="7"/>
-      <c r="MU3" s="7"/>
-      <c r="MV3" s="7"/>
-      <c r="MW3" s="7"/>
-      <c r="MX3" s="7"/>
-      <c r="MY3" s="7"/>
-      <c r="MZ3" s="7"/>
-      <c r="NA3" s="7"/>
-      <c r="NB3" s="7"/>
-      <c r="NC3" s="7"/>
-      <c r="ND3" s="7"/>
-      <c r="NE3" s="7"/>
-      <c r="NF3" s="7"/>
-      <c r="NG3" s="7"/>
-      <c r="NH3" s="7"/>
-      <c r="NI3" s="7"/>
-      <c r="NJ3" s="7"/>
-      <c r="NK3" s="7"/>
-      <c r="NL3" s="7"/>
-      <c r="NM3" s="7"/>
-      <c r="NN3" s="7"/>
-      <c r="NO3" s="7"/>
-      <c r="NP3" s="7"/>
-      <c r="NQ3" s="7"/>
-      <c r="NR3" s="7"/>
-      <c r="NS3" s="7"/>
-      <c r="NT3" s="7"/>
-      <c r="NU3" s="7"/>
-      <c r="NV3" s="7"/>
-      <c r="NW3" s="7"/>
-      <c r="NX3" s="7"/>
-      <c r="NY3" s="7"/>
-      <c r="NZ3" s="7"/>
-      <c r="OA3" s="7"/>
-      <c r="OB3" s="7"/>
-      <c r="OC3" s="7"/>
-      <c r="OD3" s="7"/>
-      <c r="OE3" s="7"/>
-      <c r="OF3" s="7"/>
-      <c r="OG3" s="7"/>
-      <c r="OH3" s="7"/>
-      <c r="OI3" s="7"/>
-      <c r="OJ3" s="7"/>
-      <c r="OK3" s="7"/>
-      <c r="OL3" s="7"/>
-      <c r="OM3" s="7"/>
-      <c r="ON3" s="7"/>
-      <c r="OO3" s="7"/>
-      <c r="OP3" s="7"/>
-      <c r="OQ3" s="7"/>
-      <c r="OR3" s="7"/>
-      <c r="OS3" s="7"/>
-      <c r="OT3" s="7"/>
-      <c r="OU3" s="7"/>
-      <c r="OV3" s="7"/>
-      <c r="OW3" s="7"/>
-      <c r="OX3" s="7"/>
-      <c r="OY3" s="7"/>
-      <c r="OZ3" s="7"/>
-      <c r="PA3" s="7"/>
-      <c r="PB3" s="7"/>
-      <c r="PC3" s="7"/>
-      <c r="PD3" s="7"/>
-      <c r="PE3" s="7"/>
-      <c r="PF3" s="7"/>
-      <c r="PG3" s="7"/>
-      <c r="PH3" s="7"/>
-      <c r="PI3" s="7"/>
-      <c r="PJ3" s="7"/>
-      <c r="PK3" s="7"/>
-      <c r="PL3" s="7"/>
-      <c r="PM3" s="7"/>
-      <c r="PN3" s="7"/>
-      <c r="PO3" s="7"/>
-      <c r="PP3" s="7"/>
-      <c r="PQ3" s="7"/>
-      <c r="PR3" s="7"/>
-      <c r="PS3" s="7"/>
-      <c r="PT3" s="7"/>
-      <c r="PU3" s="7"/>
-      <c r="PV3" s="7"/>
-      <c r="PW3" s="7"/>
-      <c r="PX3" s="7"/>
-      <c r="PY3" s="7"/>
-      <c r="PZ3" s="7"/>
-      <c r="QA3" s="7"/>
-      <c r="QB3" s="7"/>
-      <c r="QC3" s="7"/>
-      <c r="QD3" s="7"/>
-      <c r="QE3" s="7"/>
-      <c r="QF3" s="7"/>
-      <c r="QG3" s="7"/>
-      <c r="QH3" s="7"/>
-      <c r="QI3" s="7"/>
-      <c r="QJ3" s="7"/>
-      <c r="QK3" s="7"/>
-      <c r="QL3" s="7"/>
-      <c r="QM3" s="7"/>
-      <c r="QN3" s="7"/>
-      <c r="QO3" s="7"/>
-      <c r="QP3" s="7"/>
-      <c r="QQ3" s="7"/>
-      <c r="QR3" s="7"/>
-      <c r="QS3" s="7"/>
-      <c r="QT3" s="7"/>
-      <c r="QU3" s="7"/>
-      <c r="QV3" s="7"/>
-      <c r="QW3" s="7"/>
-      <c r="QX3" s="7"/>
-      <c r="QY3" s="7"/>
-      <c r="QZ3" s="7"/>
-      <c r="RA3" s="7"/>
-      <c r="RB3" s="7"/>
-      <c r="RC3" s="7"/>
-      <c r="RD3" s="7"/>
-      <c r="RE3" s="7"/>
-      <c r="RF3" s="7"/>
-      <c r="RG3" s="7"/>
-      <c r="RH3" s="7"/>
-      <c r="RI3" s="7"/>
-      <c r="RJ3" s="7"/>
-      <c r="RK3" s="7"/>
-      <c r="RL3" s="7"/>
-      <c r="RM3" s="7"/>
-      <c r="RN3" s="7"/>
-      <c r="RO3" s="7"/>
-      <c r="RP3" s="7"/>
-      <c r="RQ3" s="7"/>
-      <c r="RR3" s="7"/>
-      <c r="RS3" s="7"/>
-      <c r="RT3" s="7"/>
-      <c r="RU3" s="7"/>
-      <c r="RV3" s="7"/>
-      <c r="RW3" s="7"/>
-      <c r="RX3" s="7"/>
-      <c r="RY3" s="7"/>
-      <c r="RZ3" s="7"/>
-      <c r="SA3" s="7"/>
-      <c r="SB3" s="7"/>
-      <c r="SC3" s="7"/>
-      <c r="SD3" s="7"/>
-      <c r="SE3" s="7"/>
-      <c r="SF3" s="7"/>
-      <c r="SG3" s="7"/>
-      <c r="SH3" s="7"/>
-      <c r="SI3" s="7"/>
-      <c r="SJ3" s="7"/>
-      <c r="SK3" s="7"/>
-      <c r="SL3" s="7"/>
-      <c r="SM3" s="7"/>
-      <c r="SN3" s="7"/>
-      <c r="SO3" s="7"/>
-      <c r="SP3" s="7"/>
-      <c r="SQ3" s="7"/>
-      <c r="SR3" s="7"/>
-      <c r="SS3" s="7"/>
-      <c r="ST3" s="7"/>
-      <c r="SU3" s="7"/>
-      <c r="SV3" s="7"/>
-      <c r="SW3" s="7"/>
-      <c r="SX3" s="7"/>
-      <c r="SY3" s="7"/>
-      <c r="SZ3" s="7"/>
-      <c r="TA3" s="7"/>
-      <c r="TB3" s="7"/>
-      <c r="TC3" s="7"/>
-      <c r="TD3" s="7"/>
-      <c r="TE3" s="7"/>
-      <c r="TF3" s="7"/>
-      <c r="TG3" s="7"/>
-      <c r="TH3" s="7"/>
-      <c r="TI3" s="7"/>
-      <c r="TJ3" s="7"/>
-      <c r="TK3" s="7"/>
-      <c r="TL3" s="7"/>
-      <c r="TM3" s="7"/>
-      <c r="TN3" s="7"/>
-      <c r="TO3" s="7"/>
-      <c r="TP3" s="7"/>
-      <c r="TQ3" s="7"/>
-      <c r="TR3" s="7"/>
-      <c r="TS3" s="7"/>
-      <c r="TT3" s="7"/>
-      <c r="TU3" s="7"/>
-      <c r="TV3" s="7"/>
-      <c r="TW3" s="7"/>
-      <c r="TX3" s="7"/>
-      <c r="TY3" s="7"/>
-      <c r="TZ3" s="7"/>
-      <c r="UA3" s="7"/>
-      <c r="UB3" s="7"/>
-      <c r="UC3" s="7"/>
-      <c r="UD3" s="7"/>
-      <c r="UE3" s="7"/>
-      <c r="UF3" s="7"/>
-      <c r="UG3" s="7"/>
-      <c r="UH3" s="7"/>
-      <c r="UI3" s="7"/>
-      <c r="UJ3" s="7"/>
-      <c r="UK3" s="7"/>
-      <c r="UL3" s="7"/>
-      <c r="UM3" s="7"/>
-      <c r="UN3" s="7"/>
-      <c r="UO3" s="7"/>
-      <c r="UP3" s="7"/>
-      <c r="UQ3" s="7"/>
-      <c r="UR3" s="7"/>
-      <c r="US3" s="7"/>
-      <c r="UT3" s="7"/>
-      <c r="UU3" s="7"/>
-      <c r="UV3" s="7"/>
-      <c r="UW3" s="7"/>
-      <c r="UX3" s="7"/>
-      <c r="UY3" s="7"/>
-      <c r="UZ3" s="7"/>
-      <c r="VA3" s="7"/>
-      <c r="VB3" s="7"/>
-      <c r="VC3" s="7"/>
-      <c r="VD3" s="7"/>
-      <c r="VE3" s="7"/>
-      <c r="VF3" s="7"/>
-      <c r="VG3" s="7"/>
-      <c r="VH3" s="7"/>
-      <c r="VI3" s="7"/>
-      <c r="VJ3" s="7"/>
-      <c r="VK3" s="7"/>
-      <c r="VL3" s="7"/>
-      <c r="VM3" s="7"/>
-      <c r="VN3" s="7"/>
-      <c r="VO3" s="7"/>
-      <c r="VP3" s="7"/>
-      <c r="VQ3" s="7"/>
-      <c r="VR3" s="7"/>
-      <c r="VS3" s="7"/>
-      <c r="VT3" s="7"/>
-      <c r="VU3" s="7"/>
-      <c r="VV3" s="7"/>
-      <c r="VW3" s="7"/>
-      <c r="VX3" s="7"/>
-      <c r="VY3" s="7"/>
-      <c r="VZ3" s="7"/>
-      <c r="WA3" s="7"/>
-      <c r="WB3" s="7"/>
-      <c r="WC3" s="7"/>
-      <c r="WD3" s="7"/>
-      <c r="WE3" s="7"/>
-      <c r="WF3" s="7"/>
-      <c r="WG3" s="7"/>
-      <c r="WH3" s="7"/>
-      <c r="WI3" s="7"/>
-      <c r="WJ3" s="7"/>
-      <c r="WK3" s="7"/>
-      <c r="WL3" s="7"/>
-      <c r="WM3" s="7"/>
-      <c r="WN3" s="7"/>
-      <c r="WO3" s="7"/>
-      <c r="WP3" s="7"/>
-      <c r="WQ3" s="7"/>
-      <c r="WR3" s="7"/>
-      <c r="WS3" s="7"/>
-      <c r="WT3" s="7"/>
-      <c r="WU3" s="7"/>
-      <c r="WV3" s="7"/>
-      <c r="WW3" s="7"/>
-      <c r="WX3" s="7"/>
-      <c r="WY3" s="7"/>
-      <c r="WZ3" s="7"/>
-      <c r="XA3" s="7"/>
-      <c r="XB3" s="7"/>
-      <c r="XC3" s="7"/>
-      <c r="XD3" s="7"/>
-      <c r="XE3" s="7"/>
-      <c r="XF3" s="7"/>
-      <c r="XG3" s="7"/>
-      <c r="XH3" s="7"/>
-      <c r="XI3" s="7"/>
-      <c r="XJ3" s="7"/>
-      <c r="XK3" s="7"/>
-      <c r="XL3" s="7"/>
-      <c r="XM3" s="7"/>
-      <c r="XN3" s="7"/>
-      <c r="XO3" s="7"/>
-      <c r="XP3" s="7"/>
-      <c r="XQ3" s="7"/>
-      <c r="XR3" s="7"/>
-      <c r="XS3" s="7"/>
-      <c r="XT3" s="7"/>
-      <c r="XU3" s="7"/>
-      <c r="XV3" s="7"/>
-      <c r="XW3" s="7"/>
-      <c r="XX3" s="7"/>
-      <c r="XY3" s="7"/>
-      <c r="XZ3" s="7"/>
-      <c r="YA3" s="7"/>
-      <c r="YB3" s="7"/>
-      <c r="YC3" s="7"/>
-      <c r="YD3" s="7"/>
-      <c r="YE3" s="7"/>
-      <c r="YF3" s="7"/>
-      <c r="YG3" s="7"/>
-      <c r="YH3" s="7"/>
-      <c r="YI3" s="7"/>
-      <c r="YJ3" s="7"/>
-      <c r="YK3" s="7"/>
-      <c r="YL3" s="7"/>
-      <c r="YM3" s="7"/>
-      <c r="YN3" s="7"/>
-      <c r="YO3" s="7"/>
-      <c r="YP3" s="7"/>
-      <c r="YQ3" s="7"/>
-      <c r="YR3" s="7"/>
-      <c r="YS3" s="7"/>
-      <c r="YT3" s="7"/>
-      <c r="YU3" s="7"/>
-      <c r="YV3" s="7"/>
-      <c r="YW3" s="7"/>
-      <c r="YX3" s="7"/>
-      <c r="YY3" s="7"/>
-      <c r="YZ3" s="7"/>
-      <c r="ZA3" s="7"/>
-      <c r="ZB3" s="7"/>
-      <c r="ZC3" s="7"/>
-      <c r="ZD3" s="7"/>
-      <c r="ZE3" s="7"/>
-      <c r="ZF3" s="7"/>
-      <c r="ZG3" s="7"/>
-      <c r="ZH3" s="7"/>
-      <c r="ZI3" s="7"/>
-      <c r="ZJ3" s="7"/>
-      <c r="ZK3" s="7"/>
-      <c r="ZL3" s="7"/>
-      <c r="ZM3" s="7"/>
-      <c r="ZN3" s="7"/>
-      <c r="ZO3" s="7"/>
-      <c r="ZP3" s="7"/>
-      <c r="ZQ3" s="7"/>
-      <c r="ZR3" s="7"/>
-      <c r="ZS3" s="7"/>
-      <c r="ZT3" s="7"/>
-      <c r="ZU3" s="7"/>
-      <c r="ZV3" s="7"/>
-      <c r="ZW3" s="7"/>
-      <c r="ZX3" s="7"/>
-      <c r="ZY3" s="7"/>
-      <c r="ZZ3" s="7"/>
-      <c r="AAA3" s="7"/>
-      <c r="AAB3" s="7"/>
-      <c r="AAC3" s="7"/>
-      <c r="AAD3" s="7"/>
-      <c r="AAE3" s="7"/>
-      <c r="AAF3" s="7"/>
-      <c r="AAG3" s="7"/>
-      <c r="AAH3" s="7"/>
-      <c r="AAI3" s="7"/>
-      <c r="AAJ3" s="7"/>
-      <c r="AAK3" s="7"/>
-      <c r="AAL3" s="7"/>
-      <c r="AAM3" s="7"/>
-      <c r="AAN3" s="7"/>
-      <c r="AAO3" s="7"/>
-      <c r="AAP3" s="7"/>
-      <c r="AAQ3" s="7"/>
-      <c r="AAR3" s="7"/>
-      <c r="AAS3" s="7"/>
-      <c r="AAT3" s="7"/>
-      <c r="AAU3" s="7"/>
-      <c r="AAV3" s="7"/>
-      <c r="AAW3" s="7"/>
-      <c r="AAX3" s="7"/>
-      <c r="AAY3" s="7"/>
-      <c r="AAZ3" s="7"/>
-      <c r="ABA3" s="7"/>
-      <c r="ABB3" s="7"/>
-      <c r="ABC3" s="7"/>
-      <c r="ABD3" s="7"/>
-      <c r="ABE3" s="7"/>
-      <c r="ABF3" s="7"/>
-      <c r="ABG3" s="7"/>
-      <c r="ABH3" s="7"/>
-      <c r="ABI3" s="7"/>
-      <c r="ABJ3" s="7"/>
-      <c r="ABK3" s="7"/>
-      <c r="ABL3" s="7"/>
-      <c r="ABM3" s="7"/>
-      <c r="ABN3" s="7"/>
-      <c r="ABO3" s="7"/>
-      <c r="ABP3" s="7"/>
-      <c r="ABQ3" s="7"/>
-      <c r="ABR3" s="7"/>
-      <c r="ABS3" s="7"/>
-      <c r="ABT3" s="7"/>
-      <c r="ABU3" s="7"/>
-      <c r="ABV3" s="7"/>
-      <c r="ABW3" s="7"/>
-      <c r="ABX3" s="7"/>
-      <c r="ABY3" s="7"/>
-      <c r="ABZ3" s="7"/>
-      <c r="ACA3" s="7"/>
-      <c r="ACB3" s="7"/>
-      <c r="ACC3" s="7"/>
-      <c r="ACD3" s="7"/>
-      <c r="ACE3" s="7"/>
-      <c r="ACF3" s="7"/>
-      <c r="ACG3" s="7"/>
-      <c r="ACH3" s="7"/>
-      <c r="ACI3" s="7"/>
-      <c r="ACJ3" s="7"/>
-      <c r="ACK3" s="7"/>
-      <c r="ACL3" s="7"/>
-      <c r="ACM3" s="7"/>
-      <c r="ACN3" s="7"/>
-      <c r="ACO3" s="7"/>
-      <c r="ACP3" s="7"/>
-      <c r="ACQ3" s="7"/>
-      <c r="ACR3" s="7"/>
-      <c r="ACS3" s="7"/>
-      <c r="ACT3" s="7"/>
-      <c r="ACU3" s="7"/>
-      <c r="ACV3" s="7"/>
-      <c r="ACW3" s="7"/>
-      <c r="ACX3" s="7"/>
-      <c r="ACY3" s="7"/>
-      <c r="ACZ3" s="7"/>
-      <c r="ADA3" s="7"/>
-      <c r="ADB3" s="7"/>
-      <c r="ADC3" s="7"/>
-      <c r="ADD3" s="7"/>
-      <c r="ADE3" s="7"/>
-      <c r="ADF3" s="7"/>
-      <c r="ADG3" s="7"/>
-      <c r="ADH3" s="7"/>
-      <c r="ADI3" s="7"/>
-      <c r="ADJ3" s="7"/>
-      <c r="ADK3" s="7"/>
-      <c r="ADL3" s="7"/>
-      <c r="ADM3" s="7"/>
-      <c r="ADN3" s="7"/>
-      <c r="ADO3" s="7"/>
-      <c r="ADP3" s="7"/>
-      <c r="ADQ3" s="7"/>
-      <c r="ADR3" s="7"/>
-      <c r="ADS3" s="7"/>
-      <c r="ADT3" s="7"/>
-      <c r="ADU3" s="7"/>
-      <c r="ADV3" s="7"/>
-      <c r="ADW3" s="7"/>
-      <c r="ADX3" s="7"/>
-      <c r="ADY3" s="7"/>
-      <c r="ADZ3" s="7"/>
-      <c r="AEA3" s="7"/>
-      <c r="AEB3" s="7"/>
-      <c r="AEC3" s="7"/>
-      <c r="AED3" s="7"/>
-      <c r="AEE3" s="7"/>
-      <c r="AEF3" s="7"/>
-      <c r="AEG3" s="7"/>
-      <c r="AEH3" s="7"/>
-      <c r="AEI3" s="7"/>
-      <c r="AEJ3" s="7"/>
-      <c r="AEK3" s="7"/>
-      <c r="AEL3" s="7"/>
-      <c r="AEM3" s="7"/>
-      <c r="AEN3" s="7"/>
-      <c r="AEO3" s="7"/>
-      <c r="AEP3" s="7"/>
-      <c r="AEQ3" s="7"/>
-      <c r="AER3" s="7"/>
-      <c r="AES3" s="7"/>
-      <c r="AET3" s="7"/>
-      <c r="AEU3" s="7"/>
-      <c r="AEV3" s="7"/>
-      <c r="AEW3" s="7"/>
-      <c r="AEX3" s="7"/>
-      <c r="AEY3" s="7"/>
-      <c r="AEZ3" s="7"/>
-      <c r="AFA3" s="7"/>
-      <c r="AFB3" s="7"/>
-      <c r="AFC3" s="7"/>
-      <c r="AFD3" s="7"/>
-      <c r="AFE3" s="7"/>
-      <c r="AFF3" s="7"/>
-      <c r="AFG3" s="7"/>
-      <c r="AFH3" s="7"/>
-      <c r="AFI3" s="7"/>
-      <c r="AFJ3" s="7"/>
-      <c r="AFK3" s="7"/>
-      <c r="AFL3" s="7"/>
-      <c r="AFM3" s="7"/>
-      <c r="AFN3" s="7"/>
-      <c r="AFO3" s="7"/>
-      <c r="AFP3" s="7"/>
-      <c r="AFQ3" s="7"/>
-      <c r="AFR3" s="7"/>
-      <c r="AFS3" s="7"/>
-      <c r="AFT3" s="7"/>
-      <c r="AFU3" s="7"/>
-      <c r="AFV3" s="7"/>
-      <c r="AFW3" s="7"/>
-      <c r="AFX3" s="7"/>
-      <c r="AFY3" s="7"/>
-      <c r="AFZ3" s="7"/>
-      <c r="AGA3" s="7"/>
-      <c r="AGB3" s="7"/>
-      <c r="AGC3" s="7"/>
-      <c r="AGD3" s="7"/>
-      <c r="AGE3" s="7"/>
-      <c r="AGF3" s="7"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
+      <c r="N3" s="5"/>
+      <c r="O3" s="5"/>
+      <c r="P3" s="5"/>
+      <c r="Q3" s="5"/>
+      <c r="R3" s="5"/>
+      <c r="S3" s="5"/>
+      <c r="T3" s="5"/>
+      <c r="U3" s="5"/>
+      <c r="V3" s="5"/>
+      <c r="W3" s="5"/>
+      <c r="X3" s="5"/>
+      <c r="Y3" s="5"/>
+      <c r="Z3" s="5"/>
+      <c r="AA3" s="5"/>
+      <c r="AB3" s="5"/>
+      <c r="AC3" s="5"/>
+      <c r="AD3" s="5"/>
+      <c r="AE3" s="5"/>
+      <c r="AF3" s="5"/>
+      <c r="AG3" s="5"/>
+      <c r="AH3" s="5"/>
+      <c r="AI3" s="5"/>
+      <c r="AJ3" s="5"/>
+      <c r="AK3" s="5"/>
+      <c r="AL3" s="5"/>
+      <c r="AM3" s="5"/>
+      <c r="AN3" s="5"/>
+      <c r="AO3" s="5"/>
+      <c r="AP3" s="5"/>
+      <c r="AQ3" s="5"/>
+      <c r="AR3" s="5"/>
+      <c r="AS3" s="5"/>
+      <c r="AT3" s="5"/>
+      <c r="AU3" s="5"/>
+      <c r="AV3" s="5"/>
+      <c r="AW3" s="5"/>
+      <c r="AX3" s="5"/>
+      <c r="AY3" s="5"/>
+      <c r="AZ3" s="5"/>
+      <c r="BA3" s="5"/>
+      <c r="BB3" s="5"/>
+      <c r="BC3" s="5"/>
+      <c r="BD3" s="5"/>
+      <c r="BE3" s="5"/>
+      <c r="BF3" s="5"/>
+      <c r="BG3" s="5"/>
+      <c r="BH3" s="5"/>
+      <c r="BI3" s="5"/>
+      <c r="BJ3" s="5"/>
+      <c r="BK3" s="5"/>
+      <c r="BL3" s="5"/>
+      <c r="BM3" s="5"/>
+      <c r="BN3" s="5"/>
+      <c r="BO3" s="5"/>
+      <c r="BP3" s="5"/>
+      <c r="BQ3" s="5"/>
+      <c r="BR3" s="5"/>
+      <c r="BS3" s="5"/>
+      <c r="BT3" s="5"/>
+      <c r="BU3" s="5"/>
+      <c r="BV3" s="5"/>
+      <c r="BW3" s="5"/>
+      <c r="BX3" s="5"/>
+      <c r="BY3" s="5"/>
+      <c r="BZ3" s="5"/>
+      <c r="CA3" s="5"/>
+      <c r="CB3" s="5"/>
+      <c r="CC3" s="5"/>
+      <c r="CD3" s="5"/>
+      <c r="CE3" s="5"/>
+      <c r="CF3" s="5"/>
+      <c r="CG3" s="5"/>
+      <c r="CH3" s="5"/>
+      <c r="CI3" s="5"/>
+      <c r="CJ3" s="5"/>
+      <c r="CK3" s="5"/>
+      <c r="CL3" s="5"/>
+      <c r="CM3" s="5"/>
+      <c r="CN3" s="5"/>
+      <c r="CO3" s="5"/>
+      <c r="CP3" s="5"/>
+      <c r="CQ3" s="5"/>
+      <c r="CR3" s="5"/>
+      <c r="CS3" s="5"/>
+      <c r="CT3" s="5"/>
+      <c r="CU3" s="5"/>
+      <c r="CV3" s="5"/>
+      <c r="CW3" s="5"/>
+      <c r="CX3" s="5"/>
+      <c r="CY3" s="5"/>
+      <c r="CZ3" s="5"/>
+      <c r="DA3" s="5"/>
+      <c r="DB3" s="5"/>
+      <c r="DC3" s="5"/>
+      <c r="DD3" s="5"/>
+      <c r="DE3" s="5"/>
+      <c r="DF3" s="5"/>
+      <c r="DG3" s="5"/>
+      <c r="DH3" s="5"/>
+      <c r="DI3" s="5"/>
+      <c r="DJ3" s="5"/>
+      <c r="DK3" s="5"/>
+      <c r="DL3" s="5"/>
+      <c r="DM3" s="5"/>
+      <c r="DN3" s="5"/>
+      <c r="DO3" s="5"/>
+      <c r="DP3" s="5"/>
+      <c r="DQ3" s="5"/>
+      <c r="DR3" s="5"/>
+      <c r="DS3" s="5"/>
+      <c r="DT3" s="5"/>
+      <c r="DU3" s="5"/>
+      <c r="DV3" s="5"/>
+      <c r="DW3" s="5"/>
+      <c r="DX3" s="5"/>
+      <c r="DY3" s="5"/>
+      <c r="DZ3" s="5"/>
+      <c r="EA3" s="5"/>
+      <c r="EB3" s="5"/>
+      <c r="EC3" s="5"/>
+      <c r="ED3" s="5"/>
+      <c r="EE3" s="5"/>
+      <c r="EF3" s="5"/>
+      <c r="EG3" s="5"/>
+      <c r="EH3" s="5"/>
+      <c r="EI3" s="5"/>
+      <c r="EJ3" s="5"/>
+      <c r="EK3" s="5"/>
+      <c r="EL3" s="5"/>
+      <c r="EM3" s="5"/>
+      <c r="EN3" s="5"/>
+      <c r="EO3" s="5"/>
+      <c r="EP3" s="5"/>
+      <c r="EQ3" s="5"/>
+      <c r="ER3" s="5"/>
+      <c r="ES3" s="5"/>
+      <c r="ET3" s="5"/>
+      <c r="EU3" s="5"/>
+      <c r="EV3" s="5"/>
+      <c r="EW3" s="5"/>
+      <c r="EX3" s="5"/>
+      <c r="EY3" s="5"/>
+      <c r="EZ3" s="5"/>
+      <c r="FA3" s="5"/>
+      <c r="FB3" s="5"/>
+      <c r="FC3" s="5"/>
+      <c r="FD3" s="5"/>
+      <c r="FE3" s="5"/>
+      <c r="FF3" s="5"/>
+      <c r="FG3" s="5"/>
+      <c r="FH3" s="5"/>
+      <c r="FI3" s="5"/>
+      <c r="FJ3" s="5"/>
+      <c r="FK3" s="5"/>
+      <c r="FL3" s="5"/>
+      <c r="FM3" s="5"/>
+      <c r="FN3" s="5"/>
+      <c r="FO3" s="5"/>
+      <c r="FP3" s="5"/>
+      <c r="FQ3" s="5"/>
+      <c r="FR3" s="5"/>
+      <c r="FS3" s="5"/>
+      <c r="FT3" s="5"/>
+      <c r="FU3" s="5"/>
+      <c r="FV3" s="5"/>
+      <c r="FW3" s="5"/>
+      <c r="FX3" s="5"/>
+      <c r="FY3" s="5"/>
+      <c r="FZ3" s="5"/>
+      <c r="GA3" s="5"/>
+      <c r="GB3" s="5"/>
+      <c r="GC3" s="5"/>
+      <c r="GD3" s="5"/>
+      <c r="GE3" s="5"/>
+      <c r="GF3" s="5"/>
+      <c r="GG3" s="5"/>
+      <c r="GH3" s="5"/>
+      <c r="GI3" s="5"/>
+      <c r="GJ3" s="5"/>
+      <c r="GK3" s="5"/>
+      <c r="GL3" s="5"/>
+      <c r="GM3" s="5"/>
+      <c r="GN3" s="5"/>
+      <c r="GO3" s="5"/>
+      <c r="GP3" s="5"/>
+      <c r="GQ3" s="5"/>
+      <c r="GR3" s="5"/>
+      <c r="GS3" s="5"/>
+      <c r="GT3" s="5"/>
+      <c r="GU3" s="5"/>
+      <c r="GV3" s="5"/>
+      <c r="GW3" s="5"/>
+      <c r="GX3" s="5"/>
+      <c r="GY3" s="5"/>
+      <c r="GZ3" s="5"/>
+      <c r="HA3" s="5"/>
+      <c r="HB3" s="5"/>
+      <c r="HC3" s="5"/>
+      <c r="HD3" s="5"/>
+      <c r="HE3" s="5"/>
+      <c r="HF3" s="5"/>
+      <c r="HG3" s="5"/>
+      <c r="HH3" s="5"/>
+      <c r="HI3" s="5"/>
+      <c r="HJ3" s="5"/>
+      <c r="HK3" s="5"/>
+      <c r="HL3" s="5"/>
+      <c r="HM3" s="5"/>
+      <c r="HN3" s="5"/>
+      <c r="HO3" s="5"/>
+      <c r="HP3" s="5"/>
+      <c r="HQ3" s="5"/>
+      <c r="HR3" s="5"/>
+      <c r="HS3" s="5"/>
+      <c r="HT3" s="5"/>
+      <c r="HU3" s="5"/>
+      <c r="HV3" s="5"/>
+      <c r="HW3" s="5"/>
+      <c r="HX3" s="5"/>
+      <c r="HY3" s="5"/>
+      <c r="HZ3" s="5"/>
+      <c r="IA3" s="5"/>
+      <c r="IB3" s="5"/>
+      <c r="IC3" s="5"/>
+      <c r="ID3" s="5"/>
+      <c r="IE3" s="5"/>
+      <c r="IF3" s="5"/>
+      <c r="IG3" s="5"/>
+      <c r="IH3" s="5"/>
+      <c r="II3" s="5"/>
+      <c r="IJ3" s="5"/>
+      <c r="IK3" s="5"/>
+      <c r="IL3" s="5"/>
+      <c r="IM3" s="5"/>
+      <c r="IN3" s="5"/>
+      <c r="IO3" s="5"/>
+      <c r="IP3" s="5"/>
+      <c r="IQ3" s="5"/>
+      <c r="IR3" s="5"/>
+      <c r="IS3" s="5"/>
+      <c r="IT3" s="5"/>
+      <c r="IU3" s="5"/>
+      <c r="IV3" s="5"/>
+      <c r="IW3" s="5"/>
+      <c r="IX3" s="5"/>
+      <c r="IY3" s="5"/>
+      <c r="IZ3" s="5"/>
+      <c r="JA3" s="5"/>
+      <c r="JB3" s="5"/>
+      <c r="JC3" s="5"/>
+      <c r="JD3" s="5"/>
+      <c r="JE3" s="5"/>
+      <c r="JF3" s="5"/>
+      <c r="JG3" s="5"/>
+      <c r="JH3" s="5"/>
+      <c r="JI3" s="5"/>
+      <c r="JJ3" s="5"/>
+      <c r="JK3" s="5"/>
+      <c r="JL3" s="5"/>
+      <c r="JM3" s="5"/>
+      <c r="JN3" s="5"/>
+      <c r="JO3" s="5"/>
+      <c r="JP3" s="5"/>
+      <c r="JQ3" s="5"/>
+      <c r="JR3" s="5"/>
+      <c r="JS3" s="5"/>
+      <c r="JT3" s="5"/>
+      <c r="JU3" s="5"/>
+      <c r="JV3" s="5"/>
+      <c r="JW3" s="5"/>
+      <c r="JX3" s="5"/>
+      <c r="JY3" s="5"/>
+      <c r="JZ3" s="5"/>
+      <c r="KA3" s="5"/>
+      <c r="KB3" s="5"/>
+      <c r="KC3" s="5"/>
+      <c r="KD3" s="5"/>
+      <c r="KE3" s="5"/>
+      <c r="KF3" s="5"/>
+      <c r="KG3" s="5"/>
+      <c r="KH3" s="5"/>
+      <c r="KI3" s="5"/>
+      <c r="KJ3" s="5"/>
+      <c r="KK3" s="5"/>
+      <c r="KL3" s="5"/>
+      <c r="KM3" s="5"/>
+      <c r="KN3" s="5"/>
+      <c r="KO3" s="5"/>
+      <c r="KP3" s="5"/>
+      <c r="KQ3" s="5"/>
+      <c r="KR3" s="5"/>
+      <c r="KS3" s="5"/>
+      <c r="KT3" s="5"/>
+      <c r="KU3" s="5"/>
+      <c r="KV3" s="5"/>
+      <c r="KW3" s="5"/>
+      <c r="KX3" s="5"/>
+      <c r="KY3" s="5"/>
+      <c r="KZ3" s="5"/>
+      <c r="LA3" s="5"/>
+      <c r="LB3" s="5"/>
+      <c r="LC3" s="5"/>
+      <c r="LD3" s="5"/>
+      <c r="LE3" s="5"/>
+      <c r="LF3" s="5"/>
+      <c r="LG3" s="5"/>
+      <c r="LH3" s="5"/>
+      <c r="LI3" s="5"/>
+      <c r="LJ3" s="5"/>
+      <c r="LK3" s="5"/>
+      <c r="LL3" s="5"/>
+      <c r="LM3" s="5"/>
+      <c r="LN3" s="5"/>
+      <c r="LO3" s="5"/>
+      <c r="LP3" s="5"/>
+      <c r="LQ3" s="5"/>
+      <c r="LR3" s="5"/>
+      <c r="LS3" s="5"/>
+      <c r="LT3" s="5"/>
+      <c r="LU3" s="5"/>
+      <c r="LV3" s="5"/>
+      <c r="LW3" s="5"/>
+      <c r="LX3" s="5"/>
+      <c r="LY3" s="5"/>
+      <c r="LZ3" s="5"/>
+      <c r="MA3" s="5"/>
+      <c r="MB3" s="5"/>
+      <c r="MC3" s="5"/>
+      <c r="MD3" s="5"/>
+      <c r="ME3" s="5"/>
+      <c r="MF3" s="5"/>
+      <c r="MG3" s="5"/>
+      <c r="MH3" s="5"/>
+      <c r="MI3" s="5"/>
+      <c r="MJ3" s="5"/>
+      <c r="MK3" s="5"/>
+      <c r="ML3" s="5"/>
+      <c r="MM3" s="5"/>
+      <c r="MN3" s="5"/>
+      <c r="MO3" s="5"/>
+      <c r="MP3" s="5"/>
+      <c r="MQ3" s="5"/>
+      <c r="MR3" s="5"/>
+      <c r="MS3" s="5"/>
+      <c r="MT3" s="5"/>
+      <c r="MU3" s="5"/>
+      <c r="MV3" s="5"/>
+      <c r="MW3" s="5"/>
+      <c r="MX3" s="5"/>
+      <c r="MY3" s="5"/>
+      <c r="MZ3" s="5"/>
+      <c r="NA3" s="5"/>
+      <c r="NB3" s="5"/>
+      <c r="NC3" s="5"/>
+      <c r="ND3" s="5"/>
+      <c r="NE3" s="5"/>
+      <c r="NF3" s="5"/>
+      <c r="NG3" s="5"/>
+      <c r="NH3" s="5"/>
+      <c r="NI3" s="5"/>
+      <c r="NJ3" s="5"/>
+      <c r="NK3" s="5"/>
+      <c r="NL3" s="5"/>
+      <c r="NM3" s="5"/>
+      <c r="NN3" s="5"/>
+      <c r="NO3" s="5"/>
+      <c r="NP3" s="5"/>
+      <c r="NQ3" s="5"/>
+      <c r="NR3" s="5"/>
+      <c r="NS3" s="5"/>
+      <c r="NT3" s="5"/>
+      <c r="NU3" s="5"/>
+      <c r="NV3" s="5"/>
+      <c r="NW3" s="5"/>
+      <c r="NX3" s="5"/>
+      <c r="NY3" s="5"/>
+      <c r="NZ3" s="5"/>
+      <c r="OA3" s="5"/>
+      <c r="OB3" s="5"/>
+      <c r="OC3" s="5"/>
+      <c r="OD3" s="5"/>
+      <c r="OE3" s="5"/>
+      <c r="OF3" s="5"/>
+      <c r="OG3" s="5"/>
+      <c r="OH3" s="5"/>
+      <c r="OI3" s="5"/>
+      <c r="OJ3" s="5"/>
+      <c r="OK3" s="5"/>
+      <c r="OL3" s="5"/>
+      <c r="OM3" s="5"/>
+      <c r="ON3" s="5"/>
+      <c r="OO3" s="5"/>
+      <c r="OP3" s="5"/>
+      <c r="OQ3" s="5"/>
+      <c r="OR3" s="5"/>
+      <c r="OS3" s="5"/>
+      <c r="OT3" s="5"/>
+      <c r="OU3" s="5"/>
+      <c r="OV3" s="5"/>
+      <c r="OW3" s="5"/>
+      <c r="OX3" s="5"/>
+      <c r="OY3" s="5"/>
+      <c r="OZ3" s="5"/>
+      <c r="PA3" s="5"/>
+      <c r="PB3" s="5"/>
+      <c r="PC3" s="5"/>
+      <c r="PD3" s="5"/>
+      <c r="PE3" s="5"/>
+      <c r="PF3" s="5"/>
+      <c r="PG3" s="5"/>
+      <c r="PH3" s="5"/>
+      <c r="PI3" s="5"/>
+      <c r="PJ3" s="5"/>
+      <c r="PK3" s="5"/>
+      <c r="PL3" s="5"/>
+      <c r="PM3" s="5"/>
+      <c r="PN3" s="5"/>
+      <c r="PO3" s="5"/>
+      <c r="PP3" s="5"/>
+      <c r="PQ3" s="5"/>
+      <c r="PR3" s="5"/>
+      <c r="PS3" s="5"/>
+      <c r="PT3" s="5"/>
+      <c r="PU3" s="5"/>
+      <c r="PV3" s="5"/>
+      <c r="PW3" s="5"/>
+      <c r="PX3" s="5"/>
+      <c r="PY3" s="5"/>
+      <c r="PZ3" s="5"/>
+      <c r="QA3" s="5"/>
+      <c r="QB3" s="5"/>
+      <c r="QC3" s="5"/>
+      <c r="QD3" s="5"/>
+      <c r="QE3" s="5"/>
+      <c r="QF3" s="5"/>
+      <c r="QG3" s="5"/>
+      <c r="QH3" s="5"/>
+      <c r="QI3" s="5"/>
+      <c r="QJ3" s="5"/>
+      <c r="QK3" s="5"/>
+      <c r="QL3" s="5"/>
+      <c r="QM3" s="5"/>
+      <c r="QN3" s="5"/>
+      <c r="QO3" s="5"/>
+      <c r="QP3" s="5"/>
+      <c r="QQ3" s="5"/>
+      <c r="QR3" s="5"/>
+      <c r="QS3" s="5"/>
+      <c r="QT3" s="5"/>
+      <c r="QU3" s="5"/>
+      <c r="QV3" s="5"/>
+      <c r="QW3" s="5"/>
+      <c r="QX3" s="5"/>
+      <c r="QY3" s="5"/>
+      <c r="QZ3" s="5"/>
+      <c r="RA3" s="5"/>
+      <c r="RB3" s="5"/>
+      <c r="RC3" s="5"/>
+      <c r="RD3" s="5"/>
+      <c r="RE3" s="5"/>
+      <c r="RF3" s="5"/>
+      <c r="RG3" s="5"/>
+      <c r="RH3" s="5"/>
+      <c r="RI3" s="5"/>
+      <c r="RJ3" s="5"/>
+      <c r="RK3" s="5"/>
+      <c r="RL3" s="5"/>
+      <c r="RM3" s="5"/>
+      <c r="RN3" s="5"/>
+      <c r="RO3" s="5"/>
+      <c r="RP3" s="5"/>
+      <c r="RQ3" s="5"/>
+      <c r="RR3" s="5"/>
+      <c r="RS3" s="5"/>
+      <c r="RT3" s="5"/>
+      <c r="RU3" s="5"/>
+      <c r="RV3" s="5"/>
+      <c r="RW3" s="5"/>
+      <c r="RX3" s="5"/>
+      <c r="RY3" s="5"/>
+      <c r="RZ3" s="5"/>
+      <c r="SA3" s="5"/>
+      <c r="SB3" s="5"/>
+      <c r="SC3" s="5"/>
+      <c r="SD3" s="5"/>
+      <c r="SE3" s="5"/>
+      <c r="SF3" s="5"/>
+      <c r="SG3" s="5"/>
+      <c r="SH3" s="5"/>
+      <c r="SI3" s="5"/>
+      <c r="SJ3" s="5"/>
+      <c r="SK3" s="5"/>
+      <c r="SL3" s="5"/>
+      <c r="SM3" s="5"/>
+      <c r="SN3" s="5"/>
+      <c r="SO3" s="5"/>
+      <c r="SP3" s="5"/>
+      <c r="SQ3" s="5"/>
+      <c r="SR3" s="5"/>
+      <c r="SS3" s="5"/>
+      <c r="ST3" s="5"/>
+      <c r="SU3" s="5"/>
+      <c r="SV3" s="5"/>
+      <c r="SW3" s="5"/>
+      <c r="SX3" s="5"/>
+      <c r="SY3" s="5"/>
+      <c r="SZ3" s="5"/>
+      <c r="TA3" s="5"/>
+      <c r="TB3" s="5"/>
+      <c r="TC3" s="5"/>
+      <c r="TD3" s="5"/>
+      <c r="TE3" s="5"/>
+      <c r="TF3" s="5"/>
+      <c r="TG3" s="5"/>
+      <c r="TH3" s="5"/>
+      <c r="TI3" s="5"/>
+      <c r="TJ3" s="5"/>
+      <c r="TK3" s="5"/>
+      <c r="TL3" s="5"/>
+      <c r="TM3" s="5"/>
+      <c r="TN3" s="5"/>
+      <c r="TO3" s="5"/>
+      <c r="TP3" s="5"/>
+      <c r="TQ3" s="5"/>
+      <c r="TR3" s="5"/>
+      <c r="TS3" s="5"/>
+      <c r="TT3" s="5"/>
+      <c r="TU3" s="5"/>
+      <c r="TV3" s="5"/>
+      <c r="TW3" s="5"/>
+      <c r="TX3" s="5"/>
+      <c r="TY3" s="5"/>
+      <c r="TZ3" s="5"/>
+      <c r="UA3" s="5"/>
+      <c r="UB3" s="5"/>
+      <c r="UC3" s="5"/>
+      <c r="UD3" s="5"/>
+      <c r="UE3" s="5"/>
+      <c r="UF3" s="5"/>
+      <c r="UG3" s="5"/>
+      <c r="UH3" s="5"/>
+      <c r="UI3" s="5"/>
+      <c r="UJ3" s="5"/>
+      <c r="UK3" s="5"/>
+      <c r="UL3" s="5"/>
+      <c r="UM3" s="5"/>
+      <c r="UN3" s="5"/>
+      <c r="UO3" s="5"/>
+      <c r="UP3" s="5"/>
+      <c r="UQ3" s="5"/>
+      <c r="UR3" s="5"/>
+      <c r="US3" s="5"/>
+      <c r="UT3" s="5"/>
+      <c r="UU3" s="5"/>
+      <c r="UV3" s="5"/>
+      <c r="UW3" s="5"/>
+      <c r="UX3" s="5"/>
+      <c r="UY3" s="5"/>
+      <c r="UZ3" s="5"/>
+      <c r="VA3" s="5"/>
+      <c r="VB3" s="5"/>
+      <c r="VC3" s="5"/>
+      <c r="VD3" s="5"/>
+      <c r="VE3" s="5"/>
+      <c r="VF3" s="5"/>
+      <c r="VG3" s="5"/>
+      <c r="VH3" s="5"/>
+      <c r="VI3" s="5"/>
+      <c r="VJ3" s="5"/>
+      <c r="VK3" s="5"/>
+      <c r="VL3" s="5"/>
+      <c r="VM3" s="5"/>
+      <c r="VN3" s="5"/>
+      <c r="VO3" s="5"/>
+      <c r="VP3" s="5"/>
+      <c r="VQ3" s="5"/>
+      <c r="VR3" s="5"/>
+      <c r="VS3" s="5"/>
+      <c r="VT3" s="5"/>
+      <c r="VU3" s="5"/>
+      <c r="VV3" s="5"/>
+      <c r="VW3" s="5"/>
+      <c r="VX3" s="5"/>
+      <c r="VY3" s="5"/>
+      <c r="VZ3" s="5"/>
+      <c r="WA3" s="5"/>
+      <c r="WB3" s="5"/>
+      <c r="WC3" s="5"/>
+      <c r="WD3" s="5"/>
+      <c r="WE3" s="5"/>
+      <c r="WF3" s="5"/>
+      <c r="WG3" s="5"/>
+      <c r="WH3" s="5"/>
+      <c r="WI3" s="5"/>
+      <c r="WJ3" s="5"/>
+      <c r="WK3" s="5"/>
+      <c r="WL3" s="5"/>
+      <c r="WM3" s="5"/>
+      <c r="WN3" s="5"/>
+      <c r="WO3" s="5"/>
+      <c r="WP3" s="5"/>
+      <c r="WQ3" s="5"/>
+      <c r="WR3" s="5"/>
+      <c r="WS3" s="5"/>
+      <c r="WT3" s="5"/>
+      <c r="WU3" s="5"/>
+      <c r="WV3" s="5"/>
+      <c r="WW3" s="5"/>
+      <c r="WX3" s="5"/>
+      <c r="WY3" s="5"/>
+      <c r="WZ3" s="5"/>
+      <c r="XA3" s="5"/>
+      <c r="XB3" s="5"/>
+      <c r="XC3" s="5"/>
+      <c r="XD3" s="5"/>
+      <c r="XE3" s="5"/>
+      <c r="XF3" s="5"/>
+      <c r="XG3" s="5"/>
+      <c r="XH3" s="5"/>
+      <c r="XI3" s="5"/>
+      <c r="XJ3" s="5"/>
+      <c r="XK3" s="5"/>
+      <c r="XL3" s="5"/>
+      <c r="XM3" s="5"/>
+      <c r="XN3" s="5"/>
+      <c r="XO3" s="5"/>
+      <c r="XP3" s="5"/>
+      <c r="XQ3" s="5"/>
+      <c r="XR3" s="5"/>
+      <c r="XS3" s="5"/>
+      <c r="XT3" s="5"/>
+      <c r="XU3" s="5"/>
+      <c r="XV3" s="5"/>
+      <c r="XW3" s="5"/>
+      <c r="XX3" s="5"/>
+      <c r="XY3" s="5"/>
+      <c r="XZ3" s="5"/>
+      <c r="YA3" s="5"/>
+      <c r="YB3" s="5"/>
+      <c r="YC3" s="5"/>
+      <c r="YD3" s="5"/>
+      <c r="YE3" s="5"/>
+      <c r="YF3" s="5"/>
+      <c r="YG3" s="5"/>
+      <c r="YH3" s="5"/>
+      <c r="YI3" s="5"/>
+      <c r="YJ3" s="5"/>
+      <c r="YK3" s="5"/>
+      <c r="YL3" s="5"/>
+      <c r="YM3" s="5"/>
+      <c r="YN3" s="5"/>
+      <c r="YO3" s="5"/>
+      <c r="YP3" s="5"/>
+      <c r="YQ3" s="5"/>
+      <c r="YR3" s="5"/>
+      <c r="YS3" s="5"/>
+      <c r="YT3" s="5"/>
+      <c r="YU3" s="5"/>
+      <c r="YV3" s="5"/>
+      <c r="YW3" s="5"/>
+      <c r="YX3" s="5"/>
+      <c r="YY3" s="5"/>
+      <c r="YZ3" s="5"/>
+      <c r="ZA3" s="5"/>
+      <c r="ZB3" s="5"/>
+      <c r="ZC3" s="5"/>
+      <c r="ZD3" s="5"/>
+      <c r="ZE3" s="5"/>
+      <c r="ZF3" s="5"/>
+      <c r="ZG3" s="5"/>
+      <c r="ZH3" s="5"/>
+      <c r="ZI3" s="5"/>
+      <c r="ZJ3" s="5"/>
+      <c r="ZK3" s="5"/>
+      <c r="ZL3" s="5"/>
+      <c r="ZM3" s="5"/>
+      <c r="ZN3" s="5"/>
+      <c r="ZO3" s="5"/>
+      <c r="ZP3" s="5"/>
+      <c r="ZQ3" s="5"/>
+      <c r="ZR3" s="5"/>
+      <c r="ZS3" s="5"/>
+      <c r="ZT3" s="5"/>
+      <c r="ZU3" s="5"/>
+      <c r="ZV3" s="5"/>
+      <c r="ZW3" s="5"/>
+      <c r="ZX3" s="5"/>
+      <c r="ZY3" s="5"/>
+      <c r="ZZ3" s="5"/>
+      <c r="AAA3" s="5"/>
+      <c r="AAB3" s="5"/>
+      <c r="AAC3" s="5"/>
+      <c r="AAD3" s="5"/>
+      <c r="AAE3" s="5"/>
+      <c r="AAF3" s="5"/>
+      <c r="AAG3" s="5"/>
+      <c r="AAH3" s="5"/>
+      <c r="AAI3" s="5"/>
+      <c r="AAJ3" s="5"/>
+      <c r="AAK3" s="5"/>
+      <c r="AAL3" s="5"/>
+      <c r="AAM3" s="5"/>
+      <c r="AAN3" s="5"/>
+      <c r="AAO3" s="5"/>
+      <c r="AAP3" s="5"/>
+      <c r="AAQ3" s="5"/>
+      <c r="AAR3" s="5"/>
+      <c r="AAS3" s="5"/>
+      <c r="AAT3" s="5"/>
+      <c r="AAU3" s="5"/>
+      <c r="AAV3" s="5"/>
+      <c r="AAW3" s="5"/>
+      <c r="AAX3" s="5"/>
+      <c r="AAY3" s="5"/>
+      <c r="AAZ3" s="5"/>
+      <c r="ABA3" s="5"/>
+      <c r="ABB3" s="5"/>
+      <c r="ABC3" s="5"/>
+      <c r="ABD3" s="5"/>
+      <c r="ABE3" s="5"/>
+      <c r="ABF3" s="5"/>
+      <c r="ABG3" s="5"/>
+      <c r="ABH3" s="5"/>
+      <c r="ABI3" s="5"/>
+      <c r="ABJ3" s="5"/>
+      <c r="ABK3" s="5"/>
+      <c r="ABL3" s="5"/>
+      <c r="ABM3" s="5"/>
+      <c r="ABN3" s="5"/>
+      <c r="ABO3" s="5"/>
+      <c r="ABP3" s="5"/>
+      <c r="ABQ3" s="5"/>
+      <c r="ABR3" s="5"/>
+      <c r="ABS3" s="5"/>
+      <c r="ABT3" s="5"/>
+      <c r="ABU3" s="5"/>
+      <c r="ABV3" s="5"/>
+      <c r="ABW3" s="5"/>
+      <c r="ABX3" s="5"/>
+      <c r="ABY3" s="5"/>
+      <c r="ABZ3" s="5"/>
+      <c r="ACA3" s="5"/>
+      <c r="ACB3" s="5"/>
+      <c r="ACC3" s="5"/>
+      <c r="ACD3" s="5"/>
+      <c r="ACE3" s="5"/>
+      <c r="ACF3" s="5"/>
+      <c r="ACG3" s="5"/>
+      <c r="ACH3" s="5"/>
+      <c r="ACI3" s="5"/>
+      <c r="ACJ3" s="5"/>
+      <c r="ACK3" s="5"/>
+      <c r="ACL3" s="5"/>
+      <c r="ACM3" s="5"/>
+      <c r="ACN3" s="5"/>
+      <c r="ACO3" s="5"/>
+      <c r="ACP3" s="5"/>
+      <c r="ACQ3" s="5"/>
+      <c r="ACR3" s="5"/>
+      <c r="ACS3" s="5"/>
+      <c r="ACT3" s="5"/>
+      <c r="ACU3" s="5"/>
+      <c r="ACV3" s="5"/>
+      <c r="ACW3" s="5"/>
+      <c r="ACX3" s="5"/>
+      <c r="ACY3" s="5"/>
+      <c r="ACZ3" s="5"/>
+      <c r="ADA3" s="5"/>
+      <c r="ADB3" s="5"/>
+      <c r="ADC3" s="5"/>
+      <c r="ADD3" s="5"/>
+      <c r="ADE3" s="5"/>
+      <c r="ADF3" s="5"/>
+      <c r="ADG3" s="5"/>
+      <c r="ADH3" s="5"/>
+      <c r="ADI3" s="5"/>
+      <c r="ADJ3" s="5"/>
+      <c r="ADK3" s="5"/>
+      <c r="ADL3" s="5"/>
+      <c r="ADM3" s="5"/>
+      <c r="ADN3" s="5"/>
+      <c r="ADO3" s="5"/>
+      <c r="ADP3" s="5"/>
+      <c r="ADQ3" s="5"/>
+      <c r="ADR3" s="5"/>
+      <c r="ADS3" s="5"/>
+      <c r="ADT3" s="5"/>
+      <c r="ADU3" s="5"/>
+      <c r="ADV3" s="5"/>
+      <c r="ADW3" s="5"/>
+      <c r="ADX3" s="5"/>
+      <c r="ADY3" s="5"/>
+      <c r="ADZ3" s="5"/>
+      <c r="AEA3" s="5"/>
+      <c r="AEB3" s="5"/>
+      <c r="AEC3" s="5"/>
+      <c r="AED3" s="5"/>
+      <c r="AEE3" s="5"/>
+      <c r="AEF3" s="5"/>
+      <c r="AEG3" s="5"/>
+      <c r="AEH3" s="5"/>
+      <c r="AEI3" s="5"/>
+      <c r="AEJ3" s="5"/>
+      <c r="AEK3" s="5"/>
+      <c r="AEL3" s="5"/>
+      <c r="AEM3" s="5"/>
+      <c r="AEN3" s="5"/>
+      <c r="AEO3" s="5"/>
+      <c r="AEP3" s="5"/>
+      <c r="AEQ3" s="5"/>
+      <c r="AER3" s="5"/>
+      <c r="AES3" s="5"/>
+      <c r="AET3" s="5"/>
+      <c r="AEU3" s="5"/>
+      <c r="AEV3" s="5"/>
+      <c r="AEW3" s="5"/>
+      <c r="AEX3" s="5"/>
+      <c r="AEY3" s="5"/>
+      <c r="AEZ3" s="5"/>
+      <c r="AFA3" s="5"/>
+      <c r="AFB3" s="5"/>
+      <c r="AFC3" s="5"/>
+      <c r="AFD3" s="5"/>
+      <c r="AFE3" s="5"/>
+      <c r="AFF3" s="5"/>
+      <c r="AFG3" s="5"/>
+      <c r="AFH3" s="5"/>
+      <c r="AFI3" s="5"/>
+      <c r="AFJ3" s="5"/>
+      <c r="AFK3" s="5"/>
+      <c r="AFL3" s="5"/>
+      <c r="AFM3" s="5"/>
+      <c r="AFN3" s="5"/>
+      <c r="AFO3" s="5"/>
+      <c r="AFP3" s="5"/>
+      <c r="AFQ3" s="5"/>
+      <c r="AFR3" s="5"/>
+      <c r="AFS3" s="5"/>
+      <c r="AFT3" s="5"/>
+      <c r="AFU3" s="5"/>
+      <c r="AFV3" s="5"/>
+      <c r="AFW3" s="5"/>
+      <c r="AFX3" s="5"/>
+      <c r="AFY3" s="5"/>
+      <c r="AFZ3" s="5"/>
+      <c r="AGA3" s="5"/>
+      <c r="AGB3" s="5"/>
+      <c r="AGC3" s="5"/>
+      <c r="AGD3" s="5"/>
+      <c r="AGE3" s="5"/>
+      <c r="AGF3" s="5"/>
     </row>
     <row r="4" ht="25" customHeight="1" spans="1:864">
       <c r="A4" s="5"/>
@@ -4921,10 +4918,10 @@
       <c r="AGB4" s="5"/>
       <c r="AGC4" s="5"/>
       <c r="AGD4" s="5"/>
-      <c r="AGE4" s="7" t="s">
+      <c r="AGE4" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="AGF4" s="7" t="s">
+      <c r="AGF4" s="5" t="s">
         <v>66</v>
       </c>
     </row>
@@ -5905,28 +5902,28 @@
       <c r="AGB5" s="5"/>
       <c r="AGC5" s="5"/>
       <c r="AGD5" s="5"/>
-      <c r="AGE5" s="7"/>
-      <c r="AGF5" s="7"/>
+      <c r="AGE5" s="5"/>
+      <c r="AGF5" s="5"/>
     </row>
     <row r="6" ht="25" customHeight="1" spans="1:864">
       <c r="A6" s="5"/>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
-      <c r="E6" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="F6" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="G6" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="H6" s="8" t="s">
+      <c r="E6" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="H6" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="I6" s="8"/>
-      <c r="J6" s="8"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
       <c r="K6" s="5" t="s">
         <v>72</v>
       </c>
@@ -5947,11 +5944,11 @@
       </c>
       <c r="U6" s="5"/>
       <c r="V6" s="5"/>
-      <c r="W6" s="8" t="s">
+      <c r="W6" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="X6" s="8"/>
-      <c r="Y6" s="8"/>
+      <c r="X6" s="7"/>
+      <c r="Y6" s="7"/>
       <c r="Z6" s="5" t="s">
         <v>72</v>
       </c>
@@ -5972,11 +5969,11 @@
       </c>
       <c r="AJ6" s="5"/>
       <c r="AK6" s="5"/>
-      <c r="AL6" s="8" t="s">
+      <c r="AL6" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="AM6" s="8"/>
-      <c r="AN6" s="8"/>
+      <c r="AM6" s="7"/>
+      <c r="AN6" s="7"/>
       <c r="AO6" s="5" t="s">
         <v>72</v>
       </c>
@@ -5997,11 +5994,11 @@
       </c>
       <c r="AY6" s="5"/>
       <c r="AZ6" s="5"/>
-      <c r="BA6" s="8" t="s">
+      <c r="BA6" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="BB6" s="8"/>
-      <c r="BC6" s="8"/>
+      <c r="BB6" s="7"/>
+      <c r="BC6" s="7"/>
       <c r="BD6" s="5" t="s">
         <v>72</v>
       </c>
@@ -6022,11 +6019,11 @@
       </c>
       <c r="BN6" s="5"/>
       <c r="BO6" s="5"/>
-      <c r="BP6" s="8" t="s">
+      <c r="BP6" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="BQ6" s="8"/>
-      <c r="BR6" s="8"/>
+      <c r="BQ6" s="7"/>
+      <c r="BR6" s="7"/>
       <c r="BS6" s="5" t="s">
         <v>72</v>
       </c>
@@ -6047,11 +6044,11 @@
       </c>
       <c r="CC6" s="5"/>
       <c r="CD6" s="5"/>
-      <c r="CE6" s="8" t="s">
+      <c r="CE6" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="CF6" s="8"/>
-      <c r="CG6" s="8"/>
+      <c r="CF6" s="7"/>
+      <c r="CG6" s="7"/>
       <c r="CH6" s="5" t="s">
         <v>72</v>
       </c>
@@ -7347,24 +7344,24 @@
       </c>
       <c r="AGC6" s="5"/>
       <c r="AGD6" s="5"/>
-      <c r="AGE6" s="7"/>
-      <c r="AGF6" s="7"/>
+      <c r="AGE6" s="5"/>
+      <c r="AGF6" s="5"/>
     </row>
     <row r="7" ht="25" customHeight="1" spans="1:864">
       <c r="A7" s="5"/>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="I7" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="J7" s="8" t="s">
+      <c r="E7" s="7"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="I7" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="J7" s="7" t="s">
         <v>70</v>
       </c>
       <c r="K7" s="5" t="s">
@@ -7403,13 +7400,13 @@
       <c r="V7" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="W7" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="X7" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="Y7" s="8" t="s">
+      <c r="W7" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="X7" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="Y7" s="7" t="s">
         <v>70</v>
       </c>
       <c r="Z7" s="5" t="s">
@@ -7448,13 +7445,13 @@
       <c r="AK7" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="AL7" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="AM7" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="AN7" s="8" t="s">
+      <c r="AL7" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="AM7" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="AN7" s="7" t="s">
         <v>70</v>
       </c>
       <c r="AO7" s="5" t="s">
@@ -7493,13 +7490,13 @@
       <c r="AZ7" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="BA7" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="BB7" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="BC7" s="8" t="s">
+      <c r="BA7" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="BB7" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="BC7" s="7" t="s">
         <v>70</v>
       </c>
       <c r="BD7" s="5" t="s">
@@ -7538,13 +7535,13 @@
       <c r="BO7" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="BP7" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="BQ7" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="BR7" s="8" t="s">
+      <c r="BP7" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="BQ7" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="BR7" s="7" t="s">
         <v>70</v>
       </c>
       <c r="BS7" s="5" t="s">
@@ -7583,13 +7580,13 @@
       <c r="CD7" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="CE7" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="CF7" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="CG7" s="8" t="s">
+      <c r="CE7" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="CF7" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="CG7" s="7" t="s">
         <v>70</v>
       </c>
       <c r="CH7" s="5" t="s">
@@ -9923,1742 +9920,1742 @@
       <c r="AGD7" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="AGE7" s="7"/>
-      <c r="AGF7" s="7"/>
+      <c r="AGE7" s="5"/>
+      <c r="AGF7" s="5"/>
     </row>
     <row r="8" ht="25" customHeight="1" spans="1:864">
-      <c r="A8" s="10"/>
-      <c r="B8" s="10"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="12"/>
-      <c r="J8" s="12"/>
-      <c r="K8" s="11"/>
-      <c r="L8" s="12"/>
-      <c r="M8" s="12"/>
-      <c r="N8" s="11"/>
-      <c r="O8" s="12"/>
-      <c r="P8" s="12"/>
-      <c r="Q8" s="11"/>
-      <c r="R8" s="12"/>
-      <c r="S8" s="12"/>
-      <c r="T8" s="11"/>
-      <c r="U8" s="12"/>
-      <c r="V8" s="12"/>
-      <c r="W8" s="11"/>
-      <c r="X8" s="12"/>
-      <c r="Y8" s="12"/>
-      <c r="Z8" s="11"/>
-      <c r="AA8" s="12"/>
-      <c r="AB8" s="12"/>
-      <c r="AC8" s="11"/>
-      <c r="AD8" s="12"/>
-      <c r="AE8" s="12"/>
-      <c r="AF8" s="11"/>
-      <c r="AG8" s="12"/>
-      <c r="AH8" s="12"/>
-      <c r="AI8" s="11"/>
-      <c r="AJ8" s="12"/>
-      <c r="AK8" s="12"/>
-      <c r="AL8" s="11"/>
-      <c r="AM8" s="12"/>
-      <c r="AN8" s="12"/>
-      <c r="AO8" s="11"/>
-      <c r="AP8" s="12"/>
-      <c r="AQ8" s="12"/>
-      <c r="AR8" s="11"/>
-      <c r="AS8" s="12"/>
-      <c r="AT8" s="12"/>
-      <c r="AU8" s="11"/>
-      <c r="AV8" s="12"/>
-      <c r="AW8" s="12"/>
-      <c r="AX8" s="11"/>
-      <c r="AY8" s="12"/>
-      <c r="AZ8" s="12"/>
-      <c r="BA8" s="11"/>
-      <c r="BB8" s="12"/>
-      <c r="BC8" s="12"/>
-      <c r="BD8" s="11"/>
-      <c r="BE8" s="12"/>
-      <c r="BF8" s="12"/>
-      <c r="BG8" s="11"/>
-      <c r="BH8" s="12"/>
-      <c r="BI8" s="12"/>
-      <c r="BJ8" s="11"/>
-      <c r="BK8" s="12"/>
-      <c r="BL8" s="12"/>
-      <c r="BM8" s="11"/>
-      <c r="BN8" s="12"/>
-      <c r="BO8" s="12"/>
-      <c r="BP8" s="11"/>
-      <c r="BQ8" s="12"/>
-      <c r="BR8" s="12"/>
-      <c r="BS8" s="11"/>
-      <c r="BT8" s="12"/>
-      <c r="BU8" s="12"/>
-      <c r="BV8" s="11"/>
-      <c r="BW8" s="12"/>
-      <c r="BX8" s="12"/>
-      <c r="BY8" s="11"/>
-      <c r="BZ8" s="12"/>
-      <c r="CA8" s="12"/>
-      <c r="CB8" s="11"/>
-      <c r="CC8" s="12"/>
-      <c r="CD8" s="12"/>
-      <c r="CE8" s="11"/>
-      <c r="CF8" s="12"/>
-      <c r="CG8" s="12"/>
-      <c r="CH8" s="11"/>
-      <c r="CI8" s="12"/>
-      <c r="CJ8" s="12"/>
-      <c r="CK8" s="11"/>
-      <c r="CL8" s="12"/>
-      <c r="CM8" s="12"/>
-      <c r="CN8" s="11"/>
-      <c r="CO8" s="12"/>
-      <c r="CP8" s="12"/>
-      <c r="CQ8" s="11"/>
-      <c r="CR8" s="12"/>
-      <c r="CS8" s="12"/>
-      <c r="CT8" s="11"/>
-      <c r="CU8" s="12"/>
-      <c r="CV8" s="12"/>
-      <c r="CW8" s="11"/>
-      <c r="CX8" s="12"/>
-      <c r="CY8" s="12"/>
-      <c r="CZ8" s="11"/>
-      <c r="DA8" s="12"/>
-      <c r="DB8" s="12"/>
-      <c r="DC8" s="11"/>
-      <c r="DD8" s="12"/>
-      <c r="DE8" s="12"/>
-      <c r="DF8" s="11"/>
-      <c r="DG8" s="12"/>
-      <c r="DH8" s="12"/>
-      <c r="DI8" s="11"/>
-      <c r="DJ8" s="12"/>
-      <c r="DK8" s="12"/>
-      <c r="DL8" s="11"/>
-      <c r="DM8" s="12"/>
-      <c r="DN8" s="12"/>
-      <c r="DO8" s="11"/>
-      <c r="DP8" s="12"/>
-      <c r="DQ8" s="12"/>
-      <c r="DR8" s="11"/>
-      <c r="DS8" s="12"/>
-      <c r="DT8" s="12"/>
-      <c r="DU8" s="11"/>
-      <c r="DV8" s="12"/>
-      <c r="DW8" s="12"/>
-      <c r="DX8" s="11"/>
-      <c r="DY8" s="12"/>
-      <c r="DZ8" s="12"/>
-      <c r="EA8" s="11"/>
-      <c r="EB8" s="12"/>
-      <c r="EC8" s="12"/>
-      <c r="ED8" s="11"/>
-      <c r="EE8" s="12"/>
-      <c r="EF8" s="12"/>
-      <c r="EG8" s="11"/>
-      <c r="EH8" s="12"/>
-      <c r="EI8" s="12"/>
-      <c r="EJ8" s="11"/>
-      <c r="EK8" s="12"/>
-      <c r="EL8" s="12"/>
-      <c r="EM8" s="11"/>
-      <c r="EN8" s="12"/>
-      <c r="EO8" s="12"/>
-      <c r="EP8" s="11"/>
-      <c r="EQ8" s="12"/>
-      <c r="ER8" s="12"/>
-      <c r="ES8" s="11"/>
-      <c r="ET8" s="12"/>
-      <c r="EU8" s="12"/>
-      <c r="EV8" s="11"/>
-      <c r="EW8" s="12"/>
-      <c r="EX8" s="12"/>
-      <c r="EY8" s="11"/>
-      <c r="EZ8" s="12"/>
-      <c r="FA8" s="12"/>
-      <c r="FB8" s="11"/>
-      <c r="FC8" s="12"/>
-      <c r="FD8" s="12"/>
-      <c r="FE8" s="11"/>
-      <c r="FF8" s="12"/>
-      <c r="FG8" s="12"/>
-      <c r="FH8" s="11"/>
-      <c r="FI8" s="12"/>
-      <c r="FJ8" s="12"/>
-      <c r="FK8" s="11"/>
-      <c r="FL8" s="12"/>
-      <c r="FM8" s="12"/>
-      <c r="FN8" s="11"/>
-      <c r="FO8" s="12"/>
-      <c r="FP8" s="12"/>
-      <c r="FQ8" s="11"/>
-      <c r="FR8" s="12"/>
-      <c r="FS8" s="12"/>
-      <c r="FT8" s="11"/>
-      <c r="FU8" s="12"/>
-      <c r="FV8" s="12"/>
-      <c r="FW8" s="11"/>
-      <c r="FX8" s="12"/>
-      <c r="FY8" s="12"/>
-      <c r="FZ8" s="11"/>
-      <c r="GA8" s="12"/>
-      <c r="GB8" s="12"/>
-      <c r="GC8" s="11"/>
-      <c r="GD8" s="12"/>
-      <c r="GE8" s="12"/>
-      <c r="GF8" s="11"/>
-      <c r="GG8" s="12"/>
-      <c r="GH8" s="12"/>
-      <c r="GI8" s="11"/>
-      <c r="GJ8" s="12"/>
-      <c r="GK8" s="12"/>
-      <c r="GL8" s="11"/>
-      <c r="GM8" s="12"/>
-      <c r="GN8" s="12"/>
-      <c r="GO8" s="11"/>
-      <c r="GP8" s="12"/>
-      <c r="GQ8" s="12"/>
-      <c r="GR8" s="11"/>
-      <c r="GS8" s="12"/>
-      <c r="GT8" s="12"/>
-      <c r="GU8" s="11"/>
-      <c r="GV8" s="12"/>
-      <c r="GW8" s="12"/>
-      <c r="GX8" s="11"/>
-      <c r="GY8" s="12"/>
-      <c r="GZ8" s="12"/>
-      <c r="HA8" s="11"/>
-      <c r="HB8" s="12"/>
-      <c r="HC8" s="12"/>
-      <c r="HD8" s="11"/>
-      <c r="HE8" s="12"/>
-      <c r="HF8" s="12"/>
-      <c r="HG8" s="11"/>
-      <c r="HH8" s="12"/>
-      <c r="HI8" s="12"/>
-      <c r="HJ8" s="11"/>
-      <c r="HK8" s="12"/>
-      <c r="HL8" s="12"/>
-      <c r="HM8" s="11"/>
-      <c r="HN8" s="12"/>
-      <c r="HO8" s="12"/>
-      <c r="HP8" s="11"/>
-      <c r="HQ8" s="12"/>
-      <c r="HR8" s="12"/>
-      <c r="HS8" s="11"/>
-      <c r="HT8" s="12"/>
-      <c r="HU8" s="12"/>
-      <c r="HV8" s="11"/>
-      <c r="HW8" s="12"/>
-      <c r="HX8" s="12"/>
-      <c r="HY8" s="11"/>
-      <c r="HZ8" s="12"/>
-      <c r="IA8" s="12"/>
-      <c r="IB8" s="11"/>
-      <c r="IC8" s="12"/>
-      <c r="ID8" s="12"/>
-      <c r="IE8" s="11"/>
-      <c r="IF8" s="12"/>
-      <c r="IG8" s="12"/>
-      <c r="IH8" s="11"/>
-      <c r="II8" s="12"/>
-      <c r="IJ8" s="12"/>
-      <c r="IK8" s="11"/>
-      <c r="IL8" s="12"/>
-      <c r="IM8" s="12"/>
-      <c r="IN8" s="11"/>
-      <c r="IO8" s="12"/>
-      <c r="IP8" s="12"/>
-      <c r="IQ8" s="11"/>
-      <c r="IR8" s="12"/>
-      <c r="IS8" s="12"/>
-      <c r="IT8" s="11"/>
-      <c r="IU8" s="12"/>
-      <c r="IV8" s="12"/>
-      <c r="IW8" s="11"/>
-      <c r="IX8" s="12"/>
-      <c r="IY8" s="12"/>
-      <c r="IZ8" s="11"/>
-      <c r="JA8" s="12"/>
-      <c r="JB8" s="12"/>
-      <c r="JC8" s="11"/>
-      <c r="JD8" s="12"/>
-      <c r="JE8" s="12"/>
-      <c r="JF8" s="11"/>
-      <c r="JG8" s="12"/>
-      <c r="JH8" s="12"/>
-      <c r="JI8" s="11"/>
-      <c r="JJ8" s="12"/>
-      <c r="JK8" s="12"/>
-      <c r="JL8" s="11"/>
-      <c r="JM8" s="12"/>
-      <c r="JN8" s="12"/>
-      <c r="JO8" s="11"/>
-      <c r="JP8" s="12"/>
-      <c r="JQ8" s="12"/>
-      <c r="JR8" s="11"/>
-      <c r="JS8" s="12"/>
-      <c r="JT8" s="12"/>
-      <c r="JU8" s="11"/>
-      <c r="JV8" s="12"/>
-      <c r="JW8" s="12"/>
-      <c r="JX8" s="11"/>
-      <c r="JY8" s="12"/>
-      <c r="JZ8" s="12"/>
-      <c r="KA8" s="11"/>
-      <c r="KB8" s="12"/>
-      <c r="KC8" s="12"/>
-      <c r="KD8" s="11"/>
-      <c r="KE8" s="12"/>
-      <c r="KF8" s="12"/>
-      <c r="KG8" s="11"/>
-      <c r="KH8" s="12"/>
-      <c r="KI8" s="12"/>
-      <c r="KJ8" s="11"/>
-      <c r="KK8" s="12"/>
-      <c r="KL8" s="12"/>
-      <c r="KM8" s="11"/>
-      <c r="KN8" s="12"/>
-      <c r="KO8" s="12"/>
-      <c r="KP8" s="11"/>
-      <c r="KQ8" s="12"/>
-      <c r="KR8" s="12"/>
-      <c r="KS8" s="11"/>
-      <c r="KT8" s="12"/>
-      <c r="KU8" s="12"/>
-      <c r="KV8" s="11"/>
-      <c r="KW8" s="12"/>
-      <c r="KX8" s="12"/>
-      <c r="KY8" s="11"/>
-      <c r="KZ8" s="12"/>
-      <c r="LA8" s="12"/>
-      <c r="LB8" s="11"/>
-      <c r="LC8" s="12"/>
-      <c r="LD8" s="12"/>
-      <c r="LE8" s="11"/>
-      <c r="LF8" s="12"/>
-      <c r="LG8" s="12"/>
-      <c r="LH8" s="11"/>
-      <c r="LI8" s="12"/>
-      <c r="LJ8" s="12"/>
-      <c r="LK8" s="11"/>
-      <c r="LL8" s="12"/>
-      <c r="LM8" s="12"/>
-      <c r="LN8" s="11"/>
-      <c r="LO8" s="12"/>
-      <c r="LP8" s="12"/>
-      <c r="LQ8" s="11"/>
-      <c r="LR8" s="12"/>
-      <c r="LS8" s="12"/>
-      <c r="LT8" s="11"/>
-      <c r="LU8" s="12"/>
-      <c r="LV8" s="12"/>
-      <c r="LW8" s="11"/>
-      <c r="LX8" s="12"/>
-      <c r="LY8" s="12"/>
-      <c r="LZ8" s="11"/>
-      <c r="MA8" s="12"/>
-      <c r="MB8" s="12"/>
-      <c r="MC8" s="11"/>
-      <c r="MD8" s="12"/>
-      <c r="ME8" s="12"/>
-      <c r="MF8" s="11"/>
-      <c r="MG8" s="12"/>
-      <c r="MH8" s="12"/>
-      <c r="MI8" s="11"/>
-      <c r="MJ8" s="12"/>
-      <c r="MK8" s="12"/>
-      <c r="ML8" s="11"/>
-      <c r="MM8" s="12"/>
-      <c r="MN8" s="12"/>
-      <c r="MO8" s="11"/>
-      <c r="MP8" s="12"/>
-      <c r="MQ8" s="12"/>
-      <c r="MR8" s="11"/>
-      <c r="MS8" s="12"/>
-      <c r="MT8" s="12"/>
-      <c r="MU8" s="11"/>
-      <c r="MV8" s="12"/>
-      <c r="MW8" s="12"/>
-      <c r="MX8" s="11"/>
-      <c r="MY8" s="12"/>
-      <c r="MZ8" s="12"/>
-      <c r="NA8" s="11"/>
-      <c r="NB8" s="12"/>
-      <c r="NC8" s="12"/>
-      <c r="ND8" s="11"/>
-      <c r="NE8" s="12"/>
-      <c r="NF8" s="12"/>
-      <c r="NG8" s="11"/>
-      <c r="NH8" s="12"/>
-      <c r="NI8" s="12"/>
-      <c r="NJ8" s="11"/>
-      <c r="NK8" s="12"/>
-      <c r="NL8" s="12"/>
-      <c r="NM8" s="11"/>
-      <c r="NN8" s="12"/>
-      <c r="NO8" s="12"/>
-      <c r="NP8" s="11"/>
-      <c r="NQ8" s="12"/>
-      <c r="NR8" s="12"/>
-      <c r="NS8" s="11"/>
-      <c r="NT8" s="12"/>
-      <c r="NU8" s="12"/>
-      <c r="NV8" s="11"/>
-      <c r="NW8" s="12"/>
-      <c r="NX8" s="12"/>
-      <c r="NY8" s="11"/>
-      <c r="NZ8" s="12"/>
-      <c r="OA8" s="12"/>
-      <c r="OB8" s="11"/>
-      <c r="OC8" s="12"/>
-      <c r="OD8" s="12"/>
-      <c r="OE8" s="11"/>
-      <c r="OF8" s="12"/>
-      <c r="OG8" s="12"/>
-      <c r="OH8" s="11"/>
-      <c r="OI8" s="12"/>
-      <c r="OJ8" s="12"/>
-      <c r="OK8" s="11"/>
-      <c r="OL8" s="12"/>
-      <c r="OM8" s="12"/>
-      <c r="ON8" s="11"/>
-      <c r="OO8" s="12"/>
-      <c r="OP8" s="12"/>
-      <c r="OQ8" s="11"/>
-      <c r="OR8" s="12"/>
-      <c r="OS8" s="12"/>
-      <c r="OT8" s="11"/>
-      <c r="OU8" s="12"/>
-      <c r="OV8" s="12"/>
-      <c r="OW8" s="11"/>
-      <c r="OX8" s="12"/>
-      <c r="OY8" s="12"/>
-      <c r="OZ8" s="11"/>
-      <c r="PA8" s="12"/>
-      <c r="PB8" s="12"/>
-      <c r="PC8" s="11"/>
-      <c r="PD8" s="12"/>
-      <c r="PE8" s="12"/>
-      <c r="PF8" s="11"/>
-      <c r="PG8" s="12"/>
-      <c r="PH8" s="12"/>
-      <c r="PI8" s="11"/>
-      <c r="PJ8" s="12"/>
-      <c r="PK8" s="12"/>
-      <c r="PL8" s="11"/>
-      <c r="PM8" s="12"/>
-      <c r="PN8" s="12"/>
-      <c r="PO8" s="11"/>
-      <c r="PP8" s="12"/>
-      <c r="PQ8" s="12"/>
-      <c r="PR8" s="11"/>
-      <c r="PS8" s="12"/>
-      <c r="PT8" s="12"/>
-      <c r="PU8" s="11"/>
-      <c r="PV8" s="12"/>
-      <c r="PW8" s="12"/>
-      <c r="PX8" s="11"/>
-      <c r="PY8" s="12"/>
-      <c r="PZ8" s="12"/>
-      <c r="QA8" s="11"/>
-      <c r="QB8" s="12"/>
-      <c r="QC8" s="12"/>
-      <c r="QD8" s="11"/>
-      <c r="QE8" s="12"/>
-      <c r="QF8" s="12"/>
-      <c r="QG8" s="11"/>
-      <c r="QH8" s="12"/>
-      <c r="QI8" s="12"/>
-      <c r="QJ8" s="11"/>
-      <c r="QK8" s="12"/>
-      <c r="QL8" s="12"/>
-      <c r="QM8" s="11"/>
-      <c r="QN8" s="12"/>
-      <c r="QO8" s="12"/>
-      <c r="QP8" s="11"/>
-      <c r="QQ8" s="12"/>
-      <c r="QR8" s="12"/>
-      <c r="QS8" s="11"/>
-      <c r="QT8" s="12"/>
-      <c r="QU8" s="12"/>
-      <c r="QV8" s="11"/>
-      <c r="QW8" s="12"/>
-      <c r="QX8" s="12"/>
-      <c r="QY8" s="11"/>
-      <c r="QZ8" s="12"/>
-      <c r="RA8" s="12"/>
-      <c r="RB8" s="11"/>
-      <c r="RC8" s="12"/>
-      <c r="RD8" s="12"/>
-      <c r="RE8" s="11"/>
-      <c r="RF8" s="12"/>
-      <c r="RG8" s="12"/>
-      <c r="RH8" s="11"/>
-      <c r="RI8" s="12"/>
-      <c r="RJ8" s="12"/>
-      <c r="RK8" s="11"/>
-      <c r="RL8" s="12"/>
-      <c r="RM8" s="12"/>
-      <c r="RN8" s="11"/>
-      <c r="RO8" s="12"/>
-      <c r="RP8" s="12"/>
-      <c r="RQ8" s="11"/>
-      <c r="RR8" s="12"/>
-      <c r="RS8" s="12"/>
-      <c r="RT8" s="11"/>
-      <c r="RU8" s="12"/>
-      <c r="RV8" s="12"/>
-      <c r="RW8" s="11"/>
-      <c r="RX8" s="12"/>
-      <c r="RY8" s="12"/>
-      <c r="RZ8" s="11"/>
-      <c r="SA8" s="12"/>
-      <c r="SB8" s="12"/>
-      <c r="SC8" s="11"/>
-      <c r="SD8" s="12"/>
-      <c r="SE8" s="12"/>
-      <c r="SF8" s="11"/>
-      <c r="SG8" s="12"/>
-      <c r="SH8" s="12"/>
-      <c r="SI8" s="11"/>
-      <c r="SJ8" s="12"/>
-      <c r="SK8" s="12"/>
-      <c r="SL8" s="11"/>
-      <c r="SM8" s="12"/>
-      <c r="SN8" s="12"/>
-      <c r="SO8" s="11"/>
-      <c r="SP8" s="12"/>
-      <c r="SQ8" s="12"/>
-      <c r="SR8" s="11"/>
-      <c r="SS8" s="12"/>
-      <c r="ST8" s="12"/>
-      <c r="SU8" s="11"/>
-      <c r="SV8" s="12"/>
-      <c r="SW8" s="12"/>
-      <c r="SX8" s="11"/>
-      <c r="SY8" s="12"/>
-      <c r="SZ8" s="12"/>
-      <c r="TA8" s="11"/>
-      <c r="TB8" s="12"/>
-      <c r="TC8" s="12"/>
-      <c r="TD8" s="11"/>
-      <c r="TE8" s="12"/>
-      <c r="TF8" s="12"/>
-      <c r="TG8" s="11"/>
-      <c r="TH8" s="12"/>
-      <c r="TI8" s="12"/>
-      <c r="TJ8" s="11"/>
-      <c r="TK8" s="12"/>
-      <c r="TL8" s="12"/>
-      <c r="TM8" s="11"/>
-      <c r="TN8" s="12"/>
-      <c r="TO8" s="12"/>
-      <c r="TP8" s="11"/>
-      <c r="TQ8" s="12"/>
-      <c r="TR8" s="12"/>
-      <c r="TS8" s="11"/>
-      <c r="TT8" s="12"/>
-      <c r="TU8" s="12"/>
-      <c r="TV8" s="11"/>
-      <c r="TW8" s="12"/>
-      <c r="TX8" s="12"/>
-      <c r="TY8" s="11"/>
-      <c r="TZ8" s="12"/>
-      <c r="UA8" s="12"/>
-      <c r="UB8" s="11"/>
-      <c r="UC8" s="12"/>
-      <c r="UD8" s="12"/>
-      <c r="UE8" s="11"/>
-      <c r="UF8" s="12"/>
-      <c r="UG8" s="12"/>
-      <c r="UH8" s="11"/>
-      <c r="UI8" s="12"/>
-      <c r="UJ8" s="12"/>
-      <c r="UK8" s="11"/>
-      <c r="UL8" s="12"/>
-      <c r="UM8" s="12"/>
-      <c r="UN8" s="11"/>
-      <c r="UO8" s="12"/>
-      <c r="UP8" s="12"/>
-      <c r="UQ8" s="11"/>
-      <c r="UR8" s="12"/>
-      <c r="US8" s="12"/>
-      <c r="UT8" s="11"/>
-      <c r="UU8" s="12"/>
-      <c r="UV8" s="12"/>
-      <c r="UW8" s="11"/>
-      <c r="UX8" s="12"/>
-      <c r="UY8" s="12"/>
-      <c r="UZ8" s="11"/>
-      <c r="VA8" s="12"/>
-      <c r="VB8" s="12"/>
-      <c r="VC8" s="11"/>
-      <c r="VD8" s="12"/>
-      <c r="VE8" s="12"/>
-      <c r="VF8" s="11"/>
-      <c r="VG8" s="12"/>
-      <c r="VH8" s="12"/>
-      <c r="VI8" s="11"/>
-      <c r="VJ8" s="12"/>
-      <c r="VK8" s="12"/>
-      <c r="VL8" s="11"/>
-      <c r="VM8" s="12"/>
-      <c r="VN8" s="12"/>
-      <c r="VO8" s="11"/>
-      <c r="VP8" s="12"/>
-      <c r="VQ8" s="12"/>
-      <c r="VR8" s="11"/>
-      <c r="VS8" s="12"/>
-      <c r="VT8" s="12"/>
-      <c r="VU8" s="11"/>
-      <c r="VV8" s="12"/>
-      <c r="VW8" s="12"/>
-      <c r="VX8" s="11"/>
-      <c r="VY8" s="12"/>
-      <c r="VZ8" s="12"/>
-      <c r="WA8" s="11"/>
-      <c r="WB8" s="12"/>
-      <c r="WC8" s="12"/>
-      <c r="WD8" s="11"/>
-      <c r="WE8" s="12"/>
-      <c r="WF8" s="12"/>
-      <c r="WG8" s="11"/>
-      <c r="WH8" s="12"/>
-      <c r="WI8" s="12"/>
-      <c r="WJ8" s="11"/>
-      <c r="WK8" s="12"/>
-      <c r="WL8" s="12"/>
-      <c r="WM8" s="11"/>
-      <c r="WN8" s="12"/>
-      <c r="WO8" s="12"/>
-      <c r="WP8" s="11"/>
-      <c r="WQ8" s="12"/>
-      <c r="WR8" s="12"/>
-      <c r="WS8" s="11"/>
-      <c r="WT8" s="12"/>
-      <c r="WU8" s="12"/>
-      <c r="WV8" s="11"/>
-      <c r="WW8" s="12"/>
-      <c r="WX8" s="12"/>
-      <c r="WY8" s="11"/>
-      <c r="WZ8" s="12"/>
-      <c r="XA8" s="12"/>
-      <c r="XB8" s="11"/>
-      <c r="XC8" s="12"/>
-      <c r="XD8" s="12"/>
-      <c r="XE8" s="11"/>
-      <c r="XF8" s="12"/>
-      <c r="XG8" s="12"/>
-      <c r="XH8" s="11"/>
-      <c r="XI8" s="12"/>
-      <c r="XJ8" s="12"/>
-      <c r="XK8" s="11"/>
-      <c r="XL8" s="12"/>
-      <c r="XM8" s="12"/>
-      <c r="XN8" s="11"/>
-      <c r="XO8" s="12"/>
-      <c r="XP8" s="12"/>
-      <c r="XQ8" s="11"/>
-      <c r="XR8" s="12"/>
-      <c r="XS8" s="12"/>
-      <c r="XT8" s="11"/>
-      <c r="XU8" s="12"/>
-      <c r="XV8" s="12"/>
-      <c r="XW8" s="11"/>
-      <c r="XX8" s="12"/>
-      <c r="XY8" s="12"/>
-      <c r="XZ8" s="11"/>
-      <c r="YA8" s="12"/>
-      <c r="YB8" s="12"/>
-      <c r="YC8" s="11"/>
-      <c r="YD8" s="12"/>
-      <c r="YE8" s="12"/>
-      <c r="YF8" s="11"/>
-      <c r="YG8" s="12"/>
-      <c r="YH8" s="12"/>
-      <c r="YI8" s="11"/>
-      <c r="YJ8" s="12"/>
-      <c r="YK8" s="12"/>
-      <c r="YL8" s="11"/>
-      <c r="YM8" s="12"/>
-      <c r="YN8" s="12"/>
-      <c r="YO8" s="11"/>
-      <c r="YP8" s="12"/>
-      <c r="YQ8" s="12"/>
-      <c r="YR8" s="11"/>
-      <c r="YS8" s="12"/>
-      <c r="YT8" s="12"/>
-      <c r="YU8" s="11"/>
-      <c r="YV8" s="12"/>
-      <c r="YW8" s="12"/>
-      <c r="YX8" s="11"/>
-      <c r="YY8" s="12"/>
-      <c r="YZ8" s="12"/>
-      <c r="ZA8" s="11"/>
-      <c r="ZB8" s="12"/>
-      <c r="ZC8" s="12"/>
-      <c r="ZD8" s="11"/>
-      <c r="ZE8" s="12"/>
-      <c r="ZF8" s="12"/>
-      <c r="ZG8" s="11"/>
-      <c r="ZH8" s="12"/>
-      <c r="ZI8" s="12"/>
-      <c r="ZJ8" s="11"/>
-      <c r="ZK8" s="12"/>
-      <c r="ZL8" s="12"/>
-      <c r="ZM8" s="11"/>
-      <c r="ZN8" s="12"/>
-      <c r="ZO8" s="12"/>
-      <c r="ZP8" s="11"/>
-      <c r="ZQ8" s="12"/>
-      <c r="ZR8" s="12"/>
-      <c r="ZS8" s="11"/>
-      <c r="ZT8" s="12"/>
-      <c r="ZU8" s="12"/>
-      <c r="ZV8" s="11"/>
-      <c r="ZW8" s="12"/>
-      <c r="ZX8" s="12"/>
-      <c r="ZY8" s="11"/>
-      <c r="ZZ8" s="12"/>
-      <c r="AAA8" s="12"/>
-      <c r="AAB8" s="11"/>
-      <c r="AAC8" s="12"/>
-      <c r="AAD8" s="12"/>
-      <c r="AAE8" s="11"/>
-      <c r="AAF8" s="12"/>
-      <c r="AAG8" s="12"/>
-      <c r="AAH8" s="11"/>
-      <c r="AAI8" s="12"/>
-      <c r="AAJ8" s="12"/>
-      <c r="AAK8" s="11"/>
-      <c r="AAL8" s="12"/>
-      <c r="AAM8" s="12"/>
-      <c r="AAN8" s="11"/>
-      <c r="AAO8" s="12"/>
-      <c r="AAP8" s="12"/>
-      <c r="AAQ8" s="11"/>
-      <c r="AAR8" s="12"/>
-      <c r="AAS8" s="12"/>
-      <c r="AAT8" s="11"/>
-      <c r="AAU8" s="12"/>
-      <c r="AAV8" s="12"/>
-      <c r="AAW8" s="11"/>
-      <c r="AAX8" s="12"/>
-      <c r="AAY8" s="12"/>
-      <c r="AAZ8" s="11"/>
-      <c r="ABA8" s="12"/>
-      <c r="ABB8" s="12"/>
-      <c r="ABC8" s="11"/>
-      <c r="ABD8" s="12"/>
-      <c r="ABE8" s="12"/>
-      <c r="ABF8" s="11"/>
-      <c r="ABG8" s="12"/>
-      <c r="ABH8" s="12"/>
-      <c r="ABI8" s="11"/>
-      <c r="ABJ8" s="12"/>
-      <c r="ABK8" s="12"/>
-      <c r="ABL8" s="11"/>
-      <c r="ABM8" s="12"/>
-      <c r="ABN8" s="12"/>
-      <c r="ABO8" s="11"/>
-      <c r="ABP8" s="12"/>
-      <c r="ABQ8" s="12"/>
-      <c r="ABR8" s="11"/>
-      <c r="ABS8" s="12"/>
-      <c r="ABT8" s="12"/>
-      <c r="ABU8" s="11"/>
-      <c r="ABV8" s="12"/>
-      <c r="ABW8" s="12"/>
-      <c r="ABX8" s="11"/>
-      <c r="ABY8" s="12"/>
-      <c r="ABZ8" s="12"/>
-      <c r="ACA8" s="11"/>
-      <c r="ACB8" s="12"/>
-      <c r="ACC8" s="12"/>
-      <c r="ACD8" s="11"/>
-      <c r="ACE8" s="12"/>
-      <c r="ACF8" s="12"/>
-      <c r="ACG8" s="11"/>
-      <c r="ACH8" s="12"/>
-      <c r="ACI8" s="12"/>
-      <c r="ACJ8" s="11"/>
-      <c r="ACK8" s="12"/>
-      <c r="ACL8" s="12"/>
-      <c r="ACM8" s="11"/>
-      <c r="ACN8" s="12"/>
-      <c r="ACO8" s="12"/>
-      <c r="ACP8" s="11"/>
-      <c r="ACQ8" s="12"/>
-      <c r="ACR8" s="12"/>
-      <c r="ACS8" s="11"/>
-      <c r="ACT8" s="12"/>
-      <c r="ACU8" s="12"/>
-      <c r="ACV8" s="11"/>
-      <c r="ACW8" s="12"/>
-      <c r="ACX8" s="12"/>
-      <c r="ACY8" s="11"/>
-      <c r="ACZ8" s="12"/>
-      <c r="ADA8" s="12"/>
-      <c r="ADB8" s="11"/>
-      <c r="ADC8" s="12"/>
-      <c r="ADD8" s="12"/>
-      <c r="ADE8" s="11"/>
-      <c r="ADF8" s="12"/>
-      <c r="ADG8" s="12"/>
-      <c r="ADH8" s="11"/>
-      <c r="ADI8" s="12"/>
-      <c r="ADJ8" s="12"/>
-      <c r="ADK8" s="11"/>
-      <c r="ADL8" s="12"/>
-      <c r="ADM8" s="12"/>
-      <c r="ADN8" s="11"/>
-      <c r="ADO8" s="12"/>
-      <c r="ADP8" s="12"/>
-      <c r="ADQ8" s="11"/>
-      <c r="ADR8" s="12"/>
-      <c r="ADS8" s="12"/>
-      <c r="ADT8" s="11"/>
-      <c r="ADU8" s="12"/>
-      <c r="ADV8" s="12"/>
-      <c r="ADW8" s="11"/>
-      <c r="ADX8" s="12"/>
-      <c r="ADY8" s="12"/>
-      <c r="ADZ8" s="11"/>
-      <c r="AEA8" s="12"/>
-      <c r="AEB8" s="12"/>
-      <c r="AEC8" s="11"/>
-      <c r="AED8" s="12"/>
-      <c r="AEE8" s="12"/>
-      <c r="AEF8" s="11"/>
-      <c r="AEG8" s="12"/>
-      <c r="AEH8" s="12"/>
-      <c r="AEI8" s="11"/>
-      <c r="AEJ8" s="12"/>
-      <c r="AEK8" s="12"/>
-      <c r="AEL8" s="11"/>
-      <c r="AEM8" s="12"/>
-      <c r="AEN8" s="12"/>
-      <c r="AEO8" s="11"/>
-      <c r="AEP8" s="12"/>
-      <c r="AEQ8" s="12"/>
-      <c r="AER8" s="11"/>
-      <c r="AES8" s="12"/>
-      <c r="AET8" s="12"/>
-      <c r="AEU8" s="11"/>
-      <c r="AEV8" s="12"/>
-      <c r="AEW8" s="12"/>
-      <c r="AEX8" s="11"/>
-      <c r="AEY8" s="12"/>
-      <c r="AEZ8" s="12"/>
-      <c r="AFA8" s="11"/>
-      <c r="AFB8" s="12"/>
-      <c r="AFC8" s="12"/>
-      <c r="AFD8" s="11"/>
-      <c r="AFE8" s="12"/>
-      <c r="AFF8" s="12"/>
-      <c r="AFG8" s="11"/>
-      <c r="AFH8" s="12"/>
-      <c r="AFI8" s="12"/>
-      <c r="AFJ8" s="11"/>
-      <c r="AFK8" s="12"/>
-      <c r="AFL8" s="12"/>
-      <c r="AFM8" s="11"/>
-      <c r="AFN8" s="12"/>
-      <c r="AFO8" s="12"/>
-      <c r="AFP8" s="11"/>
-      <c r="AFQ8" s="12"/>
-      <c r="AFR8" s="12"/>
-      <c r="AFS8" s="11"/>
-      <c r="AFT8" s="12"/>
-      <c r="AFU8" s="12"/>
-      <c r="AFV8" s="11"/>
-      <c r="AFW8" s="12"/>
-      <c r="AFX8" s="12"/>
-      <c r="AFY8" s="11"/>
-      <c r="AFZ8" s="12"/>
-      <c r="AGA8" s="12"/>
-      <c r="AGB8" s="11"/>
-      <c r="AGC8" s="12"/>
-      <c r="AGD8" s="12"/>
-      <c r="AGE8" s="11"/>
-      <c r="AGF8" s="12"/>
+      <c r="A8" s="9"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="11"/>
+      <c r="K8" s="10"/>
+      <c r="L8" s="11"/>
+      <c r="M8" s="11"/>
+      <c r="N8" s="10"/>
+      <c r="O8" s="11"/>
+      <c r="P8" s="11"/>
+      <c r="Q8" s="10"/>
+      <c r="R8" s="11"/>
+      <c r="S8" s="11"/>
+      <c r="T8" s="10"/>
+      <c r="U8" s="11"/>
+      <c r="V8" s="11"/>
+      <c r="W8" s="10"/>
+      <c r="X8" s="11"/>
+      <c r="Y8" s="11"/>
+      <c r="Z8" s="10"/>
+      <c r="AA8" s="11"/>
+      <c r="AB8" s="11"/>
+      <c r="AC8" s="10"/>
+      <c r="AD8" s="11"/>
+      <c r="AE8" s="11"/>
+      <c r="AF8" s="10"/>
+      <c r="AG8" s="11"/>
+      <c r="AH8" s="11"/>
+      <c r="AI8" s="10"/>
+      <c r="AJ8" s="11"/>
+      <c r="AK8" s="11"/>
+      <c r="AL8" s="10"/>
+      <c r="AM8" s="11"/>
+      <c r="AN8" s="11"/>
+      <c r="AO8" s="10"/>
+      <c r="AP8" s="11"/>
+      <c r="AQ8" s="11"/>
+      <c r="AR8" s="10"/>
+      <c r="AS8" s="11"/>
+      <c r="AT8" s="11"/>
+      <c r="AU8" s="10"/>
+      <c r="AV8" s="11"/>
+      <c r="AW8" s="11"/>
+      <c r="AX8" s="10"/>
+      <c r="AY8" s="11"/>
+      <c r="AZ8" s="11"/>
+      <c r="BA8" s="10"/>
+      <c r="BB8" s="11"/>
+      <c r="BC8" s="11"/>
+      <c r="BD8" s="10"/>
+      <c r="BE8" s="11"/>
+      <c r="BF8" s="11"/>
+      <c r="BG8" s="10"/>
+      <c r="BH8" s="11"/>
+      <c r="BI8" s="11"/>
+      <c r="BJ8" s="10"/>
+      <c r="BK8" s="11"/>
+      <c r="BL8" s="11"/>
+      <c r="BM8" s="10"/>
+      <c r="BN8" s="11"/>
+      <c r="BO8" s="11"/>
+      <c r="BP8" s="10"/>
+      <c r="BQ8" s="11"/>
+      <c r="BR8" s="11"/>
+      <c r="BS8" s="10"/>
+      <c r="BT8" s="11"/>
+      <c r="BU8" s="11"/>
+      <c r="BV8" s="10"/>
+      <c r="BW8" s="11"/>
+      <c r="BX8" s="11"/>
+      <c r="BY8" s="10"/>
+      <c r="BZ8" s="11"/>
+      <c r="CA8" s="11"/>
+      <c r="CB8" s="10"/>
+      <c r="CC8" s="11"/>
+      <c r="CD8" s="11"/>
+      <c r="CE8" s="10"/>
+      <c r="CF8" s="11"/>
+      <c r="CG8" s="11"/>
+      <c r="CH8" s="10"/>
+      <c r="CI8" s="11"/>
+      <c r="CJ8" s="11"/>
+      <c r="CK8" s="10"/>
+      <c r="CL8" s="11"/>
+      <c r="CM8" s="11"/>
+      <c r="CN8" s="10"/>
+      <c r="CO8" s="11"/>
+      <c r="CP8" s="11"/>
+      <c r="CQ8" s="10"/>
+      <c r="CR8" s="11"/>
+      <c r="CS8" s="11"/>
+      <c r="CT8" s="10"/>
+      <c r="CU8" s="11"/>
+      <c r="CV8" s="11"/>
+      <c r="CW8" s="10"/>
+      <c r="CX8" s="11"/>
+      <c r="CY8" s="11"/>
+      <c r="CZ8" s="10"/>
+      <c r="DA8" s="11"/>
+      <c r="DB8" s="11"/>
+      <c r="DC8" s="10"/>
+      <c r="DD8" s="11"/>
+      <c r="DE8" s="11"/>
+      <c r="DF8" s="10"/>
+      <c r="DG8" s="11"/>
+      <c r="DH8" s="11"/>
+      <c r="DI8" s="10"/>
+      <c r="DJ8" s="11"/>
+      <c r="DK8" s="11"/>
+      <c r="DL8" s="10"/>
+      <c r="DM8" s="11"/>
+      <c r="DN8" s="11"/>
+      <c r="DO8" s="10"/>
+      <c r="DP8" s="11"/>
+      <c r="DQ8" s="11"/>
+      <c r="DR8" s="10"/>
+      <c r="DS8" s="11"/>
+      <c r="DT8" s="11"/>
+      <c r="DU8" s="10"/>
+      <c r="DV8" s="11"/>
+      <c r="DW8" s="11"/>
+      <c r="DX8" s="10"/>
+      <c r="DY8" s="11"/>
+      <c r="DZ8" s="11"/>
+      <c r="EA8" s="10"/>
+      <c r="EB8" s="11"/>
+      <c r="EC8" s="11"/>
+      <c r="ED8" s="10"/>
+      <c r="EE8" s="11"/>
+      <c r="EF8" s="11"/>
+      <c r="EG8" s="10"/>
+      <c r="EH8" s="11"/>
+      <c r="EI8" s="11"/>
+      <c r="EJ8" s="10"/>
+      <c r="EK8" s="11"/>
+      <c r="EL8" s="11"/>
+      <c r="EM8" s="10"/>
+      <c r="EN8" s="11"/>
+      <c r="EO8" s="11"/>
+      <c r="EP8" s="10"/>
+      <c r="EQ8" s="11"/>
+      <c r="ER8" s="11"/>
+      <c r="ES8" s="10"/>
+      <c r="ET8" s="11"/>
+      <c r="EU8" s="11"/>
+      <c r="EV8" s="10"/>
+      <c r="EW8" s="11"/>
+      <c r="EX8" s="11"/>
+      <c r="EY8" s="10"/>
+      <c r="EZ8" s="11"/>
+      <c r="FA8" s="11"/>
+      <c r="FB8" s="10"/>
+      <c r="FC8" s="11"/>
+      <c r="FD8" s="11"/>
+      <c r="FE8" s="10"/>
+      <c r="FF8" s="11"/>
+      <c r="FG8" s="11"/>
+      <c r="FH8" s="10"/>
+      <c r="FI8" s="11"/>
+      <c r="FJ8" s="11"/>
+      <c r="FK8" s="10"/>
+      <c r="FL8" s="11"/>
+      <c r="FM8" s="11"/>
+      <c r="FN8" s="10"/>
+      <c r="FO8" s="11"/>
+      <c r="FP8" s="11"/>
+      <c r="FQ8" s="10"/>
+      <c r="FR8" s="11"/>
+      <c r="FS8" s="11"/>
+      <c r="FT8" s="10"/>
+      <c r="FU8" s="11"/>
+      <c r="FV8" s="11"/>
+      <c r="FW8" s="10"/>
+      <c r="FX8" s="11"/>
+      <c r="FY8" s="11"/>
+      <c r="FZ8" s="10"/>
+      <c r="GA8" s="11"/>
+      <c r="GB8" s="11"/>
+      <c r="GC8" s="10"/>
+      <c r="GD8" s="11"/>
+      <c r="GE8" s="11"/>
+      <c r="GF8" s="10"/>
+      <c r="GG8" s="11"/>
+      <c r="GH8" s="11"/>
+      <c r="GI8" s="10"/>
+      <c r="GJ8" s="11"/>
+      <c r="GK8" s="11"/>
+      <c r="GL8" s="10"/>
+      <c r="GM8" s="11"/>
+      <c r="GN8" s="11"/>
+      <c r="GO8" s="10"/>
+      <c r="GP8" s="11"/>
+      <c r="GQ8" s="11"/>
+      <c r="GR8" s="10"/>
+      <c r="GS8" s="11"/>
+      <c r="GT8" s="11"/>
+      <c r="GU8" s="10"/>
+      <c r="GV8" s="11"/>
+      <c r="GW8" s="11"/>
+      <c r="GX8" s="10"/>
+      <c r="GY8" s="11"/>
+      <c r="GZ8" s="11"/>
+      <c r="HA8" s="10"/>
+      <c r="HB8" s="11"/>
+      <c r="HC8" s="11"/>
+      <c r="HD8" s="10"/>
+      <c r="HE8" s="11"/>
+      <c r="HF8" s="11"/>
+      <c r="HG8" s="10"/>
+      <c r="HH8" s="11"/>
+      <c r="HI8" s="11"/>
+      <c r="HJ8" s="10"/>
+      <c r="HK8" s="11"/>
+      <c r="HL8" s="11"/>
+      <c r="HM8" s="10"/>
+      <c r="HN8" s="11"/>
+      <c r="HO8" s="11"/>
+      <c r="HP8" s="10"/>
+      <c r="HQ8" s="11"/>
+      <c r="HR8" s="11"/>
+      <c r="HS8" s="10"/>
+      <c r="HT8" s="11"/>
+      <c r="HU8" s="11"/>
+      <c r="HV8" s="10"/>
+      <c r="HW8" s="11"/>
+      <c r="HX8" s="11"/>
+      <c r="HY8" s="10"/>
+      <c r="HZ8" s="11"/>
+      <c r="IA8" s="11"/>
+      <c r="IB8" s="10"/>
+      <c r="IC8" s="11"/>
+      <c r="ID8" s="11"/>
+      <c r="IE8" s="10"/>
+      <c r="IF8" s="11"/>
+      <c r="IG8" s="11"/>
+      <c r="IH8" s="10"/>
+      <c r="II8" s="11"/>
+      <c r="IJ8" s="11"/>
+      <c r="IK8" s="10"/>
+      <c r="IL8" s="11"/>
+      <c r="IM8" s="11"/>
+      <c r="IN8" s="10"/>
+      <c r="IO8" s="11"/>
+      <c r="IP8" s="11"/>
+      <c r="IQ8" s="10"/>
+      <c r="IR8" s="11"/>
+      <c r="IS8" s="11"/>
+      <c r="IT8" s="10"/>
+      <c r="IU8" s="11"/>
+      <c r="IV8" s="11"/>
+      <c r="IW8" s="10"/>
+      <c r="IX8" s="11"/>
+      <c r="IY8" s="11"/>
+      <c r="IZ8" s="10"/>
+      <c r="JA8" s="11"/>
+      <c r="JB8" s="11"/>
+      <c r="JC8" s="10"/>
+      <c r="JD8" s="11"/>
+      <c r="JE8" s="11"/>
+      <c r="JF8" s="10"/>
+      <c r="JG8" s="11"/>
+      <c r="JH8" s="11"/>
+      <c r="JI8" s="10"/>
+      <c r="JJ8" s="11"/>
+      <c r="JK8" s="11"/>
+      <c r="JL8" s="10"/>
+      <c r="JM8" s="11"/>
+      <c r="JN8" s="11"/>
+      <c r="JO8" s="10"/>
+      <c r="JP8" s="11"/>
+      <c r="JQ8" s="11"/>
+      <c r="JR8" s="10"/>
+      <c r="JS8" s="11"/>
+      <c r="JT8" s="11"/>
+      <c r="JU8" s="10"/>
+      <c r="JV8" s="11"/>
+      <c r="JW8" s="11"/>
+      <c r="JX8" s="10"/>
+      <c r="JY8" s="11"/>
+      <c r="JZ8" s="11"/>
+      <c r="KA8" s="10"/>
+      <c r="KB8" s="11"/>
+      <c r="KC8" s="11"/>
+      <c r="KD8" s="10"/>
+      <c r="KE8" s="11"/>
+      <c r="KF8" s="11"/>
+      <c r="KG8" s="10"/>
+      <c r="KH8" s="11"/>
+      <c r="KI8" s="11"/>
+      <c r="KJ8" s="10"/>
+      <c r="KK8" s="11"/>
+      <c r="KL8" s="11"/>
+      <c r="KM8" s="10"/>
+      <c r="KN8" s="11"/>
+      <c r="KO8" s="11"/>
+      <c r="KP8" s="10"/>
+      <c r="KQ8" s="11"/>
+      <c r="KR8" s="11"/>
+      <c r="KS8" s="10"/>
+      <c r="KT8" s="11"/>
+      <c r="KU8" s="11"/>
+      <c r="KV8" s="10"/>
+      <c r="KW8" s="11"/>
+      <c r="KX8" s="11"/>
+      <c r="KY8" s="10"/>
+      <c r="KZ8" s="11"/>
+      <c r="LA8" s="11"/>
+      <c r="LB8" s="10"/>
+      <c r="LC8" s="11"/>
+      <c r="LD8" s="11"/>
+      <c r="LE8" s="10"/>
+      <c r="LF8" s="11"/>
+      <c r="LG8" s="11"/>
+      <c r="LH8" s="10"/>
+      <c r="LI8" s="11"/>
+      <c r="LJ8" s="11"/>
+      <c r="LK8" s="10"/>
+      <c r="LL8" s="11"/>
+      <c r="LM8" s="11"/>
+      <c r="LN8" s="10"/>
+      <c r="LO8" s="11"/>
+      <c r="LP8" s="11"/>
+      <c r="LQ8" s="10"/>
+      <c r="LR8" s="11"/>
+      <c r="LS8" s="11"/>
+      <c r="LT8" s="10"/>
+      <c r="LU8" s="11"/>
+      <c r="LV8" s="11"/>
+      <c r="LW8" s="10"/>
+      <c r="LX8" s="11"/>
+      <c r="LY8" s="11"/>
+      <c r="LZ8" s="10"/>
+      <c r="MA8" s="11"/>
+      <c r="MB8" s="11"/>
+      <c r="MC8" s="10"/>
+      <c r="MD8" s="11"/>
+      <c r="ME8" s="11"/>
+      <c r="MF8" s="10"/>
+      <c r="MG8" s="11"/>
+      <c r="MH8" s="11"/>
+      <c r="MI8" s="10"/>
+      <c r="MJ8" s="11"/>
+      <c r="MK8" s="11"/>
+      <c r="ML8" s="10"/>
+      <c r="MM8" s="11"/>
+      <c r="MN8" s="11"/>
+      <c r="MO8" s="10"/>
+      <c r="MP8" s="11"/>
+      <c r="MQ8" s="11"/>
+      <c r="MR8" s="10"/>
+      <c r="MS8" s="11"/>
+      <c r="MT8" s="11"/>
+      <c r="MU8" s="10"/>
+      <c r="MV8" s="11"/>
+      <c r="MW8" s="11"/>
+      <c r="MX8" s="10"/>
+      <c r="MY8" s="11"/>
+      <c r="MZ8" s="11"/>
+      <c r="NA8" s="10"/>
+      <c r="NB8" s="11"/>
+      <c r="NC8" s="11"/>
+      <c r="ND8" s="10"/>
+      <c r="NE8" s="11"/>
+      <c r="NF8" s="11"/>
+      <c r="NG8" s="10"/>
+      <c r="NH8" s="11"/>
+      <c r="NI8" s="11"/>
+      <c r="NJ8" s="10"/>
+      <c r="NK8" s="11"/>
+      <c r="NL8" s="11"/>
+      <c r="NM8" s="10"/>
+      <c r="NN8" s="11"/>
+      <c r="NO8" s="11"/>
+      <c r="NP8" s="10"/>
+      <c r="NQ8" s="11"/>
+      <c r="NR8" s="11"/>
+      <c r="NS8" s="10"/>
+      <c r="NT8" s="11"/>
+      <c r="NU8" s="11"/>
+      <c r="NV8" s="10"/>
+      <c r="NW8" s="11"/>
+      <c r="NX8" s="11"/>
+      <c r="NY8" s="10"/>
+      <c r="NZ8" s="11"/>
+      <c r="OA8" s="11"/>
+      <c r="OB8" s="10"/>
+      <c r="OC8" s="11"/>
+      <c r="OD8" s="11"/>
+      <c r="OE8" s="10"/>
+      <c r="OF8" s="11"/>
+      <c r="OG8" s="11"/>
+      <c r="OH8" s="10"/>
+      <c r="OI8" s="11"/>
+      <c r="OJ8" s="11"/>
+      <c r="OK8" s="10"/>
+      <c r="OL8" s="11"/>
+      <c r="OM8" s="11"/>
+      <c r="ON8" s="10"/>
+      <c r="OO8" s="11"/>
+      <c r="OP8" s="11"/>
+      <c r="OQ8" s="10"/>
+      <c r="OR8" s="11"/>
+      <c r="OS8" s="11"/>
+      <c r="OT8" s="10"/>
+      <c r="OU8" s="11"/>
+      <c r="OV8" s="11"/>
+      <c r="OW8" s="10"/>
+      <c r="OX8" s="11"/>
+      <c r="OY8" s="11"/>
+      <c r="OZ8" s="10"/>
+      <c r="PA8" s="11"/>
+      <c r="PB8" s="11"/>
+      <c r="PC8" s="10"/>
+      <c r="PD8" s="11"/>
+      <c r="PE8" s="11"/>
+      <c r="PF8" s="10"/>
+      <c r="PG8" s="11"/>
+      <c r="PH8" s="11"/>
+      <c r="PI8" s="10"/>
+      <c r="PJ8" s="11"/>
+      <c r="PK8" s="11"/>
+      <c r="PL8" s="10"/>
+      <c r="PM8" s="11"/>
+      <c r="PN8" s="11"/>
+      <c r="PO8" s="10"/>
+      <c r="PP8" s="11"/>
+      <c r="PQ8" s="11"/>
+      <c r="PR8" s="10"/>
+      <c r="PS8" s="11"/>
+      <c r="PT8" s="11"/>
+      <c r="PU8" s="10"/>
+      <c r="PV8" s="11"/>
+      <c r="PW8" s="11"/>
+      <c r="PX8" s="10"/>
+      <c r="PY8" s="11"/>
+      <c r="PZ8" s="11"/>
+      <c r="QA8" s="10"/>
+      <c r="QB8" s="11"/>
+      <c r="QC8" s="11"/>
+      <c r="QD8" s="10"/>
+      <c r="QE8" s="11"/>
+      <c r="QF8" s="11"/>
+      <c r="QG8" s="10"/>
+      <c r="QH8" s="11"/>
+      <c r="QI8" s="11"/>
+      <c r="QJ8" s="10"/>
+      <c r="QK8" s="11"/>
+      <c r="QL8" s="11"/>
+      <c r="QM8" s="10"/>
+      <c r="QN8" s="11"/>
+      <c r="QO8" s="11"/>
+      <c r="QP8" s="10"/>
+      <c r="QQ8" s="11"/>
+      <c r="QR8" s="11"/>
+      <c r="QS8" s="10"/>
+      <c r="QT8" s="11"/>
+      <c r="QU8" s="11"/>
+      <c r="QV8" s="10"/>
+      <c r="QW8" s="11"/>
+      <c r="QX8" s="11"/>
+      <c r="QY8" s="10"/>
+      <c r="QZ8" s="11"/>
+      <c r="RA8" s="11"/>
+      <c r="RB8" s="10"/>
+      <c r="RC8" s="11"/>
+      <c r="RD8" s="11"/>
+      <c r="RE8" s="10"/>
+      <c r="RF8" s="11"/>
+      <c r="RG8" s="11"/>
+      <c r="RH8" s="10"/>
+      <c r="RI8" s="11"/>
+      <c r="RJ8" s="11"/>
+      <c r="RK8" s="10"/>
+      <c r="RL8" s="11"/>
+      <c r="RM8" s="11"/>
+      <c r="RN8" s="10"/>
+      <c r="RO8" s="11"/>
+      <c r="RP8" s="11"/>
+      <c r="RQ8" s="10"/>
+      <c r="RR8" s="11"/>
+      <c r="RS8" s="11"/>
+      <c r="RT8" s="10"/>
+      <c r="RU8" s="11"/>
+      <c r="RV8" s="11"/>
+      <c r="RW8" s="10"/>
+      <c r="RX8" s="11"/>
+      <c r="RY8" s="11"/>
+      <c r="RZ8" s="10"/>
+      <c r="SA8" s="11"/>
+      <c r="SB8" s="11"/>
+      <c r="SC8" s="10"/>
+      <c r="SD8" s="11"/>
+      <c r="SE8" s="11"/>
+      <c r="SF8" s="10"/>
+      <c r="SG8" s="11"/>
+      <c r="SH8" s="11"/>
+      <c r="SI8" s="10"/>
+      <c r="SJ8" s="11"/>
+      <c r="SK8" s="11"/>
+      <c r="SL8" s="10"/>
+      <c r="SM8" s="11"/>
+      <c r="SN8" s="11"/>
+      <c r="SO8" s="10"/>
+      <c r="SP8" s="11"/>
+      <c r="SQ8" s="11"/>
+      <c r="SR8" s="10"/>
+      <c r="SS8" s="11"/>
+      <c r="ST8" s="11"/>
+      <c r="SU8" s="10"/>
+      <c r="SV8" s="11"/>
+      <c r="SW8" s="11"/>
+      <c r="SX8" s="10"/>
+      <c r="SY8" s="11"/>
+      <c r="SZ8" s="11"/>
+      <c r="TA8" s="10"/>
+      <c r="TB8" s="11"/>
+      <c r="TC8" s="11"/>
+      <c r="TD8" s="10"/>
+      <c r="TE8" s="11"/>
+      <c r="TF8" s="11"/>
+      <c r="TG8" s="10"/>
+      <c r="TH8" s="11"/>
+      <c r="TI8" s="11"/>
+      <c r="TJ8" s="10"/>
+      <c r="TK8" s="11"/>
+      <c r="TL8" s="11"/>
+      <c r="TM8" s="10"/>
+      <c r="TN8" s="11"/>
+      <c r="TO8" s="11"/>
+      <c r="TP8" s="10"/>
+      <c r="TQ8" s="11"/>
+      <c r="TR8" s="11"/>
+      <c r="TS8" s="10"/>
+      <c r="TT8" s="11"/>
+      <c r="TU8" s="11"/>
+      <c r="TV8" s="10"/>
+      <c r="TW8" s="11"/>
+      <c r="TX8" s="11"/>
+      <c r="TY8" s="10"/>
+      <c r="TZ8" s="11"/>
+      <c r="UA8" s="11"/>
+      <c r="UB8" s="10"/>
+      <c r="UC8" s="11"/>
+      <c r="UD8" s="11"/>
+      <c r="UE8" s="10"/>
+      <c r="UF8" s="11"/>
+      <c r="UG8" s="11"/>
+      <c r="UH8" s="10"/>
+      <c r="UI8" s="11"/>
+      <c r="UJ8" s="11"/>
+      <c r="UK8" s="10"/>
+      <c r="UL8" s="11"/>
+      <c r="UM8" s="11"/>
+      <c r="UN8" s="10"/>
+      <c r="UO8" s="11"/>
+      <c r="UP8" s="11"/>
+      <c r="UQ8" s="10"/>
+      <c r="UR8" s="11"/>
+      <c r="US8" s="11"/>
+      <c r="UT8" s="10"/>
+      <c r="UU8" s="11"/>
+      <c r="UV8" s="11"/>
+      <c r="UW8" s="10"/>
+      <c r="UX8" s="11"/>
+      <c r="UY8" s="11"/>
+      <c r="UZ8" s="10"/>
+      <c r="VA8" s="11"/>
+      <c r="VB8" s="11"/>
+      <c r="VC8" s="10"/>
+      <c r="VD8" s="11"/>
+      <c r="VE8" s="11"/>
+      <c r="VF8" s="10"/>
+      <c r="VG8" s="11"/>
+      <c r="VH8" s="11"/>
+      <c r="VI8" s="10"/>
+      <c r="VJ8" s="11"/>
+      <c r="VK8" s="11"/>
+      <c r="VL8" s="10"/>
+      <c r="VM8" s="11"/>
+      <c r="VN8" s="11"/>
+      <c r="VO8" s="10"/>
+      <c r="VP8" s="11"/>
+      <c r="VQ8" s="11"/>
+      <c r="VR8" s="10"/>
+      <c r="VS8" s="11"/>
+      <c r="VT8" s="11"/>
+      <c r="VU8" s="10"/>
+      <c r="VV8" s="11"/>
+      <c r="VW8" s="11"/>
+      <c r="VX8" s="10"/>
+      <c r="VY8" s="11"/>
+      <c r="VZ8" s="11"/>
+      <c r="WA8" s="10"/>
+      <c r="WB8" s="11"/>
+      <c r="WC8" s="11"/>
+      <c r="WD8" s="10"/>
+      <c r="WE8" s="11"/>
+      <c r="WF8" s="11"/>
+      <c r="WG8" s="10"/>
+      <c r="WH8" s="11"/>
+      <c r="WI8" s="11"/>
+      <c r="WJ8" s="10"/>
+      <c r="WK8" s="11"/>
+      <c r="WL8" s="11"/>
+      <c r="WM8" s="10"/>
+      <c r="WN8" s="11"/>
+      <c r="WO8" s="11"/>
+      <c r="WP8" s="10"/>
+      <c r="WQ8" s="11"/>
+      <c r="WR8" s="11"/>
+      <c r="WS8" s="10"/>
+      <c r="WT8" s="11"/>
+      <c r="WU8" s="11"/>
+      <c r="WV8" s="10"/>
+      <c r="WW8" s="11"/>
+      <c r="WX8" s="11"/>
+      <c r="WY8" s="10"/>
+      <c r="WZ8" s="11"/>
+      <c r="XA8" s="11"/>
+      <c r="XB8" s="10"/>
+      <c r="XC8" s="11"/>
+      <c r="XD8" s="11"/>
+      <c r="XE8" s="10"/>
+      <c r="XF8" s="11"/>
+      <c r="XG8" s="11"/>
+      <c r="XH8" s="10"/>
+      <c r="XI8" s="11"/>
+      <c r="XJ8" s="11"/>
+      <c r="XK8" s="10"/>
+      <c r="XL8" s="11"/>
+      <c r="XM8" s="11"/>
+      <c r="XN8" s="10"/>
+      <c r="XO8" s="11"/>
+      <c r="XP8" s="11"/>
+      <c r="XQ8" s="10"/>
+      <c r="XR8" s="11"/>
+      <c r="XS8" s="11"/>
+      <c r="XT8" s="10"/>
+      <c r="XU8" s="11"/>
+      <c r="XV8" s="11"/>
+      <c r="XW8" s="10"/>
+      <c r="XX8" s="11"/>
+      <c r="XY8" s="11"/>
+      <c r="XZ8" s="10"/>
+      <c r="YA8" s="11"/>
+      <c r="YB8" s="11"/>
+      <c r="YC8" s="10"/>
+      <c r="YD8" s="11"/>
+      <c r="YE8" s="11"/>
+      <c r="YF8" s="10"/>
+      <c r="YG8" s="11"/>
+      <c r="YH8" s="11"/>
+      <c r="YI8" s="10"/>
+      <c r="YJ8" s="11"/>
+      <c r="YK8" s="11"/>
+      <c r="YL8" s="10"/>
+      <c r="YM8" s="11"/>
+      <c r="YN8" s="11"/>
+      <c r="YO8" s="10"/>
+      <c r="YP8" s="11"/>
+      <c r="YQ8" s="11"/>
+      <c r="YR8" s="10"/>
+      <c r="YS8" s="11"/>
+      <c r="YT8" s="11"/>
+      <c r="YU8" s="10"/>
+      <c r="YV8" s="11"/>
+      <c r="YW8" s="11"/>
+      <c r="YX8" s="10"/>
+      <c r="YY8" s="11"/>
+      <c r="YZ8" s="11"/>
+      <c r="ZA8" s="10"/>
+      <c r="ZB8" s="11"/>
+      <c r="ZC8" s="11"/>
+      <c r="ZD8" s="10"/>
+      <c r="ZE8" s="11"/>
+      <c r="ZF8" s="11"/>
+      <c r="ZG8" s="10"/>
+      <c r="ZH8" s="11"/>
+      <c r="ZI8" s="11"/>
+      <c r="ZJ8" s="10"/>
+      <c r="ZK8" s="11"/>
+      <c r="ZL8" s="11"/>
+      <c r="ZM8" s="10"/>
+      <c r="ZN8" s="11"/>
+      <c r="ZO8" s="11"/>
+      <c r="ZP8" s="10"/>
+      <c r="ZQ8" s="11"/>
+      <c r="ZR8" s="11"/>
+      <c r="ZS8" s="10"/>
+      <c r="ZT8" s="11"/>
+      <c r="ZU8" s="11"/>
+      <c r="ZV8" s="10"/>
+      <c r="ZW8" s="11"/>
+      <c r="ZX8" s="11"/>
+      <c r="ZY8" s="10"/>
+      <c r="ZZ8" s="11"/>
+      <c r="AAA8" s="11"/>
+      <c r="AAB8" s="10"/>
+      <c r="AAC8" s="11"/>
+      <c r="AAD8" s="11"/>
+      <c r="AAE8" s="10"/>
+      <c r="AAF8" s="11"/>
+      <c r="AAG8" s="11"/>
+      <c r="AAH8" s="10"/>
+      <c r="AAI8" s="11"/>
+      <c r="AAJ8" s="11"/>
+      <c r="AAK8" s="10"/>
+      <c r="AAL8" s="11"/>
+      <c r="AAM8" s="11"/>
+      <c r="AAN8" s="10"/>
+      <c r="AAO8" s="11"/>
+      <c r="AAP8" s="11"/>
+      <c r="AAQ8" s="10"/>
+      <c r="AAR8" s="11"/>
+      <c r="AAS8" s="11"/>
+      <c r="AAT8" s="10"/>
+      <c r="AAU8" s="11"/>
+      <c r="AAV8" s="11"/>
+      <c r="AAW8" s="10"/>
+      <c r="AAX8" s="11"/>
+      <c r="AAY8" s="11"/>
+      <c r="AAZ8" s="10"/>
+      <c r="ABA8" s="11"/>
+      <c r="ABB8" s="11"/>
+      <c r="ABC8" s="10"/>
+      <c r="ABD8" s="11"/>
+      <c r="ABE8" s="11"/>
+      <c r="ABF8" s="10"/>
+      <c r="ABG8" s="11"/>
+      <c r="ABH8" s="11"/>
+      <c r="ABI8" s="10"/>
+      <c r="ABJ8" s="11"/>
+      <c r="ABK8" s="11"/>
+      <c r="ABL8" s="10"/>
+      <c r="ABM8" s="11"/>
+      <c r="ABN8" s="11"/>
+      <c r="ABO8" s="10"/>
+      <c r="ABP8" s="11"/>
+      <c r="ABQ8" s="11"/>
+      <c r="ABR8" s="10"/>
+      <c r="ABS8" s="11"/>
+      <c r="ABT8" s="11"/>
+      <c r="ABU8" s="10"/>
+      <c r="ABV8" s="11"/>
+      <c r="ABW8" s="11"/>
+      <c r="ABX8" s="10"/>
+      <c r="ABY8" s="11"/>
+      <c r="ABZ8" s="11"/>
+      <c r="ACA8" s="10"/>
+      <c r="ACB8" s="11"/>
+      <c r="ACC8" s="11"/>
+      <c r="ACD8" s="10"/>
+      <c r="ACE8" s="11"/>
+      <c r="ACF8" s="11"/>
+      <c r="ACG8" s="10"/>
+      <c r="ACH8" s="11"/>
+      <c r="ACI8" s="11"/>
+      <c r="ACJ8" s="10"/>
+      <c r="ACK8" s="11"/>
+      <c r="ACL8" s="11"/>
+      <c r="ACM8" s="10"/>
+      <c r="ACN8" s="11"/>
+      <c r="ACO8" s="11"/>
+      <c r="ACP8" s="10"/>
+      <c r="ACQ8" s="11"/>
+      <c r="ACR8" s="11"/>
+      <c r="ACS8" s="10"/>
+      <c r="ACT8" s="11"/>
+      <c r="ACU8" s="11"/>
+      <c r="ACV8" s="10"/>
+      <c r="ACW8" s="11"/>
+      <c r="ACX8" s="11"/>
+      <c r="ACY8" s="10"/>
+      <c r="ACZ8" s="11"/>
+      <c r="ADA8" s="11"/>
+      <c r="ADB8" s="10"/>
+      <c r="ADC8" s="11"/>
+      <c r="ADD8" s="11"/>
+      <c r="ADE8" s="10"/>
+      <c r="ADF8" s="11"/>
+      <c r="ADG8" s="11"/>
+      <c r="ADH8" s="10"/>
+      <c r="ADI8" s="11"/>
+      <c r="ADJ8" s="11"/>
+      <c r="ADK8" s="10"/>
+      <c r="ADL8" s="11"/>
+      <c r="ADM8" s="11"/>
+      <c r="ADN8" s="10"/>
+      <c r="ADO8" s="11"/>
+      <c r="ADP8" s="11"/>
+      <c r="ADQ8" s="10"/>
+      <c r="ADR8" s="11"/>
+      <c r="ADS8" s="11"/>
+      <c r="ADT8" s="10"/>
+      <c r="ADU8" s="11"/>
+      <c r="ADV8" s="11"/>
+      <c r="ADW8" s="10"/>
+      <c r="ADX8" s="11"/>
+      <c r="ADY8" s="11"/>
+      <c r="ADZ8" s="10"/>
+      <c r="AEA8" s="11"/>
+      <c r="AEB8" s="11"/>
+      <c r="AEC8" s="10"/>
+      <c r="AED8" s="11"/>
+      <c r="AEE8" s="11"/>
+      <c r="AEF8" s="10"/>
+      <c r="AEG8" s="11"/>
+      <c r="AEH8" s="11"/>
+      <c r="AEI8" s="10"/>
+      <c r="AEJ8" s="11"/>
+      <c r="AEK8" s="11"/>
+      <c r="AEL8" s="10"/>
+      <c r="AEM8" s="11"/>
+      <c r="AEN8" s="11"/>
+      <c r="AEO8" s="10"/>
+      <c r="AEP8" s="11"/>
+      <c r="AEQ8" s="11"/>
+      <c r="AER8" s="10"/>
+      <c r="AES8" s="11"/>
+      <c r="AET8" s="11"/>
+      <c r="AEU8" s="10"/>
+      <c r="AEV8" s="11"/>
+      <c r="AEW8" s="11"/>
+      <c r="AEX8" s="10"/>
+      <c r="AEY8" s="11"/>
+      <c r="AEZ8" s="11"/>
+      <c r="AFA8" s="10"/>
+      <c r="AFB8" s="11"/>
+      <c r="AFC8" s="11"/>
+      <c r="AFD8" s="10"/>
+      <c r="AFE8" s="11"/>
+      <c r="AFF8" s="11"/>
+      <c r="AFG8" s="10"/>
+      <c r="AFH8" s="11"/>
+      <c r="AFI8" s="11"/>
+      <c r="AFJ8" s="10"/>
+      <c r="AFK8" s="11"/>
+      <c r="AFL8" s="11"/>
+      <c r="AFM8" s="10"/>
+      <c r="AFN8" s="11"/>
+      <c r="AFO8" s="11"/>
+      <c r="AFP8" s="10"/>
+      <c r="AFQ8" s="11"/>
+      <c r="AFR8" s="11"/>
+      <c r="AFS8" s="10"/>
+      <c r="AFT8" s="11"/>
+      <c r="AFU8" s="11"/>
+      <c r="AFV8" s="10"/>
+      <c r="AFW8" s="11"/>
+      <c r="AFX8" s="11"/>
+      <c r="AFY8" s="10"/>
+      <c r="AFZ8" s="11"/>
+      <c r="AGA8" s="11"/>
+      <c r="AGB8" s="10"/>
+      <c r="AGC8" s="11"/>
+      <c r="AGD8" s="11"/>
+      <c r="AGE8" s="10"/>
+      <c r="AGF8" s="11"/>
     </row>
     <row r="9" ht="25" customHeight="1" spans="1:864">
-      <c r="A9" s="13" t="s">
+      <c r="A9" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="15"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="14"/>
       <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="10"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
       <c r="H9" s="10"/>
-      <c r="I9" s="10"/>
-      <c r="J9" s="10"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="11"/>
       <c r="K9" s="10"/>
-      <c r="L9" s="10"/>
-      <c r="M9" s="10"/>
+      <c r="L9" s="11"/>
+      <c r="M9" s="11"/>
       <c r="N9" s="10"/>
-      <c r="O9" s="10"/>
-      <c r="P9" s="10"/>
+      <c r="O9" s="11"/>
+      <c r="P9" s="11"/>
       <c r="Q9" s="10"/>
-      <c r="R9" s="10"/>
-      <c r="S9" s="10"/>
+      <c r="R9" s="11"/>
+      <c r="S9" s="11"/>
       <c r="T9" s="10"/>
-      <c r="U9" s="10"/>
-      <c r="V9" s="10"/>
+      <c r="U9" s="11"/>
+      <c r="V9" s="11"/>
       <c r="W9" s="10"/>
-      <c r="X9" s="10"/>
-      <c r="Y9" s="10"/>
+      <c r="X9" s="11"/>
+      <c r="Y9" s="11"/>
       <c r="Z9" s="10"/>
-      <c r="AA9" s="10"/>
-      <c r="AB9" s="10"/>
+      <c r="AA9" s="11"/>
+      <c r="AB9" s="11"/>
       <c r="AC9" s="10"/>
-      <c r="AD9" s="10"/>
-      <c r="AE9" s="10"/>
+      <c r="AD9" s="11"/>
+      <c r="AE9" s="11"/>
       <c r="AF9" s="10"/>
-      <c r="AG9" s="10"/>
-      <c r="AH9" s="10"/>
+      <c r="AG9" s="11"/>
+      <c r="AH9" s="11"/>
       <c r="AI9" s="10"/>
-      <c r="AJ9" s="10"/>
-      <c r="AK9" s="10"/>
+      <c r="AJ9" s="11"/>
+      <c r="AK9" s="11"/>
       <c r="AL9" s="10"/>
-      <c r="AM9" s="10"/>
-      <c r="AN9" s="10"/>
+      <c r="AM9" s="11"/>
+      <c r="AN9" s="11"/>
       <c r="AO9" s="10"/>
-      <c r="AP9" s="10"/>
-      <c r="AQ9" s="10"/>
+      <c r="AP9" s="11"/>
+      <c r="AQ9" s="11"/>
       <c r="AR9" s="10"/>
-      <c r="AS9" s="10"/>
-      <c r="AT9" s="10"/>
+      <c r="AS9" s="11"/>
+      <c r="AT9" s="11"/>
       <c r="AU9" s="10"/>
-      <c r="AV9" s="10"/>
-      <c r="AW9" s="10"/>
+      <c r="AV9" s="11"/>
+      <c r="AW9" s="11"/>
       <c r="AX9" s="10"/>
-      <c r="AY9" s="10"/>
-      <c r="AZ9" s="10"/>
+      <c r="AY9" s="11"/>
+      <c r="AZ9" s="11"/>
       <c r="BA9" s="10"/>
-      <c r="BB9" s="10"/>
-      <c r="BC9" s="10"/>
+      <c r="BB9" s="11"/>
+      <c r="BC9" s="11"/>
       <c r="BD9" s="10"/>
-      <c r="BE9" s="10"/>
-      <c r="BF9" s="10"/>
+      <c r="BE9" s="11"/>
+      <c r="BF9" s="11"/>
       <c r="BG9" s="10"/>
-      <c r="BH9" s="10"/>
-      <c r="BI9" s="10"/>
+      <c r="BH9" s="11"/>
+      <c r="BI9" s="11"/>
       <c r="BJ9" s="10"/>
-      <c r="BK9" s="10"/>
-      <c r="BL9" s="10"/>
+      <c r="BK9" s="11"/>
+      <c r="BL9" s="11"/>
       <c r="BM9" s="10"/>
-      <c r="BN9" s="10"/>
-      <c r="BO9" s="10"/>
+      <c r="BN9" s="11"/>
+      <c r="BO9" s="11"/>
       <c r="BP9" s="10"/>
-      <c r="BQ9" s="10"/>
-      <c r="BR9" s="10"/>
+      <c r="BQ9" s="11"/>
+      <c r="BR9" s="11"/>
       <c r="BS9" s="10"/>
-      <c r="BT9" s="10"/>
-      <c r="BU9" s="10"/>
+      <c r="BT9" s="11"/>
+      <c r="BU9" s="11"/>
       <c r="BV9" s="10"/>
-      <c r="BW9" s="10"/>
-      <c r="BX9" s="10"/>
+      <c r="BW9" s="11"/>
+      <c r="BX9" s="11"/>
       <c r="BY9" s="10"/>
-      <c r="BZ9" s="10"/>
-      <c r="CA9" s="10"/>
+      <c r="BZ9" s="11"/>
+      <c r="CA9" s="11"/>
       <c r="CB9" s="10"/>
-      <c r="CC9" s="10"/>
-      <c r="CD9" s="10"/>
+      <c r="CC9" s="11"/>
+      <c r="CD9" s="11"/>
       <c r="CE9" s="10"/>
-      <c r="CF9" s="10"/>
-      <c r="CG9" s="10"/>
+      <c r="CF9" s="11"/>
+      <c r="CG9" s="11"/>
       <c r="CH9" s="10"/>
-      <c r="CI9" s="10"/>
-      <c r="CJ9" s="10"/>
+      <c r="CI9" s="11"/>
+      <c r="CJ9" s="11"/>
       <c r="CK9" s="10"/>
-      <c r="CL9" s="10"/>
-      <c r="CM9" s="10"/>
+      <c r="CL9" s="11"/>
+      <c r="CM9" s="11"/>
       <c r="CN9" s="10"/>
-      <c r="CO9" s="10"/>
-      <c r="CP9" s="10"/>
+      <c r="CO9" s="11"/>
+      <c r="CP9" s="11"/>
       <c r="CQ9" s="10"/>
-      <c r="CR9" s="10"/>
-      <c r="CS9" s="10"/>
+      <c r="CR9" s="11"/>
+      <c r="CS9" s="11"/>
       <c r="CT9" s="10"/>
-      <c r="CU9" s="10"/>
-      <c r="CV9" s="10"/>
+      <c r="CU9" s="11"/>
+      <c r="CV9" s="11"/>
       <c r="CW9" s="10"/>
-      <c r="CX9" s="10"/>
-      <c r="CY9" s="10"/>
+      <c r="CX9" s="11"/>
+      <c r="CY9" s="11"/>
       <c r="CZ9" s="10"/>
-      <c r="DA9" s="10"/>
-      <c r="DB9" s="10"/>
+      <c r="DA9" s="11"/>
+      <c r="DB9" s="11"/>
       <c r="DC9" s="10"/>
-      <c r="DD9" s="10"/>
-      <c r="DE9" s="10"/>
+      <c r="DD9" s="11"/>
+      <c r="DE9" s="11"/>
       <c r="DF9" s="10"/>
-      <c r="DG9" s="10"/>
-      <c r="DH9" s="10"/>
+      <c r="DG9" s="11"/>
+      <c r="DH9" s="11"/>
       <c r="DI9" s="10"/>
-      <c r="DJ9" s="10"/>
-      <c r="DK9" s="10"/>
+      <c r="DJ9" s="11"/>
+      <c r="DK9" s="11"/>
       <c r="DL9" s="10"/>
-      <c r="DM9" s="10"/>
-      <c r="DN9" s="10"/>
+      <c r="DM9" s="11"/>
+      <c r="DN9" s="11"/>
       <c r="DO9" s="10"/>
-      <c r="DP9" s="10"/>
-      <c r="DQ9" s="10"/>
+      <c r="DP9" s="11"/>
+      <c r="DQ9" s="11"/>
       <c r="DR9" s="10"/>
-      <c r="DS9" s="10"/>
-      <c r="DT9" s="10"/>
+      <c r="DS9" s="11"/>
+      <c r="DT9" s="11"/>
       <c r="DU9" s="10"/>
-      <c r="DV9" s="10"/>
-      <c r="DW9" s="10"/>
+      <c r="DV9" s="11"/>
+      <c r="DW9" s="11"/>
       <c r="DX9" s="10"/>
-      <c r="DY9" s="10"/>
-      <c r="DZ9" s="10"/>
+      <c r="DY9" s="11"/>
+      <c r="DZ9" s="11"/>
       <c r="EA9" s="10"/>
-      <c r="EB9" s="10"/>
-      <c r="EC9" s="10"/>
+      <c r="EB9" s="11"/>
+      <c r="EC9" s="11"/>
       <c r="ED9" s="10"/>
-      <c r="EE9" s="10"/>
-      <c r="EF9" s="10"/>
+      <c r="EE9" s="11"/>
+      <c r="EF9" s="11"/>
       <c r="EG9" s="10"/>
-      <c r="EH9" s="10"/>
-      <c r="EI9" s="10"/>
+      <c r="EH9" s="11"/>
+      <c r="EI9" s="11"/>
       <c r="EJ9" s="10"/>
-      <c r="EK9" s="10"/>
-      <c r="EL9" s="10"/>
+      <c r="EK9" s="11"/>
+      <c r="EL9" s="11"/>
       <c r="EM9" s="10"/>
-      <c r="EN9" s="10"/>
-      <c r="EO9" s="10"/>
+      <c r="EN9" s="11"/>
+      <c r="EO9" s="11"/>
       <c r="EP9" s="10"/>
-      <c r="EQ9" s="10"/>
-      <c r="ER9" s="10"/>
+      <c r="EQ9" s="11"/>
+      <c r="ER9" s="11"/>
       <c r="ES9" s="10"/>
-      <c r="ET9" s="10"/>
-      <c r="EU9" s="10"/>
+      <c r="ET9" s="11"/>
+      <c r="EU9" s="11"/>
       <c r="EV9" s="10"/>
-      <c r="EW9" s="10"/>
-      <c r="EX9" s="10"/>
+      <c r="EW9" s="11"/>
+      <c r="EX9" s="11"/>
       <c r="EY9" s="10"/>
-      <c r="EZ9" s="10"/>
-      <c r="FA9" s="10"/>
+      <c r="EZ9" s="11"/>
+      <c r="FA9" s="11"/>
       <c r="FB9" s="10"/>
-      <c r="FC9" s="10"/>
-      <c r="FD9" s="10"/>
+      <c r="FC9" s="11"/>
+      <c r="FD9" s="11"/>
       <c r="FE9" s="10"/>
-      <c r="FF9" s="10"/>
-      <c r="FG9" s="10"/>
+      <c r="FF9" s="11"/>
+      <c r="FG9" s="11"/>
       <c r="FH9" s="10"/>
-      <c r="FI9" s="10"/>
-      <c r="FJ9" s="10"/>
+      <c r="FI9" s="11"/>
+      <c r="FJ9" s="11"/>
       <c r="FK9" s="10"/>
-      <c r="FL9" s="10"/>
-      <c r="FM9" s="10"/>
+      <c r="FL9" s="11"/>
+      <c r="FM9" s="11"/>
       <c r="FN9" s="10"/>
-      <c r="FO9" s="10"/>
-      <c r="FP9" s="10"/>
+      <c r="FO9" s="11"/>
+      <c r="FP9" s="11"/>
       <c r="FQ9" s="10"/>
-      <c r="FR9" s="10"/>
-      <c r="FS9" s="10"/>
+      <c r="FR9" s="11"/>
+      <c r="FS9" s="11"/>
       <c r="FT9" s="10"/>
-      <c r="FU9" s="10"/>
-      <c r="FV9" s="10"/>
+      <c r="FU9" s="11"/>
+      <c r="FV9" s="11"/>
       <c r="FW9" s="10"/>
-      <c r="FX9" s="10"/>
-      <c r="FY9" s="10"/>
+      <c r="FX9" s="11"/>
+      <c r="FY9" s="11"/>
       <c r="FZ9" s="10"/>
-      <c r="GA9" s="10"/>
-      <c r="GB9" s="10"/>
+      <c r="GA9" s="11"/>
+      <c r="GB9" s="11"/>
       <c r="GC9" s="10"/>
-      <c r="GD9" s="10"/>
-      <c r="GE9" s="10"/>
+      <c r="GD9" s="11"/>
+      <c r="GE9" s="11"/>
       <c r="GF9" s="10"/>
-      <c r="GG9" s="10"/>
-      <c r="GH9" s="10"/>
+      <c r="GG9" s="11"/>
+      <c r="GH9" s="11"/>
       <c r="GI9" s="10"/>
-      <c r="GJ9" s="10"/>
-      <c r="GK9" s="10"/>
+      <c r="GJ9" s="11"/>
+      <c r="GK9" s="11"/>
       <c r="GL9" s="10"/>
-      <c r="GM9" s="10"/>
-      <c r="GN9" s="10"/>
+      <c r="GM9" s="11"/>
+      <c r="GN9" s="11"/>
       <c r="GO9" s="10"/>
-      <c r="GP9" s="10"/>
-      <c r="GQ9" s="10"/>
+      <c r="GP9" s="11"/>
+      <c r="GQ9" s="11"/>
       <c r="GR9" s="10"/>
-      <c r="GS9" s="10"/>
-      <c r="GT9" s="10"/>
+      <c r="GS9" s="11"/>
+      <c r="GT9" s="11"/>
       <c r="GU9" s="10"/>
-      <c r="GV9" s="10"/>
-      <c r="GW9" s="10"/>
+      <c r="GV9" s="11"/>
+      <c r="GW9" s="11"/>
       <c r="GX9" s="10"/>
-      <c r="GY9" s="10"/>
-      <c r="GZ9" s="10"/>
+      <c r="GY9" s="11"/>
+      <c r="GZ9" s="11"/>
       <c r="HA9" s="10"/>
-      <c r="HB9" s="10"/>
-      <c r="HC9" s="10"/>
+      <c r="HB9" s="11"/>
+      <c r="HC9" s="11"/>
       <c r="HD9" s="10"/>
-      <c r="HE9" s="10"/>
-      <c r="HF9" s="10"/>
+      <c r="HE9" s="11"/>
+      <c r="HF9" s="11"/>
       <c r="HG9" s="10"/>
-      <c r="HH9" s="10"/>
-      <c r="HI9" s="10"/>
+      <c r="HH9" s="11"/>
+      <c r="HI9" s="11"/>
       <c r="HJ9" s="10"/>
-      <c r="HK9" s="10"/>
-      <c r="HL9" s="10"/>
+      <c r="HK9" s="11"/>
+      <c r="HL9" s="11"/>
       <c r="HM9" s="10"/>
-      <c r="HN9" s="10"/>
-      <c r="HO9" s="10"/>
+      <c r="HN9" s="11"/>
+      <c r="HO9" s="11"/>
       <c r="HP9" s="10"/>
-      <c r="HQ9" s="10"/>
-      <c r="HR9" s="10"/>
+      <c r="HQ9" s="11"/>
+      <c r="HR9" s="11"/>
       <c r="HS9" s="10"/>
-      <c r="HT9" s="10"/>
-      <c r="HU9" s="10"/>
+      <c r="HT9" s="11"/>
+      <c r="HU9" s="11"/>
       <c r="HV9" s="10"/>
-      <c r="HW9" s="10"/>
-      <c r="HX9" s="10"/>
+      <c r="HW9" s="11"/>
+      <c r="HX9" s="11"/>
       <c r="HY9" s="10"/>
-      <c r="HZ9" s="10"/>
-      <c r="IA9" s="10"/>
+      <c r="HZ9" s="11"/>
+      <c r="IA9" s="11"/>
       <c r="IB9" s="10"/>
-      <c r="IC9" s="10"/>
-      <c r="ID9" s="10"/>
+      <c r="IC9" s="11"/>
+      <c r="ID9" s="11"/>
       <c r="IE9" s="10"/>
-      <c r="IF9" s="10"/>
-      <c r="IG9" s="10"/>
+      <c r="IF9" s="11"/>
+      <c r="IG9" s="11"/>
       <c r="IH9" s="10"/>
-      <c r="II9" s="10"/>
-      <c r="IJ9" s="10"/>
+      <c r="II9" s="11"/>
+      <c r="IJ9" s="11"/>
       <c r="IK9" s="10"/>
-      <c r="IL9" s="10"/>
-      <c r="IM9" s="10"/>
+      <c r="IL9" s="11"/>
+      <c r="IM9" s="11"/>
       <c r="IN9" s="10"/>
-      <c r="IO9" s="10"/>
-      <c r="IP9" s="10"/>
+      <c r="IO9" s="11"/>
+      <c r="IP9" s="11"/>
       <c r="IQ9" s="10"/>
-      <c r="IR9" s="10"/>
-      <c r="IS9" s="10"/>
+      <c r="IR9" s="11"/>
+      <c r="IS9" s="11"/>
       <c r="IT9" s="10"/>
-      <c r="IU9" s="10"/>
-      <c r="IV9" s="10"/>
+      <c r="IU9" s="11"/>
+      <c r="IV9" s="11"/>
       <c r="IW9" s="10"/>
-      <c r="IX9" s="10"/>
-      <c r="IY9" s="10"/>
+      <c r="IX9" s="11"/>
+      <c r="IY9" s="11"/>
       <c r="IZ9" s="10"/>
-      <c r="JA9" s="10"/>
-      <c r="JB9" s="10"/>
+      <c r="JA9" s="11"/>
+      <c r="JB9" s="11"/>
       <c r="JC9" s="10"/>
-      <c r="JD9" s="10"/>
-      <c r="JE9" s="10"/>
+      <c r="JD9" s="11"/>
+      <c r="JE9" s="11"/>
       <c r="JF9" s="10"/>
-      <c r="JG9" s="10"/>
-      <c r="JH9" s="10"/>
+      <c r="JG9" s="11"/>
+      <c r="JH9" s="11"/>
       <c r="JI9" s="10"/>
-      <c r="JJ9" s="10"/>
-      <c r="JK9" s="10"/>
+      <c r="JJ9" s="11"/>
+      <c r="JK9" s="11"/>
       <c r="JL9" s="10"/>
-      <c r="JM9" s="10"/>
-      <c r="JN9" s="10"/>
+      <c r="JM9" s="11"/>
+      <c r="JN9" s="11"/>
       <c r="JO9" s="10"/>
-      <c r="JP9" s="10"/>
-      <c r="JQ9" s="10"/>
+      <c r="JP9" s="11"/>
+      <c r="JQ9" s="11"/>
       <c r="JR9" s="10"/>
-      <c r="JS9" s="10"/>
-      <c r="JT9" s="10"/>
+      <c r="JS9" s="11"/>
+      <c r="JT9" s="11"/>
       <c r="JU9" s="10"/>
-      <c r="JV9" s="10"/>
-      <c r="JW9" s="10"/>
+      <c r="JV9" s="11"/>
+      <c r="JW9" s="11"/>
       <c r="JX9" s="10"/>
-      <c r="JY9" s="10"/>
-      <c r="JZ9" s="10"/>
+      <c r="JY9" s="11"/>
+      <c r="JZ9" s="11"/>
       <c r="KA9" s="10"/>
-      <c r="KB9" s="10"/>
-      <c r="KC9" s="10"/>
+      <c r="KB9" s="11"/>
+      <c r="KC9" s="11"/>
       <c r="KD9" s="10"/>
-      <c r="KE9" s="10"/>
-      <c r="KF9" s="10"/>
+      <c r="KE9" s="11"/>
+      <c r="KF9" s="11"/>
       <c r="KG9" s="10"/>
-      <c r="KH9" s="10"/>
-      <c r="KI9" s="10"/>
+      <c r="KH9" s="11"/>
+      <c r="KI9" s="11"/>
       <c r="KJ9" s="10"/>
-      <c r="KK9" s="10"/>
-      <c r="KL9" s="10"/>
+      <c r="KK9" s="11"/>
+      <c r="KL9" s="11"/>
       <c r="KM9" s="10"/>
-      <c r="KN9" s="10"/>
-      <c r="KO9" s="10"/>
+      <c r="KN9" s="11"/>
+      <c r="KO9" s="11"/>
       <c r="KP9" s="10"/>
-      <c r="KQ9" s="10"/>
-      <c r="KR9" s="10"/>
+      <c r="KQ9" s="11"/>
+      <c r="KR9" s="11"/>
       <c r="KS9" s="10"/>
-      <c r="KT9" s="10"/>
-      <c r="KU9" s="10"/>
+      <c r="KT9" s="11"/>
+      <c r="KU9" s="11"/>
       <c r="KV9" s="10"/>
-      <c r="KW9" s="10"/>
-      <c r="KX9" s="10"/>
+      <c r="KW9" s="11"/>
+      <c r="KX9" s="11"/>
       <c r="KY9" s="10"/>
-      <c r="KZ9" s="10"/>
-      <c r="LA9" s="10"/>
+      <c r="KZ9" s="11"/>
+      <c r="LA9" s="11"/>
       <c r="LB9" s="10"/>
-      <c r="LC9" s="10"/>
-      <c r="LD9" s="10"/>
+      <c r="LC9" s="11"/>
+      <c r="LD9" s="11"/>
       <c r="LE9" s="10"/>
-      <c r="LF9" s="10"/>
-      <c r="LG9" s="10"/>
+      <c r="LF9" s="11"/>
+      <c r="LG9" s="11"/>
       <c r="LH9" s="10"/>
-      <c r="LI9" s="10"/>
-      <c r="LJ9" s="10"/>
+      <c r="LI9" s="11"/>
+      <c r="LJ9" s="11"/>
       <c r="LK9" s="10"/>
-      <c r="LL9" s="10"/>
-      <c r="LM9" s="10"/>
+      <c r="LL9" s="11"/>
+      <c r="LM9" s="11"/>
       <c r="LN9" s="10"/>
-      <c r="LO9" s="10"/>
-      <c r="LP9" s="10"/>
+      <c r="LO9" s="11"/>
+      <c r="LP9" s="11"/>
       <c r="LQ9" s="10"/>
-      <c r="LR9" s="10"/>
-      <c r="LS9" s="10"/>
+      <c r="LR9" s="11"/>
+      <c r="LS9" s="11"/>
       <c r="LT9" s="10"/>
-      <c r="LU9" s="10"/>
-      <c r="LV9" s="10"/>
+      <c r="LU9" s="11"/>
+      <c r="LV9" s="11"/>
       <c r="LW9" s="10"/>
-      <c r="LX9" s="10"/>
-      <c r="LY9" s="10"/>
+      <c r="LX9" s="11"/>
+      <c r="LY9" s="11"/>
       <c r="LZ9" s="10"/>
-      <c r="MA9" s="10"/>
-      <c r="MB9" s="10"/>
+      <c r="MA9" s="11"/>
+      <c r="MB9" s="11"/>
       <c r="MC9" s="10"/>
-      <c r="MD9" s="10"/>
-      <c r="ME9" s="10"/>
+      <c r="MD9" s="11"/>
+      <c r="ME9" s="11"/>
       <c r="MF9" s="10"/>
-      <c r="MG9" s="10"/>
-      <c r="MH9" s="10"/>
+      <c r="MG9" s="11"/>
+      <c r="MH9" s="11"/>
       <c r="MI9" s="10"/>
-      <c r="MJ9" s="10"/>
-      <c r="MK9" s="10"/>
+      <c r="MJ9" s="11"/>
+      <c r="MK9" s="11"/>
       <c r="ML9" s="10"/>
-      <c r="MM9" s="10"/>
-      <c r="MN9" s="10"/>
+      <c r="MM9" s="11"/>
+      <c r="MN9" s="11"/>
       <c r="MO9" s="10"/>
-      <c r="MP9" s="10"/>
-      <c r="MQ9" s="10"/>
+      <c r="MP9" s="11"/>
+      <c r="MQ9" s="11"/>
       <c r="MR9" s="10"/>
-      <c r="MS9" s="10"/>
-      <c r="MT9" s="10"/>
+      <c r="MS9" s="11"/>
+      <c r="MT9" s="11"/>
       <c r="MU9" s="10"/>
-      <c r="MV9" s="10"/>
-      <c r="MW9" s="10"/>
+      <c r="MV9" s="11"/>
+      <c r="MW9" s="11"/>
       <c r="MX9" s="10"/>
-      <c r="MY9" s="10"/>
-      <c r="MZ9" s="10"/>
+      <c r="MY9" s="11"/>
+      <c r="MZ9" s="11"/>
       <c r="NA9" s="10"/>
-      <c r="NB9" s="10"/>
-      <c r="NC9" s="10"/>
+      <c r="NB9" s="11"/>
+      <c r="NC9" s="11"/>
       <c r="ND9" s="10"/>
-      <c r="NE9" s="10"/>
-      <c r="NF9" s="10"/>
+      <c r="NE9" s="11"/>
+      <c r="NF9" s="11"/>
       <c r="NG9" s="10"/>
-      <c r="NH9" s="10"/>
-      <c r="NI9" s="10"/>
+      <c r="NH9" s="11"/>
+      <c r="NI9" s="11"/>
       <c r="NJ9" s="10"/>
-      <c r="NK9" s="10"/>
-      <c r="NL9" s="10"/>
+      <c r="NK9" s="11"/>
+      <c r="NL9" s="11"/>
       <c r="NM9" s="10"/>
-      <c r="NN9" s="10"/>
-      <c r="NO9" s="10"/>
+      <c r="NN9" s="11"/>
+      <c r="NO9" s="11"/>
       <c r="NP9" s="10"/>
-      <c r="NQ9" s="10"/>
-      <c r="NR9" s="10"/>
+      <c r="NQ9" s="11"/>
+      <c r="NR9" s="11"/>
       <c r="NS9" s="10"/>
-      <c r="NT9" s="10"/>
-      <c r="NU9" s="10"/>
+      <c r="NT9" s="11"/>
+      <c r="NU9" s="11"/>
       <c r="NV9" s="10"/>
-      <c r="NW9" s="10"/>
-      <c r="NX9" s="10"/>
+      <c r="NW9" s="11"/>
+      <c r="NX9" s="11"/>
       <c r="NY9" s="10"/>
-      <c r="NZ9" s="10"/>
-      <c r="OA9" s="10"/>
+      <c r="NZ9" s="11"/>
+      <c r="OA9" s="11"/>
       <c r="OB9" s="10"/>
-      <c r="OC9" s="10"/>
-      <c r="OD9" s="10"/>
+      <c r="OC9" s="11"/>
+      <c r="OD9" s="11"/>
       <c r="OE9" s="10"/>
-      <c r="OF9" s="10"/>
-      <c r="OG9" s="10"/>
+      <c r="OF9" s="11"/>
+      <c r="OG9" s="11"/>
       <c r="OH9" s="10"/>
-      <c r="OI9" s="10"/>
-      <c r="OJ9" s="10"/>
+      <c r="OI9" s="11"/>
+      <c r="OJ9" s="11"/>
       <c r="OK9" s="10"/>
-      <c r="OL9" s="10"/>
-      <c r="OM9" s="10"/>
+      <c r="OL9" s="11"/>
+      <c r="OM9" s="11"/>
       <c r="ON9" s="10"/>
-      <c r="OO9" s="10"/>
-      <c r="OP9" s="10"/>
+      <c r="OO9" s="11"/>
+      <c r="OP9" s="11"/>
       <c r="OQ9" s="10"/>
-      <c r="OR9" s="10"/>
-      <c r="OS9" s="10"/>
+      <c r="OR9" s="11"/>
+      <c r="OS9" s="11"/>
       <c r="OT9" s="10"/>
-      <c r="OU9" s="10"/>
-      <c r="OV9" s="10"/>
+      <c r="OU9" s="11"/>
+      <c r="OV9" s="11"/>
       <c r="OW9" s="10"/>
-      <c r="OX9" s="10"/>
-      <c r="OY9" s="10"/>
+      <c r="OX9" s="11"/>
+      <c r="OY9" s="11"/>
       <c r="OZ9" s="10"/>
-      <c r="PA9" s="10"/>
-      <c r="PB9" s="10"/>
+      <c r="PA9" s="11"/>
+      <c r="PB9" s="11"/>
       <c r="PC9" s="10"/>
-      <c r="PD9" s="10"/>
-      <c r="PE9" s="10"/>
+      <c r="PD9" s="11"/>
+      <c r="PE9" s="11"/>
       <c r="PF9" s="10"/>
-      <c r="PG9" s="10"/>
-      <c r="PH9" s="10"/>
+      <c r="PG9" s="11"/>
+      <c r="PH9" s="11"/>
       <c r="PI9" s="10"/>
-      <c r="PJ9" s="10"/>
-      <c r="PK9" s="10"/>
+      <c r="PJ9" s="11"/>
+      <c r="PK9" s="11"/>
       <c r="PL9" s="10"/>
-      <c r="PM9" s="10"/>
-      <c r="PN9" s="10"/>
+      <c r="PM9" s="11"/>
+      <c r="PN9" s="11"/>
       <c r="PO9" s="10"/>
-      <c r="PP9" s="10"/>
-      <c r="PQ9" s="10"/>
+      <c r="PP9" s="11"/>
+      <c r="PQ9" s="11"/>
       <c r="PR9" s="10"/>
-      <c r="PS9" s="10"/>
-      <c r="PT9" s="10"/>
+      <c r="PS9" s="11"/>
+      <c r="PT9" s="11"/>
       <c r="PU9" s="10"/>
-      <c r="PV9" s="10"/>
-      <c r="PW9" s="10"/>
+      <c r="PV9" s="11"/>
+      <c r="PW9" s="11"/>
       <c r="PX9" s="10"/>
-      <c r="PY9" s="10"/>
-      <c r="PZ9" s="10"/>
+      <c r="PY9" s="11"/>
+      <c r="PZ9" s="11"/>
       <c r="QA9" s="10"/>
-      <c r="QB9" s="10"/>
-      <c r="QC9" s="10"/>
+      <c r="QB9" s="11"/>
+      <c r="QC9" s="11"/>
       <c r="QD9" s="10"/>
-      <c r="QE9" s="10"/>
-      <c r="QF9" s="10"/>
+      <c r="QE9" s="11"/>
+      <c r="QF9" s="11"/>
       <c r="QG9" s="10"/>
-      <c r="QH9" s="10"/>
-      <c r="QI9" s="10"/>
+      <c r="QH9" s="11"/>
+      <c r="QI9" s="11"/>
       <c r="QJ9" s="10"/>
-      <c r="QK9" s="10"/>
-      <c r="QL9" s="10"/>
+      <c r="QK9" s="11"/>
+      <c r="QL9" s="11"/>
       <c r="QM9" s="10"/>
-      <c r="QN9" s="10"/>
-      <c r="QO9" s="10"/>
+      <c r="QN9" s="11"/>
+      <c r="QO9" s="11"/>
       <c r="QP9" s="10"/>
-      <c r="QQ9" s="10"/>
-      <c r="QR9" s="10"/>
+      <c r="QQ9" s="11"/>
+      <c r="QR9" s="11"/>
       <c r="QS9" s="10"/>
-      <c r="QT9" s="10"/>
-      <c r="QU9" s="10"/>
+      <c r="QT9" s="11"/>
+      <c r="QU9" s="11"/>
       <c r="QV9" s="10"/>
-      <c r="QW9" s="10"/>
-      <c r="QX9" s="10"/>
+      <c r="QW9" s="11"/>
+      <c r="QX9" s="11"/>
       <c r="QY9" s="10"/>
-      <c r="QZ9" s="10"/>
-      <c r="RA9" s="10"/>
+      <c r="QZ9" s="11"/>
+      <c r="RA9" s="11"/>
       <c r="RB9" s="10"/>
-      <c r="RC9" s="10"/>
-      <c r="RD9" s="10"/>
+      <c r="RC9" s="11"/>
+      <c r="RD9" s="11"/>
       <c r="RE9" s="10"/>
-      <c r="RF9" s="10"/>
-      <c r="RG9" s="10"/>
+      <c r="RF9" s="11"/>
+      <c r="RG9" s="11"/>
       <c r="RH9" s="10"/>
-      <c r="RI9" s="10"/>
-      <c r="RJ9" s="10"/>
+      <c r="RI9" s="11"/>
+      <c r="RJ9" s="11"/>
       <c r="RK9" s="10"/>
-      <c r="RL9" s="10"/>
-      <c r="RM9" s="10"/>
+      <c r="RL9" s="11"/>
+      <c r="RM9" s="11"/>
       <c r="RN9" s="10"/>
-      <c r="RO9" s="10"/>
-      <c r="RP9" s="10"/>
+      <c r="RO9" s="11"/>
+      <c r="RP9" s="11"/>
       <c r="RQ9" s="10"/>
-      <c r="RR9" s="10"/>
-      <c r="RS9" s="10"/>
+      <c r="RR9" s="11"/>
+      <c r="RS9" s="11"/>
       <c r="RT9" s="10"/>
-      <c r="RU9" s="10"/>
-      <c r="RV9" s="10"/>
+      <c r="RU9" s="11"/>
+      <c r="RV9" s="11"/>
       <c r="RW9" s="10"/>
-      <c r="RX9" s="10"/>
-      <c r="RY9" s="10"/>
+      <c r="RX9" s="11"/>
+      <c r="RY9" s="11"/>
       <c r="RZ9" s="10"/>
-      <c r="SA9" s="10"/>
-      <c r="SB9" s="10"/>
+      <c r="SA9" s="11"/>
+      <c r="SB9" s="11"/>
       <c r="SC9" s="10"/>
-      <c r="SD9" s="10"/>
-      <c r="SE9" s="10"/>
+      <c r="SD9" s="11"/>
+      <c r="SE9" s="11"/>
       <c r="SF9" s="10"/>
-      <c r="SG9" s="10"/>
-      <c r="SH9" s="10"/>
+      <c r="SG9" s="11"/>
+      <c r="SH9" s="11"/>
       <c r="SI9" s="10"/>
-      <c r="SJ9" s="10"/>
-      <c r="SK9" s="10"/>
+      <c r="SJ9" s="11"/>
+      <c r="SK9" s="11"/>
       <c r="SL9" s="10"/>
-      <c r="SM9" s="10"/>
-      <c r="SN9" s="10"/>
+      <c r="SM9" s="11"/>
+      <c r="SN9" s="11"/>
       <c r="SO9" s="10"/>
-      <c r="SP9" s="10"/>
-      <c r="SQ9" s="10"/>
+      <c r="SP9" s="11"/>
+      <c r="SQ9" s="11"/>
       <c r="SR9" s="10"/>
-      <c r="SS9" s="10"/>
-      <c r="ST9" s="10"/>
+      <c r="SS9" s="11"/>
+      <c r="ST9" s="11"/>
       <c r="SU9" s="10"/>
-      <c r="SV9" s="10"/>
-      <c r="SW9" s="10"/>
+      <c r="SV9" s="11"/>
+      <c r="SW9" s="11"/>
       <c r="SX9" s="10"/>
-      <c r="SY9" s="10"/>
-      <c r="SZ9" s="10"/>
+      <c r="SY9" s="11"/>
+      <c r="SZ9" s="11"/>
       <c r="TA9" s="10"/>
-      <c r="TB9" s="10"/>
-      <c r="TC9" s="10"/>
+      <c r="TB9" s="11"/>
+      <c r="TC9" s="11"/>
       <c r="TD9" s="10"/>
-      <c r="TE9" s="10"/>
-      <c r="TF9" s="10"/>
+      <c r="TE9" s="11"/>
+      <c r="TF9" s="11"/>
       <c r="TG9" s="10"/>
-      <c r="TH9" s="10"/>
-      <c r="TI9" s="10"/>
+      <c r="TH9" s="11"/>
+      <c r="TI9" s="11"/>
       <c r="TJ9" s="10"/>
-      <c r="TK9" s="10"/>
-      <c r="TL9" s="10"/>
+      <c r="TK9" s="11"/>
+      <c r="TL9" s="11"/>
       <c r="TM9" s="10"/>
-      <c r="TN9" s="10"/>
-      <c r="TO9" s="10"/>
+      <c r="TN9" s="11"/>
+      <c r="TO9" s="11"/>
       <c r="TP9" s="10"/>
-      <c r="TQ9" s="10"/>
-      <c r="TR9" s="10"/>
+      <c r="TQ9" s="11"/>
+      <c r="TR9" s="11"/>
       <c r="TS9" s="10"/>
-      <c r="TT9" s="10"/>
-      <c r="TU9" s="10"/>
+      <c r="TT9" s="11"/>
+      <c r="TU9" s="11"/>
       <c r="TV9" s="10"/>
-      <c r="TW9" s="10"/>
-      <c r="TX9" s="10"/>
+      <c r="TW9" s="11"/>
+      <c r="TX9" s="11"/>
       <c r="TY9" s="10"/>
-      <c r="TZ9" s="10"/>
-      <c r="UA9" s="10"/>
+      <c r="TZ9" s="11"/>
+      <c r="UA9" s="11"/>
       <c r="UB9" s="10"/>
-      <c r="UC9" s="10"/>
-      <c r="UD9" s="10"/>
+      <c r="UC9" s="11"/>
+      <c r="UD9" s="11"/>
       <c r="UE9" s="10"/>
-      <c r="UF9" s="10"/>
-      <c r="UG9" s="10"/>
+      <c r="UF9" s="11"/>
+      <c r="UG9" s="11"/>
       <c r="UH9" s="10"/>
-      <c r="UI9" s="10"/>
-      <c r="UJ9" s="10"/>
+      <c r="UI9" s="11"/>
+      <c r="UJ9" s="11"/>
       <c r="UK9" s="10"/>
-      <c r="UL9" s="10"/>
-      <c r="UM9" s="10"/>
+      <c r="UL9" s="11"/>
+      <c r="UM9" s="11"/>
       <c r="UN9" s="10"/>
-      <c r="UO9" s="10"/>
-      <c r="UP9" s="10"/>
+      <c r="UO9" s="11"/>
+      <c r="UP9" s="11"/>
       <c r="UQ9" s="10"/>
-      <c r="UR9" s="10"/>
-      <c r="US9" s="10"/>
+      <c r="UR9" s="11"/>
+      <c r="US9" s="11"/>
       <c r="UT9" s="10"/>
-      <c r="UU9" s="10"/>
-      <c r="UV9" s="10"/>
+      <c r="UU9" s="11"/>
+      <c r="UV9" s="11"/>
       <c r="UW9" s="10"/>
-      <c r="UX9" s="10"/>
-      <c r="UY9" s="10"/>
+      <c r="UX9" s="11"/>
+      <c r="UY9" s="11"/>
       <c r="UZ9" s="10"/>
-      <c r="VA9" s="10"/>
-      <c r="VB9" s="10"/>
+      <c r="VA9" s="11"/>
+      <c r="VB9" s="11"/>
       <c r="VC9" s="10"/>
-      <c r="VD9" s="10"/>
-      <c r="VE9" s="10"/>
+      <c r="VD9" s="11"/>
+      <c r="VE9" s="11"/>
       <c r="VF9" s="10"/>
-      <c r="VG9" s="10"/>
-      <c r="VH9" s="10"/>
+      <c r="VG9" s="11"/>
+      <c r="VH9" s="11"/>
       <c r="VI9" s="10"/>
-      <c r="VJ9" s="10"/>
-      <c r="VK9" s="10"/>
+      <c r="VJ9" s="11"/>
+      <c r="VK9" s="11"/>
       <c r="VL9" s="10"/>
-      <c r="VM9" s="10"/>
-      <c r="VN9" s="10"/>
+      <c r="VM9" s="11"/>
+      <c r="VN9" s="11"/>
       <c r="VO9" s="10"/>
-      <c r="VP9" s="10"/>
-      <c r="VQ9" s="10"/>
+      <c r="VP9" s="11"/>
+      <c r="VQ9" s="11"/>
       <c r="VR9" s="10"/>
-      <c r="VS9" s="10"/>
-      <c r="VT9" s="10"/>
+      <c r="VS9" s="11"/>
+      <c r="VT9" s="11"/>
       <c r="VU9" s="10"/>
-      <c r="VV9" s="10"/>
-      <c r="VW9" s="10"/>
+      <c r="VV9" s="11"/>
+      <c r="VW9" s="11"/>
       <c r="VX9" s="10"/>
-      <c r="VY9" s="10"/>
-      <c r="VZ9" s="10"/>
+      <c r="VY9" s="11"/>
+      <c r="VZ9" s="11"/>
       <c r="WA9" s="10"/>
-      <c r="WB9" s="10"/>
-      <c r="WC9" s="10"/>
+      <c r="WB9" s="11"/>
+      <c r="WC9" s="11"/>
       <c r="WD9" s="10"/>
-      <c r="WE9" s="10"/>
-      <c r="WF9" s="10"/>
+      <c r="WE9" s="11"/>
+      <c r="WF9" s="11"/>
       <c r="WG9" s="10"/>
-      <c r="WH9" s="10"/>
-      <c r="WI9" s="10"/>
+      <c r="WH9" s="11"/>
+      <c r="WI9" s="11"/>
       <c r="WJ9" s="10"/>
-      <c r="WK9" s="10"/>
-      <c r="WL9" s="10"/>
+      <c r="WK9" s="11"/>
+      <c r="WL9" s="11"/>
       <c r="WM9" s="10"/>
-      <c r="WN9" s="10"/>
-      <c r="WO9" s="10"/>
+      <c r="WN9" s="11"/>
+      <c r="WO9" s="11"/>
       <c r="WP9" s="10"/>
-      <c r="WQ9" s="10"/>
-      <c r="WR9" s="10"/>
+      <c r="WQ9" s="11"/>
+      <c r="WR9" s="11"/>
       <c r="WS9" s="10"/>
-      <c r="WT9" s="10"/>
-      <c r="WU9" s="10"/>
+      <c r="WT9" s="11"/>
+      <c r="WU9" s="11"/>
       <c r="WV9" s="10"/>
-      <c r="WW9" s="10"/>
-      <c r="WX9" s="10"/>
+      <c r="WW9" s="11"/>
+      <c r="WX9" s="11"/>
       <c r="WY9" s="10"/>
-      <c r="WZ9" s="10"/>
-      <c r="XA9" s="10"/>
+      <c r="WZ9" s="11"/>
+      <c r="XA9" s="11"/>
       <c r="XB9" s="10"/>
-      <c r="XC9" s="10"/>
-      <c r="XD9" s="10"/>
+      <c r="XC9" s="11"/>
+      <c r="XD9" s="11"/>
       <c r="XE9" s="10"/>
-      <c r="XF9" s="10"/>
-      <c r="XG9" s="10"/>
+      <c r="XF9" s="11"/>
+      <c r="XG9" s="11"/>
       <c r="XH9" s="10"/>
-      <c r="XI9" s="10"/>
-      <c r="XJ9" s="10"/>
+      <c r="XI9" s="11"/>
+      <c r="XJ9" s="11"/>
       <c r="XK9" s="10"/>
-      <c r="XL9" s="10"/>
-      <c r="XM9" s="10"/>
+      <c r="XL9" s="11"/>
+      <c r="XM9" s="11"/>
       <c r="XN9" s="10"/>
-      <c r="XO9" s="10"/>
-      <c r="XP9" s="10"/>
+      <c r="XO9" s="11"/>
+      <c r="XP9" s="11"/>
       <c r="XQ9" s="10"/>
-      <c r="XR9" s="10"/>
-      <c r="XS9" s="10"/>
+      <c r="XR9" s="11"/>
+      <c r="XS9" s="11"/>
       <c r="XT9" s="10"/>
-      <c r="XU9" s="10"/>
-      <c r="XV9" s="10"/>
+      <c r="XU9" s="11"/>
+      <c r="XV9" s="11"/>
       <c r="XW9" s="10"/>
-      <c r="XX9" s="10"/>
-      <c r="XY9" s="10"/>
+      <c r="XX9" s="11"/>
+      <c r="XY9" s="11"/>
       <c r="XZ9" s="10"/>
-      <c r="YA9" s="10"/>
-      <c r="YB9" s="10"/>
+      <c r="YA9" s="11"/>
+      <c r="YB9" s="11"/>
       <c r="YC9" s="10"/>
-      <c r="YD9" s="10"/>
-      <c r="YE9" s="10"/>
+      <c r="YD9" s="11"/>
+      <c r="YE9" s="11"/>
       <c r="YF9" s="10"/>
-      <c r="YG9" s="10"/>
-      <c r="YH9" s="10"/>
+      <c r="YG9" s="11"/>
+      <c r="YH9" s="11"/>
       <c r="YI9" s="10"/>
-      <c r="YJ9" s="10"/>
-      <c r="YK9" s="10"/>
+      <c r="YJ9" s="11"/>
+      <c r="YK9" s="11"/>
       <c r="YL9" s="10"/>
-      <c r="YM9" s="10"/>
-      <c r="YN9" s="10"/>
+      <c r="YM9" s="11"/>
+      <c r="YN9" s="11"/>
       <c r="YO9" s="10"/>
-      <c r="YP9" s="10"/>
-      <c r="YQ9" s="10"/>
+      <c r="YP9" s="11"/>
+      <c r="YQ9" s="11"/>
       <c r="YR9" s="10"/>
-      <c r="YS9" s="10"/>
-      <c r="YT9" s="10"/>
+      <c r="YS9" s="11"/>
+      <c r="YT9" s="11"/>
       <c r="YU9" s="10"/>
-      <c r="YV9" s="10"/>
-      <c r="YW9" s="10"/>
+      <c r="YV9" s="11"/>
+      <c r="YW9" s="11"/>
       <c r="YX9" s="10"/>
-      <c r="YY9" s="10"/>
-      <c r="YZ9" s="10"/>
+      <c r="YY9" s="11"/>
+      <c r="YZ9" s="11"/>
       <c r="ZA9" s="10"/>
-      <c r="ZB9" s="10"/>
-      <c r="ZC9" s="10"/>
+      <c r="ZB9" s="11"/>
+      <c r="ZC9" s="11"/>
       <c r="ZD9" s="10"/>
-      <c r="ZE9" s="10"/>
-      <c r="ZF9" s="10"/>
+      <c r="ZE9" s="11"/>
+      <c r="ZF9" s="11"/>
       <c r="ZG9" s="10"/>
-      <c r="ZH9" s="10"/>
-      <c r="ZI9" s="10"/>
+      <c r="ZH9" s="11"/>
+      <c r="ZI9" s="11"/>
       <c r="ZJ9" s="10"/>
-      <c r="ZK9" s="10"/>
-      <c r="ZL9" s="10"/>
+      <c r="ZK9" s="11"/>
+      <c r="ZL9" s="11"/>
       <c r="ZM9" s="10"/>
-      <c r="ZN9" s="10"/>
-      <c r="ZO9" s="10"/>
+      <c r="ZN9" s="11"/>
+      <c r="ZO9" s="11"/>
       <c r="ZP9" s="10"/>
-      <c r="ZQ9" s="10"/>
-      <c r="ZR9" s="10"/>
+      <c r="ZQ9" s="11"/>
+      <c r="ZR9" s="11"/>
       <c r="ZS9" s="10"/>
-      <c r="ZT9" s="10"/>
-      <c r="ZU9" s="10"/>
+      <c r="ZT9" s="11"/>
+      <c r="ZU9" s="11"/>
       <c r="ZV9" s="10"/>
-      <c r="ZW9" s="10"/>
-      <c r="ZX9" s="10"/>
+      <c r="ZW9" s="11"/>
+      <c r="ZX9" s="11"/>
       <c r="ZY9" s="10"/>
-      <c r="ZZ9" s="10"/>
-      <c r="AAA9" s="10"/>
+      <c r="ZZ9" s="11"/>
+      <c r="AAA9" s="11"/>
       <c r="AAB9" s="10"/>
-      <c r="AAC9" s="10"/>
-      <c r="AAD9" s="10"/>
+      <c r="AAC9" s="11"/>
+      <c r="AAD9" s="11"/>
       <c r="AAE9" s="10"/>
-      <c r="AAF9" s="10"/>
-      <c r="AAG9" s="10"/>
+      <c r="AAF9" s="11"/>
+      <c r="AAG9" s="11"/>
       <c r="AAH9" s="10"/>
-      <c r="AAI9" s="10"/>
-      <c r="AAJ9" s="10"/>
+      <c r="AAI9" s="11"/>
+      <c r="AAJ9" s="11"/>
       <c r="AAK9" s="10"/>
-      <c r="AAL9" s="10"/>
-      <c r="AAM9" s="10"/>
+      <c r="AAL9" s="11"/>
+      <c r="AAM9" s="11"/>
       <c r="AAN9" s="10"/>
-      <c r="AAO9" s="10"/>
-      <c r="AAP9" s="10"/>
+      <c r="AAO9" s="11"/>
+      <c r="AAP9" s="11"/>
       <c r="AAQ9" s="10"/>
-      <c r="AAR9" s="10"/>
-      <c r="AAS9" s="10"/>
+      <c r="AAR9" s="11"/>
+      <c r="AAS9" s="11"/>
       <c r="AAT9" s="10"/>
-      <c r="AAU9" s="10"/>
-      <c r="AAV9" s="10"/>
+      <c r="AAU9" s="11"/>
+      <c r="AAV9" s="11"/>
       <c r="AAW9" s="10"/>
-      <c r="AAX9" s="10"/>
-      <c r="AAY9" s="10"/>
+      <c r="AAX9" s="11"/>
+      <c r="AAY9" s="11"/>
       <c r="AAZ9" s="10"/>
-      <c r="ABA9" s="10"/>
-      <c r="ABB9" s="10"/>
+      <c r="ABA9" s="11"/>
+      <c r="ABB9" s="11"/>
       <c r="ABC9" s="10"/>
-      <c r="ABD9" s="10"/>
-      <c r="ABE9" s="10"/>
+      <c r="ABD9" s="11"/>
+      <c r="ABE9" s="11"/>
       <c r="ABF9" s="10"/>
-      <c r="ABG9" s="10"/>
-      <c r="ABH9" s="10"/>
+      <c r="ABG9" s="11"/>
+      <c r="ABH9" s="11"/>
       <c r="ABI9" s="10"/>
-      <c r="ABJ9" s="10"/>
-      <c r="ABK9" s="10"/>
+      <c r="ABJ9" s="11"/>
+      <c r="ABK9" s="11"/>
       <c r="ABL9" s="10"/>
-      <c r="ABM9" s="10"/>
-      <c r="ABN9" s="10"/>
+      <c r="ABM9" s="11"/>
+      <c r="ABN9" s="11"/>
       <c r="ABO9" s="10"/>
-      <c r="ABP9" s="10"/>
-      <c r="ABQ9" s="10"/>
+      <c r="ABP9" s="11"/>
+      <c r="ABQ9" s="11"/>
       <c r="ABR9" s="10"/>
-      <c r="ABS9" s="10"/>
-      <c r="ABT9" s="10"/>
+      <c r="ABS9" s="11"/>
+      <c r="ABT9" s="11"/>
       <c r="ABU9" s="10"/>
-      <c r="ABV9" s="10"/>
-      <c r="ABW9" s="10"/>
+      <c r="ABV9" s="11"/>
+      <c r="ABW9" s="11"/>
       <c r="ABX9" s="10"/>
-      <c r="ABY9" s="10"/>
-      <c r="ABZ9" s="10"/>
+      <c r="ABY9" s="11"/>
+      <c r="ABZ9" s="11"/>
       <c r="ACA9" s="10"/>
-      <c r="ACB9" s="10"/>
-      <c r="ACC9" s="10"/>
+      <c r="ACB9" s="11"/>
+      <c r="ACC9" s="11"/>
       <c r="ACD9" s="10"/>
-      <c r="ACE9" s="10"/>
-      <c r="ACF9" s="10"/>
+      <c r="ACE9" s="11"/>
+      <c r="ACF9" s="11"/>
       <c r="ACG9" s="10"/>
-      <c r="ACH9" s="10"/>
-      <c r="ACI9" s="10"/>
+      <c r="ACH9" s="11"/>
+      <c r="ACI9" s="11"/>
       <c r="ACJ9" s="10"/>
-      <c r="ACK9" s="10"/>
-      <c r="ACL9" s="10"/>
+      <c r="ACK9" s="11"/>
+      <c r="ACL9" s="11"/>
       <c r="ACM9" s="10"/>
-      <c r="ACN9" s="10"/>
-      <c r="ACO9" s="10"/>
+      <c r="ACN9" s="11"/>
+      <c r="ACO9" s="11"/>
       <c r="ACP9" s="10"/>
-      <c r="ACQ9" s="10"/>
-      <c r="ACR9" s="10"/>
+      <c r="ACQ9" s="11"/>
+      <c r="ACR9" s="11"/>
       <c r="ACS9" s="10"/>
-      <c r="ACT9" s="10"/>
-      <c r="ACU9" s="10"/>
+      <c r="ACT9" s="11"/>
+      <c r="ACU9" s="11"/>
       <c r="ACV9" s="10"/>
-      <c r="ACW9" s="10"/>
-      <c r="ACX9" s="10"/>
+      <c r="ACW9" s="11"/>
+      <c r="ACX9" s="11"/>
       <c r="ACY9" s="10"/>
-      <c r="ACZ9" s="10"/>
-      <c r="ADA9" s="10"/>
+      <c r="ACZ9" s="11"/>
+      <c r="ADA9" s="11"/>
       <c r="ADB9" s="10"/>
-      <c r="ADC9" s="10"/>
-      <c r="ADD9" s="10"/>
+      <c r="ADC9" s="11"/>
+      <c r="ADD9" s="11"/>
       <c r="ADE9" s="10"/>
-      <c r="ADF9" s="10"/>
-      <c r="ADG9" s="10"/>
+      <c r="ADF9" s="11"/>
+      <c r="ADG9" s="11"/>
       <c r="ADH9" s="10"/>
-      <c r="ADI9" s="10"/>
-      <c r="ADJ9" s="10"/>
+      <c r="ADI9" s="11"/>
+      <c r="ADJ9" s="11"/>
       <c r="ADK9" s="10"/>
-      <c r="ADL9" s="10"/>
-      <c r="ADM9" s="10"/>
+      <c r="ADL9" s="11"/>
+      <c r="ADM9" s="11"/>
       <c r="ADN9" s="10"/>
-      <c r="ADO9" s="10"/>
-      <c r="ADP9" s="10"/>
+      <c r="ADO9" s="11"/>
+      <c r="ADP9" s="11"/>
       <c r="ADQ9" s="10"/>
-      <c r="ADR9" s="10"/>
-      <c r="ADS9" s="10"/>
+      <c r="ADR9" s="11"/>
+      <c r="ADS9" s="11"/>
       <c r="ADT9" s="10"/>
-      <c r="ADU9" s="10"/>
-      <c r="ADV9" s="10"/>
+      <c r="ADU9" s="11"/>
+      <c r="ADV9" s="11"/>
       <c r="ADW9" s="10"/>
-      <c r="ADX9" s="10"/>
-      <c r="ADY9" s="10"/>
+      <c r="ADX9" s="11"/>
+      <c r="ADY9" s="11"/>
       <c r="ADZ9" s="10"/>
-      <c r="AEA9" s="10"/>
-      <c r="AEB9" s="10"/>
+      <c r="AEA9" s="11"/>
+      <c r="AEB9" s="11"/>
       <c r="AEC9" s="10"/>
-      <c r="AED9" s="10"/>
-      <c r="AEE9" s="10"/>
+      <c r="AED9" s="11"/>
+      <c r="AEE9" s="11"/>
       <c r="AEF9" s="10"/>
-      <c r="AEG9" s="10"/>
-      <c r="AEH9" s="10"/>
+      <c r="AEG9" s="11"/>
+      <c r="AEH9" s="11"/>
       <c r="AEI9" s="10"/>
-      <c r="AEJ9" s="10"/>
-      <c r="AEK9" s="10"/>
+      <c r="AEJ9" s="11"/>
+      <c r="AEK9" s="11"/>
       <c r="AEL9" s="10"/>
-      <c r="AEM9" s="10"/>
-      <c r="AEN9" s="10"/>
+      <c r="AEM9" s="11"/>
+      <c r="AEN9" s="11"/>
       <c r="AEO9" s="10"/>
-      <c r="AEP9" s="10"/>
-      <c r="AEQ9" s="10"/>
+      <c r="AEP9" s="11"/>
+      <c r="AEQ9" s="11"/>
       <c r="AER9" s="10"/>
-      <c r="AES9" s="10"/>
-      <c r="AET9" s="10"/>
+      <c r="AES9" s="11"/>
+      <c r="AET9" s="11"/>
       <c r="AEU9" s="10"/>
-      <c r="AEV9" s="10"/>
-      <c r="AEW9" s="10"/>
+      <c r="AEV9" s="11"/>
+      <c r="AEW9" s="11"/>
       <c r="AEX9" s="10"/>
-      <c r="AEY9" s="10"/>
-      <c r="AEZ9" s="10"/>
+      <c r="AEY9" s="11"/>
+      <c r="AEZ9" s="11"/>
       <c r="AFA9" s="10"/>
-      <c r="AFB9" s="10"/>
-      <c r="AFC9" s="10"/>
+      <c r="AFB9" s="11"/>
+      <c r="AFC9" s="11"/>
       <c r="AFD9" s="10"/>
-      <c r="AFE9" s="10"/>
-      <c r="AFF9" s="10"/>
+      <c r="AFE9" s="11"/>
+      <c r="AFF9" s="11"/>
       <c r="AFG9" s="10"/>
-      <c r="AFH9" s="10"/>
-      <c r="AFI9" s="10"/>
+      <c r="AFH9" s="11"/>
+      <c r="AFI9" s="11"/>
       <c r="AFJ9" s="10"/>
-      <c r="AFK9" s="10"/>
-      <c r="AFL9" s="10"/>
+      <c r="AFK9" s="11"/>
+      <c r="AFL9" s="11"/>
       <c r="AFM9" s="10"/>
-      <c r="AFN9" s="10"/>
-      <c r="AFO9" s="10"/>
+      <c r="AFN9" s="11"/>
+      <c r="AFO9" s="11"/>
       <c r="AFP9" s="10"/>
-      <c r="AFQ9" s="10"/>
-      <c r="AFR9" s="10"/>
+      <c r="AFQ9" s="11"/>
+      <c r="AFR9" s="11"/>
       <c r="AFS9" s="10"/>
-      <c r="AFT9" s="10"/>
-      <c r="AFU9" s="10"/>
+      <c r="AFT9" s="11"/>
+      <c r="AFU9" s="11"/>
       <c r="AFV9" s="10"/>
-      <c r="AFW9" s="10"/>
-      <c r="AFX9" s="10"/>
+      <c r="AFW9" s="11"/>
+      <c r="AFX9" s="11"/>
       <c r="AFY9" s="10"/>
-      <c r="AFZ9" s="10"/>
-      <c r="AGA9" s="10"/>
+      <c r="AFZ9" s="11"/>
+      <c r="AGA9" s="11"/>
       <c r="AGB9" s="10"/>
-      <c r="AGC9" s="10"/>
-      <c r="AGD9" s="10"/>
+      <c r="AGC9" s="11"/>
+      <c r="AGD9" s="11"/>
       <c r="AGE9" s="10"/>
-      <c r="AGF9" s="10"/>
+      <c r="AGF9" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="413">
